--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -27,7 +27,9 @@
     <sheet state="visible" name="proPreservation" sheetId="22" r:id="rId26"/>
     <sheet state="visible" name="value" sheetId="23" r:id="rId27"/>
     <sheet state="visible" name="discussion" sheetId="24" r:id="rId28"/>
-    <sheet state="visible" name="actionProposal" sheetId="25" r:id="rId29"/>
+    <sheet state="visible" name="relocation" sheetId="25" r:id="rId29"/>
+    <sheet state="visible" name="replacement" sheetId="26" r:id="rId30"/>
+    <sheet state="visible" name="actionUndefined" sheetId="27" r:id="rId31"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -37,13 +39,13 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
-    <author>tc={5b46cd2c-468e-4a0e-b6e6-bedc88826e18}</author>
-    <author>tc={7092c939-ff6a-419b-b7e7-8135d169e557}</author>
-    <author>tc={a59ab538-ae17-4ced-9f58-07ee810487d1}</author>
-    <author>tc={bce1b311-720c-47b7-b28d-94563531d935}</author>
+    <author>tc={2277bbd6-61a4-4f72-bc44-f51811c01ff4}</author>
+    <author>tc={3387124d-7902-4315-9a53-5df7096b646e}</author>
+    <author>tc={703158e1-351c-40ca-af0d-ed8f334da7e6}</author>
+    <author>tc={96932d09-d72e-4d89-8015-b1e04de273e9}</author>
   </authors>
   <commentList>
-    <comment authorId="0" xr:uid="{5b46cd2c-468e-4a0e-b6e6-bedc88826e18}" ref="A9">
+    <comment authorId="0" xr:uid="{2277bbd6-61a4-4f72-bc44-f51811c01ff4}" ref="A8">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -52,7 +54,7 @@
 </t>
       </text>
     </comment>
-    <comment authorId="1" xr:uid="{7092c939-ff6a-419b-b7e7-8135d169e557}" ref="A7">
+    <comment authorId="1" xr:uid="{3387124d-7902-4315-9a53-5df7096b646e}" ref="A7">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -61,7 +63,7 @@
 </t>
       </text>
     </comment>
-    <comment authorId="2" xr:uid="{a59ab538-ae17-4ced-9f58-07ee810487d1}" ref="A8">
+    <comment authorId="2" xr:uid="{703158e1-351c-40ca-af0d-ed8f334da7e6}" ref="A9">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -70,7 +72,7 @@
 </t>
       </text>
     </comment>
-    <comment authorId="3" xr:uid="{bce1b311-720c-47b7-b28d-94563531d935}" ref="A7">
+    <comment authorId="3" xr:uid="{96932d09-d72e-4d89-8015-b1e04de273e9}" ref="A7">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -86,11 +88,11 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
-    <author>tc={5c010d69-3400-4ac5-8dd7-4bfd173bc414}</author>
-    <author>tc={a1a68049-86a3-4d2d-b4ae-b82a01db6bfd}</author>
+    <author>tc={0c79ac4a-db50-4d53-819e-1e462db9488f}</author>
+    <author>tc={45bef7e4-ca38-424d-89b2-d1ab30f9254c}</author>
   </authors>
   <commentList>
-    <comment authorId="0" xr:uid="{5c010d69-3400-4ac5-8dd7-4bfd173bc414}" ref="C1">
+    <comment authorId="0" xr:uid="{0c79ac4a-db50-4d53-819e-1e462db9488f}" ref="C1">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -99,7 +101,7 @@
 </t>
       </text>
     </comment>
-    <comment authorId="1" xr:uid="{a1a68049-86a3-4d2d-b4ae-b82a01db6bfd}" ref="B1">
+    <comment authorId="1" xr:uid="{45bef7e4-ca38-424d-89b2-d1ab30f9254c}" ref="B1">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -115,10 +117,10 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
-    <author>tc={97a09b08-cf97-479c-9706-3103258d7bc8}</author>
+    <author>tc={28156e1c-6e8f-4446-8bf8-e4362234dfd8}</author>
   </authors>
   <commentList>
-    <comment authorId="0" xr:uid="{97a09b08-cf97-479c-9706-3103258d7bc8}" ref="B1">
+    <comment authorId="0" xr:uid="{28156e1c-6e8f-4446-8bf8-e4362234dfd8}" ref="B1">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -132,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="894">
   <si>
     <t>monument_id</t>
   </si>
@@ -140,6 +142,9 @@
     <t>title</t>
   </si>
   <si>
+    <t>controversy_id</t>
+  </si>
+  <si>
     <t>figure_id</t>
   </si>
   <si>
@@ -176,6 +181,9 @@
     <t>dcterms:title</t>
   </si>
   <si>
+    <t>mdo:triggeredControversy</t>
+  </si>
+  <si>
     <t>crm:P62</t>
   </si>
   <si>
@@ -185,7 +193,7 @@
     <t>schema:location</t>
   </si>
   <si>
-    <t>dcterms:creator</t>
+    <t>schema:creator</t>
   </si>
   <si>
     <t>schema:funder</t>
@@ -212,6 +220,9 @@
     <t>Colombo Statue at Pepperdine University</t>
   </si>
   <si>
+    <t>controversy_colombo</t>
+  </si>
+  <si>
     <t>person_cristoforo_colombo</t>
   </si>
   <si>
@@ -239,6 +250,9 @@
     <t xml:space="preserve">Indro Montanelli Statue </t>
   </si>
   <si>
+    <t>controversy_montanelli</t>
+  </si>
+  <si>
     <t>person_indro_montanelli</t>
   </si>
   <si>
@@ -272,6 +286,9 @@
     <t>Carl Hagenbeck Statue</t>
   </si>
   <si>
+    <t>controversy_hagenbeck</t>
+  </si>
+  <si>
     <t>person_carl_hagenbeck</t>
   </si>
   <si>
@@ -296,6 +313,9 @@
     <t>Mahatma Gandhi Statue</t>
   </si>
   <si>
+    <t>controversy_gandhi</t>
+  </si>
+  <si>
     <t>person_mahatma_gandhi</t>
   </si>
   <si>
@@ -320,6 +340,9 @@
     <t xml:space="preserve">Mary Wollstonecraft Sculpture </t>
   </si>
   <si>
+    <t>controversy_wollstonecraft</t>
+  </si>
+  <si>
     <t>person_mary_wollstonecraft</t>
   </si>
   <si>
@@ -353,6 +376,9 @@
     <t>Jean Baptiste Colbert Statue</t>
   </si>
   <si>
+    <t>controversy_colbert</t>
+  </si>
+  <si>
     <t>person_jean_baptiste_colbert</t>
   </si>
   <si>
@@ -383,6 +409,9 @@
     <t>António Vieira Statue</t>
   </si>
   <si>
+    <t xml:space="preserve">controversy_vieira </t>
+  </si>
+  <si>
     <t>person_antónio_vieira</t>
   </si>
   <si>
@@ -413,6 +442,9 @@
     <t>Edward Colston Statue</t>
   </si>
   <si>
+    <t>controversy_colston</t>
+  </si>
+  <si>
     <t>person_edward_colston</t>
   </si>
   <si>
@@ -443,6 +475,9 @@
     <t>Stalin Statue in Budapest</t>
   </si>
   <si>
+    <t>controversy_stalin</t>
+  </si>
+  <si>
     <t>person_iosif_stalin</t>
   </si>
   <si>
@@ -468,6 +503,9 @@
   </si>
   <si>
     <t>Jimmy Savile Statue in Glencoe</t>
+  </si>
+  <si>
+    <t>controversy_savile</t>
   </si>
   <si>
     <t>person_jimmy_savile</t>
@@ -2243,9 +2281,6 @@
     <t xml:space="preserve">value_social_justice;value_human_dignity  </t>
   </si>
   <si>
-    <t>controversy_id</t>
-  </si>
-  <si>
     <t>controversy_label</t>
   </si>
   <si>
@@ -2255,90 +2290,60 @@
     <t>ceon-actor:participatingActor</t>
   </si>
   <si>
-    <t>controversy_colombo</t>
-  </si>
-  <si>
     <t>The controversy triggered by Cristoforo Colombo Statue at Pepperdine University</t>
   </si>
   <si>
     <t>S_colombo_1;S_colombo_2</t>
   </si>
   <si>
-    <t>controversy_montanelli</t>
-  </si>
-  <si>
     <t xml:space="preserve">The controversy triggered by Indro Montanelli Statue in the montanelli public gardens </t>
   </si>
   <si>
     <t>S_montanelli_1;S_montanelli_2;S_montanelli_3;S_montanelli_4;S_montanelli_5;S_montanelli_6;S_montanelli_7;S_montanelli_8</t>
   </si>
   <si>
-    <t>controversy_hagenbeck</t>
-  </si>
-  <si>
     <t>The controversy triggered by Carl Hagenbeck Statue in Tierpark Hagenbeck</t>
   </si>
   <si>
     <t>S_hagenbeck_1;S_hagenbeck_2;S_hagenbeck_3;S_hagenbeck_4</t>
   </si>
   <si>
-    <t>controversy_gandhi</t>
-  </si>
-  <si>
     <t xml:space="preserve">The controversy triggered by Mahatma Gandhi Statue in the University of Ghana </t>
   </si>
   <si>
     <t>S_gandhi_1;S_gandhi_2</t>
   </si>
   <si>
-    <t>controversy_wollstonecraft</t>
-  </si>
-  <si>
     <t>The controversy triggered by Mary Wollstonecraft Sculpture in Newington Green in London</t>
   </si>
   <si>
     <t>S_wollstonecraft_1;S_wollstonecraft_2</t>
   </si>
   <si>
-    <t>controversy_colbert</t>
-  </si>
-  <si>
     <t>The controversy triggered by Jean Baptiste Colbert in Palais Bourbon (Paris' National Assembly)</t>
   </si>
   <si>
     <t>S_colbert_1;S_colbert_2</t>
   </si>
   <si>
-    <t xml:space="preserve">controversy_vieira </t>
-  </si>
-  <si>
     <t>The controversy triggered by António Vieira in Trindade Coelho Square</t>
   </si>
   <si>
     <t>S_vieira_1;S_vieira_2;S_vieira_3;S_vieira_4</t>
   </si>
   <si>
-    <t>controversy_colston</t>
-  </si>
-  <si>
     <t xml:space="preserve">The controversy triggered by Edward Colston in Bristol Centre </t>
   </si>
   <si>
     <t>S_colston_1;S_colston_2;S_colston_3;S_colston_4;S_colston_5;S_colston_6</t>
   </si>
   <si>
-    <t>controversy_stalin</t>
-  </si>
-  <si>
     <t>The controversy triggered by the Stalin Statue in Városliget, Budapest</t>
   </si>
   <si>
     <t>S_stalin_1;S_stalin_2</t>
   </si>
   <si>
-    <t>controversy_savile</t>
-  </si>
-  <si>
     <t>The controversy triggered by the Jimmy Savile Statue in Glencoe</t>
   </si>
   <si>
@@ -2978,13 +2983,13 @@
     <t>The discussion that arises from different stakeholders' perspectives on Colombo statue controversy</t>
   </si>
   <si>
-    <t>action_relocation</t>
+    <t>relocation_action</t>
   </si>
   <si>
     <t>The discussion that arises from different stakeholders' perspectives on Montanelli statue controversy</t>
   </si>
   <si>
-    <t>action_undefined</t>
+    <t>undefined_action</t>
   </si>
   <si>
     <t>The discussion that arises from different stakeholders' perspectives on Hagenbeck statue controversy</t>
@@ -2999,7 +3004,7 @@
     <t>The discussion that arises from different stakeholders' perspectives on Wollstonecraftstatue controversy</t>
   </si>
   <si>
-    <t xml:space="preserve">action_replace </t>
+    <t>replacement_action</t>
   </si>
   <si>
     <t>The discussion that arises from different stakeholders' perspectives on Colbert statue controversy</t>
@@ -3017,16 +3022,25 @@
     <t>The discussion that arises from different stakeholders' perspectives on Savile statue controversy</t>
   </si>
   <si>
+    <t>relocation_id</t>
+  </si>
+  <si>
     <t>action_proposal_label</t>
   </si>
   <si>
     <t>Relocation</t>
   </si>
   <si>
+    <t>replacement_id</t>
+  </si>
+  <si>
+    <t>Replace the statue with a new one</t>
+  </si>
+  <si>
+    <t>undefined_action_id</t>
+  </si>
+  <si>
     <t>The discussion among the stakeholders did not lead to a remedy action</t>
-  </si>
-  <si>
-    <t>Replace the statue with a new one</t>
   </si>
 </sst>
 </file>
@@ -3496,6 +3510,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
@@ -3526,8 +3548,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments">
-  <x18tc:person displayName="Anna Pasetto" id="{1af27ed0-dcea-4b5d-8e2e-7e83bab54dc8}" providerId="google-sheets"/>
-  <x18tc:person displayName="Alice P" id="{7b326eff-40e7-47b0-84e6-ac4713963429}" providerId="google-sheets"/>
+  <x18tc:person displayName="Anna Pasetto" id="{8e995559-fcb0-48bf-8171-5d28f3e9b05f}" providerId="google-sheets"/>
+  <x18tc:person displayName="Alice P" id="{1a128433-bc61-44dc-b841-b6a560cb2d0e}" providerId="google-sheets"/>
 </x18tc:personList>
 </file>
 
@@ -3727,16 +3749,16 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:ThreadedComments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <x18tc:threadedComment ref="A7" dT="2026-01-09T08:51:03.00" personId="{7b326eff-40e7-47b0-84e6-ac4713963429}" id="{7092c939-ff6a-419b-b7e7-8135d169e557}" done="1">
+  <x18tc:threadedComment ref="A7" dT="2026-01-09T08:51:03.00" personId="{1a128433-bc61-44dc-b841-b6a560cb2d0e}" id="{96932d09-d72e-4d89-8015-b1e04de273e9}" done="1">
     <x18tc:text xml:space="preserve">Colbert</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="A8" dT="2026-01-09T08:51:13.00" personId="{7b326eff-40e7-47b0-84e6-ac4713963429}" id="{a59ab538-ae17-4ced-9f58-07ee810487d1}" done="1">
+  <x18tc:threadedComment ref="A8" dT="2026-01-09T08:51:13.00" personId="{1a128433-bc61-44dc-b841-b6a560cb2d0e}" id="{2277bbd6-61a4-4f72-bc44-f51811c01ff4}" done="1">
     <x18tc:text xml:space="preserve">Colbert</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="A7" dT="2026-01-09T08:50:29.00" personId="{7b326eff-40e7-47b0-84e6-ac4713963429}" id="{bce1b311-720c-47b7-b28d-94563531d935}" done="1">
+  <x18tc:threadedComment ref="A7" dT="2026-01-09T08:50:29.00" personId="{1a128433-bc61-44dc-b841-b6a560cb2d0e}" id="{3387124d-7902-4315-9a53-5df7096b646e}" done="1">
     <x18tc:text xml:space="preserve">Colbert</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="A9" dT="2026-01-09T08:51:21.00" personId="{7b326eff-40e7-47b0-84e6-ac4713963429}" id="{5b46cd2c-468e-4a0e-b6e6-bedc88826e18}" done="1">
+  <x18tc:threadedComment ref="A9" dT="2026-01-09T08:51:21.00" personId="{1a128433-bc61-44dc-b841-b6a560cb2d0e}" id="{703158e1-351c-40ca-af0d-ed8f334da7e6}" done="1">
     <x18tc:text xml:space="preserve">Colbert</x18tc:text>
   </x18tc:threadedComment>
 </x18tc:ThreadedComments>
@@ -3744,10 +3766,10 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:ThreadedComments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <x18tc:threadedComment ref="B1" dT="2026-01-12T13:59:21.00" personId="{1af27ed0-dcea-4b5d-8e2e-7e83bab54dc8}" id="{a1a68049-86a3-4d2d-b4ae-b82a01db6bfd}" done="1">
+  <x18tc:threadedComment ref="B1" dT="2026-01-12T13:59:21.00" personId="{8e995559-fcb0-48bf-8171-5d28f3e9b05f}" id="{45bef7e4-ca38-424d-89b2-d1ab30f9254c}" done="1">
     <x18tc:text xml:space="preserve">inserire nei pro removal il fatto che le statue non tengono in considerazione le vittime o le azioni e che sarebbe bello venissero menzionate</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="C1" dT="2026-01-12T13:45:34.00" personId="{1af27ed0-dcea-4b5d-8e2e-7e83bab54dc8}" id="{5c010d69-3400-4ac5-8dd7-4bfd173bc414}" done="1">
+  <x18tc:threadedComment ref="C1" dT="2026-01-12T13:45:34.00" personId="{8e995559-fcb0-48bf-8171-5d28f3e9b05f}" id="{0c79ac4a-db50-4d53-819e-1e462db9488f}" done="1">
     <x18tc:text xml:space="preserve">mettiamo sempre sia i controversial fact che la legacy che gli heritage concept</x18tc:text>
   </x18tc:threadedComment>
 </x18tc:ThreadedComments>
@@ -3755,7 +3777,7 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:ThreadedComments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <x18tc:threadedComment ref="B1" dT="2026-01-12T14:20:36.00" personId="{1af27ed0-dcea-4b5d-8e2e-7e83bab54dc8}" id="{97a09b08-cf97-479c-9706-3103258d7bc8}" done="1">
+  <x18tc:threadedComment ref="B1" dT="2026-01-12T14:20:36.00" personId="{8e995559-fcb0-48bf-8171-5d28f3e9b05f}" id="{28156e1c-6e8f-4446-8bf8-e4362234dfd8}" done="1">
     <x18tc:text xml:space="preserve">mettere i dati veri quando ci sono e quando non ci sono usare i nomi degli scenari</x18tc:text>
   </x18tc:threadedComment>
 </x18tc:ThreadedComments>
@@ -3774,17 +3796,17 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="15.38"/>
     <col customWidth="1" min="2" max="2" width="32.75"/>
-    <col customWidth="1" min="3" max="3" width="22.5"/>
-    <col customWidth="1" min="4" max="4" width="12.5"/>
-    <col customWidth="1" min="5" max="5" width="37.5"/>
-    <col customWidth="1" min="6" max="6" width="28.63"/>
-    <col customWidth="1" min="7" max="7" width="45.88"/>
-    <col customWidth="1" min="8" max="8" width="84.5"/>
-    <col customWidth="1" min="9" max="9" width="33.5"/>
-    <col customWidth="1" min="10" max="10" width="25.63"/>
-    <col customWidth="1" min="11" max="11" width="24.75"/>
-    <col customWidth="1" min="12" max="12" width="24.25"/>
-    <col hidden="1" min="13" max="29" width="12.63"/>
+    <col customWidth="1" min="3" max="4" width="22.5"/>
+    <col customWidth="1" min="5" max="5" width="12.5"/>
+    <col customWidth="1" min="6" max="6" width="37.5"/>
+    <col customWidth="1" min="7" max="7" width="28.63"/>
+    <col customWidth="1" min="8" max="8" width="45.88"/>
+    <col customWidth="1" min="9" max="9" width="84.5"/>
+    <col customWidth="1" min="10" max="10" width="33.5"/>
+    <col customWidth="1" min="11" max="11" width="25.63"/>
+    <col customWidth="1" min="12" max="12" width="24.75"/>
+    <col customWidth="1" min="13" max="13" width="24.25"/>
+    <col hidden="1" min="14" max="30" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3797,36 +3819,38 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="11"/>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="11"/>
+      <c r="O1" s="12"/>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
@@ -3841,117 +3865,126 @@
       <c r="AA1" s="11"/>
       <c r="AB1" s="11"/>
       <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="K2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="13"/>
+      <c r="L2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="15">
+        <v>28</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="15">
         <v>1992.0</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>28</v>
+      <c r="F3" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="13"/>
+        <v>33</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="18">
+        <v>37</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="18">
         <v>2006.0</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="F4" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="19"/>
+        <v>45</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
@@ -3968,70 +4001,76 @@
       <c r="AA4" s="19"/>
       <c r="AB4" s="19"/>
       <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="15">
+        <v>49</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="15">
         <v>1926.0</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="F5" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="18">
+        <v>58</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="18">
         <v>2016.0</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16" t="s">
-        <v>56</v>
-      </c>
+      <c r="F6" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="16"/>
       <c r="H6" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="19"/>
+        <v>63</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
@@ -4048,81 +4087,87 @@
       <c r="AA6" s="19"/>
       <c r="AB6" s="19"/>
       <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="15">
+        <v>68</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="15">
         <v>2020.0</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>63</v>
-      </c>
       <c r="F7" s="14" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="18">
+        <v>79</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="18">
         <v>1806.0</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>74</v>
-      </c>
       <c r="F8" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16" t="s">
-        <v>76</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="16"/>
       <c r="I8" s="16" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="M8" s="19"/>
+        <v>86</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>88</v>
+      </c>
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
       <c r="P8" s="19"/>
@@ -4139,83 +4184,89 @@
       <c r="AA8" s="19"/>
       <c r="AB8" s="19"/>
       <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="15">
+        <v>91</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="15">
         <v>2017.0</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>84</v>
-      </c>
       <c r="F9" s="14" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H9" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>90</v>
+      <c r="M9" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="18">
+        <v>101</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="18">
         <v>1895.0</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>94</v>
-      </c>
       <c r="F10" s="16" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10" s="19"/>
+        <v>109</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>110</v>
+      </c>
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
@@ -4232,74 +4283,80 @@
       <c r="AA10" s="19"/>
       <c r="AB10" s="19"/>
       <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="15">
+        <v>113</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="15">
         <v>1951.0</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>104</v>
-      </c>
       <c r="F11" s="14" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>79</v>
+        <v>118</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>109</v>
+        <v>87</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="18">
+        <v>122</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="18">
         <v>2000.0</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="16"/>
+      <c r="F12" s="16" t="s">
+        <v>125</v>
+      </c>
       <c r="G12" s="16"/>
-      <c r="H12" s="16" t="s">
-        <v>114</v>
-      </c>
+      <c r="H12" s="16"/>
       <c r="I12" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="M12" s="19"/>
+        <v>126</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
@@ -4316,6 +4373,7 @@
       <c r="AA12" s="19"/>
       <c r="AB12" s="19"/>
       <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
@@ -4341,34 +4399,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -4396,865 +4454,865 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="H1" s="38"/>
     </row>
     <row r="2">
       <c r="A2" s="35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="H2" s="23"/>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="H3" s="23"/>
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="H4" s="23"/>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="H5" s="23"/>
     </row>
     <row r="6">
       <c r="A6" s="34" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="H6" s="23"/>
     </row>
     <row r="7">
       <c r="A7" s="33" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="H7" s="23"/>
     </row>
     <row r="8">
       <c r="A8" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>324</v>
-      </c>
       <c r="C8" s="34" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="H8" s="23"/>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="H9" s="23"/>
     </row>
     <row r="10">
       <c r="A10" s="34" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="H10" s="23"/>
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="H11" s="23"/>
     </row>
     <row r="12">
       <c r="A12" s="34" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="H12" s="23"/>
     </row>
     <row r="13">
       <c r="A13" s="34" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="H13" s="23"/>
     </row>
     <row r="14">
       <c r="A14" s="33" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="H14" s="23"/>
     </row>
     <row r="15">
       <c r="A15" s="34" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="H15" s="23"/>
     </row>
     <row r="16">
       <c r="A16" s="33" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="H16" s="23"/>
     </row>
     <row r="17">
       <c r="A17" s="33" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="H17" s="23"/>
     </row>
     <row r="18">
       <c r="A18" s="34" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="H18" s="23"/>
     </row>
     <row r="19">
       <c r="A19" s="33" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="H19" s="23"/>
     </row>
     <row r="20">
       <c r="A20" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>385</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>373</v>
-      </c>
       <c r="D20" s="40" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="H20" s="23"/>
     </row>
     <row r="21">
       <c r="A21" s="33" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="H21" s="23"/>
     </row>
     <row r="22">
       <c r="A22" s="34" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="H22" s="23"/>
     </row>
     <row r="23">
       <c r="A23" s="33" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="H23" s="23"/>
     </row>
     <row r="24">
       <c r="A24" s="34" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="H24" s="23"/>
     </row>
     <row r="25">
       <c r="A25" s="33" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="H25" s="23"/>
     </row>
     <row r="26">
       <c r="A26" s="34" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="H26" s="23"/>
     </row>
     <row r="27">
       <c r="A27" s="33" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="H27" s="23"/>
     </row>
     <row r="28">
       <c r="A28" s="34" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="H28" s="23"/>
     </row>
     <row r="29">
       <c r="A29" s="33" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="H29" s="23"/>
     </row>
     <row r="30">
       <c r="A30" s="34" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="H30" s="23"/>
     </row>
     <row r="31">
       <c r="A31" s="33" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="H31" s="23"/>
     </row>
     <row r="32">
       <c r="A32" s="34" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="H32" s="23"/>
     </row>
     <row r="33">
       <c r="A33" s="33" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="H33" s="23"/>
     </row>
     <row r="34">
       <c r="A34" s="34" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="H34" s="23"/>
     </row>
     <row r="35">
       <c r="A35" s="33" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="H35" s="23"/>
     </row>
     <row r="36">
       <c r="A36" s="34" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="H36" s="23"/>
     </row>
@@ -9183,106 +9241,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14">
@@ -9320,506 +9378,506 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="39" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="40" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="39" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="40" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="39" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="40" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="39" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="40" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="40" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="39" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="40" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="39" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="39" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="40" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="39" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="40" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="39" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="40" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="39" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="40" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="39" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="40" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="39" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="40" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="39" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="40" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="39" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="40" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="39" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="40" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="39" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="40" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -9844,32 +9902,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="44" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C3" s="46">
         <v>42644.0</v>
@@ -9877,10 +9935,10 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C4" s="47">
         <v>42644.0</v>
@@ -9888,10 +9946,10 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C5" s="46">
         <v>40940.0</v>
@@ -9899,10 +9957,10 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C6" s="47">
         <v>40940.0</v>
@@ -9910,10 +9968,10 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C7" s="39">
         <v>2018.0</v>
@@ -9921,10 +9979,10 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C8" s="40">
         <v>2018.0</v>
@@ -9932,10 +9990,10 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C9" s="46">
         <v>43525.0</v>
@@ -9943,10 +10001,10 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C10" s="47">
         <v>43525.0</v>
@@ -9954,10 +10012,10 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C11" s="46">
         <v>43983.0</v>
@@ -9965,10 +10023,10 @@
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C12" s="47">
         <v>43983.0</v>
@@ -9976,10 +10034,10 @@
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C13" s="47">
         <v>43983.0</v>
@@ -9987,10 +10045,10 @@
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C14" s="46">
         <v>43983.0</v>
@@ -9998,10 +10056,10 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C15" s="47">
         <v>43983.0</v>
@@ -10009,10 +10067,10 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C16" s="46">
         <v>43983.0</v>
@@ -10020,10 +10078,10 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C17" s="39">
         <v>2016.0</v>
@@ -10031,10 +10089,10 @@
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C18" s="40">
         <v>2016.0</v>
@@ -10042,10 +10100,10 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C19" s="48">
         <v>44136.0</v>
@@ -10053,10 +10111,10 @@
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C20" s="49">
         <v>44136.0</v>
@@ -10064,10 +10122,10 @@
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C21" s="46">
         <v>43983.0</v>
@@ -10075,10 +10133,10 @@
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C22" s="47">
         <v>43983.0</v>
@@ -10086,10 +10144,10 @@
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C23" s="46">
         <v>43009.0</v>
@@ -10097,10 +10155,10 @@
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C24" s="47">
         <v>43009.0</v>
@@ -10108,10 +10166,10 @@
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C25" s="46">
         <v>43983.0</v>
@@ -10119,10 +10177,10 @@
     </row>
     <row r="26">
       <c r="A26" s="14" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C26" s="47">
         <v>43983.0</v>
@@ -10130,10 +10188,10 @@
     </row>
     <row r="27">
       <c r="A27" s="14" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C27" s="46">
         <v>35796.0</v>
@@ -10141,10 +10199,10 @@
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C28" s="47">
         <v>35796.0</v>
@@ -10152,10 +10210,10 @@
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C29" s="46">
         <v>42736.0</v>
@@ -10163,10 +10221,10 @@
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C30" s="47">
         <v>42736.0</v>
@@ -10174,10 +10232,10 @@
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C31" s="46">
         <v>43831.0</v>
@@ -10185,10 +10243,10 @@
     </row>
     <row r="32">
       <c r="A32" s="14" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C32" s="47">
         <v>43831.0</v>
@@ -10196,10 +10254,10 @@
     </row>
     <row r="33">
       <c r="A33" s="14" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C33" s="48">
         <v>20751.0</v>
@@ -10207,10 +10265,10 @@
     </row>
     <row r="34">
       <c r="A34" s="14" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C34" s="47">
         <v>20751.0</v>
@@ -10218,10 +10276,10 @@
     </row>
     <row r="35">
       <c r="A35" s="14" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C35" s="46">
         <v>41153.0</v>
@@ -10229,10 +10287,10 @@
     </row>
     <row r="36">
       <c r="A36" s="14" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C36" s="47">
         <v>41153.0</v>
@@ -10240,10 +10298,10 @@
     </row>
     <row r="37">
       <c r="A37" s="14" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C37" s="46">
         <v>42654.0</v>
@@ -10251,10 +10309,10 @@
     </row>
     <row r="38">
       <c r="A38" s="14" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C38" s="47">
         <v>42644.0</v>
@@ -10262,10 +10320,10 @@
     </row>
     <row r="39">
       <c r="A39" s="14" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C39" s="46">
         <v>40940.0</v>
@@ -10273,10 +10331,10 @@
     </row>
     <row r="40">
       <c r="A40" s="14" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C40" s="47">
         <v>40940.0</v>
@@ -10284,10 +10342,10 @@
     </row>
     <row r="41">
       <c r="A41" s="14" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C41" s="39">
         <v>2018.0</v>
@@ -10295,10 +10353,10 @@
     </row>
     <row r="42">
       <c r="A42" s="14" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C42" s="40">
         <v>2018.0</v>
@@ -10306,10 +10364,10 @@
     </row>
     <row r="43">
       <c r="A43" s="14" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C43" s="46">
         <v>43525.0</v>
@@ -10317,10 +10375,10 @@
     </row>
     <row r="44">
       <c r="A44" s="14" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C44" s="47">
         <v>43525.0</v>
@@ -10328,10 +10386,10 @@
     </row>
     <row r="45">
       <c r="A45" s="14" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C45" s="46">
         <v>43983.0</v>
@@ -10339,10 +10397,10 @@
     </row>
     <row r="46">
       <c r="A46" s="14" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C46" s="47">
         <v>43983.0</v>
@@ -10350,10 +10408,10 @@
     </row>
     <row r="47">
       <c r="A47" s="14" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C47" s="47">
         <v>43983.0</v>
@@ -10361,10 +10419,10 @@
     </row>
     <row r="48">
       <c r="A48" s="14" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C48" s="46">
         <v>43983.0</v>
@@ -10372,10 +10430,10 @@
     </row>
     <row r="49">
       <c r="A49" s="14" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C49" s="47">
         <v>44075.0</v>
@@ -10383,10 +10441,10 @@
     </row>
     <row r="50">
       <c r="A50" s="14" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C50" s="46">
         <v>44075.0</v>
@@ -10394,10 +10452,10 @@
     </row>
     <row r="51">
       <c r="A51" s="14" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C51" s="39">
         <v>2016.0</v>
@@ -10405,10 +10463,10 @@
     </row>
     <row r="52">
       <c r="A52" s="14" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C52" s="40">
         <v>2016.0</v>
@@ -10416,10 +10474,10 @@
     </row>
     <row r="53">
       <c r="A53" s="14" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C53" s="48">
         <v>44136.0</v>
@@ -10427,10 +10485,10 @@
     </row>
     <row r="54">
       <c r="A54" s="14" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C54" s="49">
         <v>44136.0</v>
@@ -10438,10 +10496,10 @@
     </row>
     <row r="55">
       <c r="A55" s="14" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C55" s="46">
         <v>43983.0</v>
@@ -10449,10 +10507,10 @@
     </row>
     <row r="56">
       <c r="A56" s="14" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C56" s="47">
         <v>43983.0</v>
@@ -10460,10 +10518,10 @@
     </row>
     <row r="57">
       <c r="A57" s="14" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C57" s="48">
         <v>43039.0</v>
@@ -10471,10 +10529,10 @@
     </row>
     <row r="58">
       <c r="A58" s="14" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C58" s="47">
         <v>43039.0</v>
@@ -10482,10 +10540,10 @@
     </row>
     <row r="59">
       <c r="A59" s="14" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C59" s="46">
         <v>43983.0</v>
@@ -10493,10 +10551,10 @@
     </row>
     <row r="60">
       <c r="A60" s="14" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C60" s="47">
         <v>44012.0</v>
@@ -10504,10 +10562,10 @@
     </row>
     <row r="61">
       <c r="A61" s="14" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C61" s="48">
         <v>36160.0</v>
@@ -10515,10 +10573,10 @@
     </row>
     <row r="62">
       <c r="A62" s="14" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C62" s="49">
         <v>36160.0</v>
@@ -10526,10 +10584,10 @@
     </row>
     <row r="63">
       <c r="A63" s="14" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C63" s="48">
         <v>43100.0</v>
@@ -10537,10 +10595,10 @@
     </row>
     <row r="64">
       <c r="A64" s="14" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C64" s="47">
         <v>43100.0</v>
@@ -10548,10 +10606,10 @@
     </row>
     <row r="65">
       <c r="A65" s="14" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C65" s="48">
         <v>44196.0</v>
@@ -10559,10 +10617,10 @@
     </row>
     <row r="66">
       <c r="A66" s="14" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C66" s="49">
         <v>44196.0</v>
@@ -10570,10 +10628,10 @@
     </row>
     <row r="67">
       <c r="A67" s="14" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C67" s="48">
         <v>20729.0</v>
@@ -10581,10 +10639,10 @@
     </row>
     <row r="68">
       <c r="A68" s="14" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C68" s="49">
         <v>20729.0</v>
@@ -10592,10 +10650,10 @@
     </row>
     <row r="69">
       <c r="A69" s="14" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C69" s="48">
         <v>41183.0</v>
@@ -10603,10 +10661,10 @@
     </row>
     <row r="70">
       <c r="A70" s="14" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C70" s="49">
         <v>41183.0</v>
@@ -10636,331 +10694,331 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="E1" s="23"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="E2" s="23"/>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="E3" s="23"/>
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="E4" s="23"/>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="E5" s="23"/>
     </row>
     <row r="6">
       <c r="A6" s="34" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="E6" s="23"/>
     </row>
     <row r="7">
       <c r="A7" s="34" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="E7" s="23"/>
     </row>
     <row r="8">
       <c r="A8" s="33" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="E8" s="23"/>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="E9" s="23"/>
     </row>
     <row r="10">
       <c r="A10" s="34" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="E10" s="23"/>
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="E11" s="23"/>
     </row>
     <row r="12">
       <c r="A12" s="34" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="E12" s="23"/>
     </row>
     <row r="13">
       <c r="A13" s="33" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="E13" s="23"/>
     </row>
     <row r="14">
       <c r="A14" s="34" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="E14" s="23"/>
     </row>
     <row r="15">
       <c r="A15" s="33" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="E15" s="23"/>
     </row>
     <row r="16">
       <c r="A16" s="34" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="E16" s="23"/>
     </row>
     <row r="17">
       <c r="A17" s="33" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="E17" s="23"/>
     </row>
     <row r="18">
       <c r="A18" s="34" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="E18" s="23"/>
     </row>
     <row r="19">
       <c r="A19" s="34" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="E19" s="23"/>
     </row>
     <row r="20">
       <c r="A20" s="33" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="E20" s="23"/>
     </row>
     <row r="21">
       <c r="A21" s="34" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="E21" s="23"/>
     </row>
     <row r="22">
       <c r="A22" s="33" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="E22" s="23"/>
     </row>
@@ -13930,134 +13988,134 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>628</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>632</v>
+        <v>28</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>635</v>
+        <v>38</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>638</v>
+        <v>50</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>641</v>
+        <v>59</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>644</v>
+        <v>68</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>647</v>
+        <v>80</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>650</v>
+        <v>91</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>653</v>
+        <v>102</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>656</v>
+        <v>113</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>659</v>
+        <v>123</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="13">
@@ -14085,145 +14143,145 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C1" s="52"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C2" s="53"/>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C3" s="53"/>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C4" s="53"/>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C5" s="53"/>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C6" s="23"/>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C7" s="53"/>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C8" s="53"/>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C9" s="53"/>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C10" s="53"/>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C11" s="53"/>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C12" s="53"/>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C13" s="53"/>
     </row>
     <row r="14">
       <c r="A14" s="16" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C14" s="53"/>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C15" s="53"/>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C16" s="53"/>
     </row>
@@ -17222,134 +17280,134 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -17377,741 +17435,741 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G2" s="55"/>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G3" s="55"/>
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G4" s="56"/>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G5" s="55"/>
     </row>
     <row r="6">
       <c r="A6" s="34" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G6" s="56"/>
     </row>
     <row r="7">
       <c r="A7" s="33" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G7" s="55"/>
     </row>
     <row r="8">
       <c r="A8" s="34" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G8" s="56"/>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G9" s="55"/>
     </row>
     <row r="10">
       <c r="A10" s="34" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G10" s="56"/>
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G11" s="55"/>
     </row>
     <row r="12">
       <c r="A12" s="34" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G12" s="56"/>
     </row>
     <row r="13">
       <c r="A13" s="34" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G13" s="56"/>
     </row>
     <row r="14">
       <c r="A14" s="33" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G14" s="55"/>
     </row>
     <row r="15">
       <c r="A15" s="34" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G15" s="56"/>
     </row>
     <row r="16">
       <c r="A16" s="33" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G16" s="55"/>
     </row>
     <row r="17">
       <c r="A17" s="33" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G17" s="55"/>
     </row>
     <row r="18">
       <c r="A18" s="34" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G18" s="56"/>
     </row>
     <row r="19">
       <c r="A19" s="33" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="34" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G20" s="56"/>
     </row>
     <row r="21">
       <c r="A21" s="33" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="34" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="33" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="34" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="33" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="34" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="33" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="34" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="33" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="34" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="33" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="34" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B32" s="58" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G32" s="56"/>
     </row>
     <row r="33">
       <c r="A33" s="33" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="34" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="33" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="34" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="B36" s="34" t="s">
+        <v>774</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>636</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>775</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>633</v>
+      </c>
+      <c r="F36" s="34" t="s">
         <v>773</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>624</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>774</v>
-      </c>
-      <c r="E36" s="34" t="s">
-        <v>621</v>
-      </c>
-      <c r="F36" s="34" t="s">
-        <v>772</v>
       </c>
     </row>
   </sheetData>
@@ -18138,181 +18196,181 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E1" s="23"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E2" s="23"/>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E3" s="23"/>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E4" s="23"/>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E5" s="23"/>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E6" s="23"/>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E7" s="23"/>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E8" s="23"/>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="E9" s="23"/>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E10" s="23"/>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E11" s="23"/>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E12" s="23"/>
     </row>
@@ -21305,13 +21363,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D1" s="59"/>
       <c r="E1" s="59"/>
@@ -21326,35 +21384,35 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -21369,24 +21427,24 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -21401,24 +21459,24 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -21433,24 +21491,24 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -21465,24 +21523,24 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="60" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="D12" s="61"/>
       <c r="E12" s="61"/>
@@ -21497,24 +21555,24 @@
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="60" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D14" s="61"/>
       <c r="E14" s="61"/>
@@ -21529,24 +21587,24 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="60" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D16" s="61"/>
       <c r="E16" s="61"/>
@@ -21561,24 +21619,24 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="60" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D18" s="61"/>
       <c r="E18" s="61"/>
@@ -21593,13 +21651,13 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -21624,145 +21682,145 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D1" s="62"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D2" s="62"/>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D3" s="62"/>
     </row>
     <row r="4">
       <c r="A4" s="33" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D4" s="62"/>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D5" s="62"/>
     </row>
     <row r="6">
       <c r="A6" s="33" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D6" s="62"/>
     </row>
     <row r="7">
       <c r="A7" s="33" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D7" s="62"/>
     </row>
     <row r="8">
       <c r="A8" s="33" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D8" s="62"/>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D9" s="62"/>
     </row>
     <row r="10">
       <c r="A10" s="33" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D10" s="62"/>
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D11" s="62"/>
     </row>
     <row r="12">
       <c r="A12" s="33" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D12" s="62"/>
     </row>
@@ -21788,143 +21846,143 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="27" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="63" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D3" s="65"/>
     </row>
     <row r="4">
       <c r="A4" s="63" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D4" s="65"/>
     </row>
     <row r="5">
       <c r="A5" s="63" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D5" s="65"/>
     </row>
     <row r="6">
       <c r="A6" s="63" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D6" s="65"/>
     </row>
     <row r="7">
       <c r="A7" s="63" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D7" s="65"/>
     </row>
     <row r="8">
       <c r="A8" s="63" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D8" s="65"/>
     </row>
     <row r="9">
       <c r="A9" s="63" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D9" s="65"/>
     </row>
     <row r="10">
       <c r="A10" s="63" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D10" s="65"/>
     </row>
     <row r="11">
       <c r="A11" s="63" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D11" s="65"/>
     </row>
     <row r="12">
       <c r="A12" s="63" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D12" s="65"/>
     </row>
@@ -21950,134 +22008,134 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
   </sheetData>
@@ -22102,134 +22160,134 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>877</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>876</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
   </sheetData>
@@ -22247,49 +22305,118 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.63"/>
-    <col customWidth="1" min="2" max="2" width="58.75"/>
+    <col customWidth="1" min="1" max="1" width="18.75"/>
+    <col customWidth="1" min="2" max="2" width="22.88"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="C1" s="59"/>
+      <c r="A1" s="25" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>888</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>121</v>
+      <c r="A2" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="14" t="s">
-        <v>875</v>
-      </c>
-      <c r="B4" s="14" t="s">
+        <v>889</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="19.25"/>
+    <col customWidth="1" min="2" max="2" width="19.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="25" t="s">
+        <v>890</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="14" t="s">
-        <v>880</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>889</v>
+    <row r="2">
+      <c r="A2" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="14" t="s">
+        <v>881</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>891</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="20.75"/>
+    <col customWidth="1" min="2" max="2" width="54.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="25" t="s">
+        <v>892</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="14" t="s">
+        <v>876</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>893</v>
       </c>
     </row>
   </sheetData>
@@ -22313,98 +22440,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -22428,74 +22555,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -22519,66 +22646,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -22602,90 +22729,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -22709,34 +22836,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -22765,18 +22892,18 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -22805,18 +22932,18 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -22845,18 +22972,18 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -22885,18 +23012,18 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -22947,170 +23074,170 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="28" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22">
@@ -23138,170 +23265,170 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -39,13 +39,13 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
-    <author>tc={2277bbd6-61a4-4f72-bc44-f51811c01ff4}</author>
-    <author>tc={3387124d-7902-4315-9a53-5df7096b646e}</author>
-    <author>tc={703158e1-351c-40ca-af0d-ed8f334da7e6}</author>
-    <author>tc={96932d09-d72e-4d89-8015-b1e04de273e9}</author>
+    <author>tc={15c7c5da-5c5c-4f72-8046-e4e488aa23e3}</author>
+    <author>tc={7f6888ad-f3dd-4850-a888-98e883b60be9}</author>
+    <author>tc={b65ac62b-80b5-4d0e-899b-c41a4dd1be80}</author>
+    <author>tc={d780824a-9f42-489b-bf4b-04e09b13909f}</author>
   </authors>
   <commentList>
-    <comment authorId="0" xr:uid="{2277bbd6-61a4-4f72-bc44-f51811c01ff4}" ref="A8">
+    <comment authorId="0" xr:uid="{15c7c5da-5c5c-4f72-8046-e4e488aa23e3}" ref="A7">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +54,7 @@
 </t>
       </text>
     </comment>
-    <comment authorId="1" xr:uid="{3387124d-7902-4315-9a53-5df7096b646e}" ref="A7">
+    <comment authorId="1" xr:uid="{7f6888ad-f3dd-4850-a888-98e883b60be9}" ref="A8">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +63,7 @@
 </t>
       </text>
     </comment>
-    <comment authorId="2" xr:uid="{703158e1-351c-40ca-af0d-ed8f334da7e6}" ref="A9">
+    <comment authorId="2" xr:uid="{b65ac62b-80b5-4d0e-899b-c41a4dd1be80}" ref="A9">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -72,7 +72,7 @@
 </t>
       </text>
     </comment>
-    <comment authorId="3" xr:uid="{96932d09-d72e-4d89-8015-b1e04de273e9}" ref="A7">
+    <comment authorId="3" xr:uid="{d780824a-9f42-489b-bf4b-04e09b13909f}" ref="A7">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -88,11 +88,11 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
-    <author>tc={0c79ac4a-db50-4d53-819e-1e462db9488f}</author>
-    <author>tc={45bef7e4-ca38-424d-89b2-d1ab30f9254c}</author>
+    <author>tc={97ee6e25-a74b-44c1-800f-ed264e552ff6}</author>
+    <author>tc={c2f5a4f1-23c2-4c2c-840f-b4559da15a30}</author>
   </authors>
   <commentList>
-    <comment authorId="0" xr:uid="{0c79ac4a-db50-4d53-819e-1e462db9488f}" ref="C1">
+    <comment authorId="0" xr:uid="{97ee6e25-a74b-44c1-800f-ed264e552ff6}" ref="C1">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -101,7 +101,7 @@
 </t>
       </text>
     </comment>
-    <comment authorId="1" xr:uid="{45bef7e4-ca38-424d-89b2-d1ab30f9254c}" ref="B1">
+    <comment authorId="1" xr:uid="{c2f5a4f1-23c2-4c2c-840f-b4559da15a30}" ref="B1">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -117,10 +117,10 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
-    <author>tc={28156e1c-6e8f-4446-8bf8-e4362234dfd8}</author>
+    <author>tc={3d69428f-67f5-42f0-86d0-e89f526638a4}</author>
   </authors>
   <commentList>
-    <comment authorId="0" xr:uid="{28156e1c-6e8f-4446-8bf8-e4362234dfd8}" ref="B1">
+    <comment authorId="0" xr:uid="{3d69428f-67f5-42f0-86d0-e89f526638a4}" ref="B1">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="895">
   <si>
     <t>monument_id</t>
   </si>
@@ -325,7 +325,7 @@
     <t>funder_government_india</t>
   </si>
   <si>
-    <t>heritage_racism;heritage_colonialism;heritage_civil_rights;concept_caste_system;concept_nonviolent_resistance</t>
+    <t>heritage_racism;heritage_colonialism;heritage_caste_system</t>
   </si>
   <si>
     <t>prod_gandhi</t>
@@ -559,7 +559,7 @@
     <t>legacy_journalism</t>
   </si>
   <si>
-    <t>cf_montanelli_1; cf_montanelli_2</t>
+    <t>cf_montanelli_1;cf_montanelli_2</t>
   </si>
   <si>
     <t>Carl Hagenbeck (1844-1913)</t>
@@ -580,9 +580,6 @@
     <t>cf_gandhi_1;cf_gandhi_2</t>
   </si>
   <si>
-    <t>person_wollstonecraft</t>
-  </si>
-  <si>
     <t>Mary Wollstonecraft (1759-1797)</t>
   </si>
   <si>
@@ -616,7 +613,7 @@
     <t>legacy_philanthropic_activities;legacy_charitable_actions</t>
   </si>
   <si>
-    <t>cf_colston_1; cf_colston_2; cf_colston_3</t>
+    <t>cf_colston_1;cf_colston_2;cf_colston_3</t>
   </si>
   <si>
     <t>person_stalin</t>
@@ -946,6 +943,12 @@
     <t xml:space="preserve">Sexism </t>
   </si>
   <si>
+    <t>heritage_caste_system</t>
+  </si>
+  <si>
+    <t>Caste system</t>
+  </si>
+  <si>
     <t>legacy_id</t>
   </si>
   <si>
@@ -1060,6 +1063,24 @@
     <t xml:space="preserve">Women's rights </t>
   </si>
   <si>
+    <t>legacy_contested_racism</t>
+  </si>
+  <si>
+    <t>Opposition to racism</t>
+  </si>
+  <si>
+    <t>legacy_indian_independence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indian Independence </t>
+  </si>
+  <si>
+    <t>legacy_nonviolent_resistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non violent resistance </t>
+  </si>
+  <si>
     <t>role_id</t>
   </si>
   <si>
@@ -1720,25 +1741,25 @@
     <t>instant_beg_vieira_1</t>
   </si>
   <si>
-    <t>instant_end_vieria_1</t>
+    <t>instant_end_vieira_1</t>
   </si>
   <si>
     <t>instant_beg_vieira_2</t>
   </si>
   <si>
-    <t>instant_end_vieria_2</t>
+    <t>instant_end_vieira_2</t>
   </si>
   <si>
     <t>instant_beg_vieira_3</t>
   </si>
   <si>
-    <t>instant_end_vieria_3</t>
+    <t>instant_end_vieira_3</t>
   </si>
   <si>
     <t>instant_beg_vieira_4</t>
   </si>
   <si>
-    <t>instant_end_vieria_4</t>
+    <t>instant_end_vieira_4</t>
   </si>
   <si>
     <t>The duration of the stakeholder’s involvement in Colston's protest.</t>
@@ -1918,7 +1939,7 @@
     <t>The statue must be removed because of Gandhi’s racist statements toward African people and his casteist views.</t>
   </si>
   <si>
-    <t xml:space="preserve">mon_gandhi;person_mahatma_gandhi;heritage_racism;heritage_colonialism;heritage_civil_rights;concept_caste_system;concept_nonviolent_resistance;legacy_indian_independence;legacy_nonviolent_resistance;legacy_contested_racism;cf_gandhi_1;cf_gandhi_2  </t>
+    <t xml:space="preserve">mon_gandhi;person_mahatma_gandhi;heritage_racism;heritage_colonialism;concept_caste_system;concept_nonviolent_resistance;legacy_indian_independence;legacy_nonviolent_resistance;legacy_contested_racism;cf_gandhi_1;cf_gandhi_2  </t>
   </si>
   <si>
     <t>value_cultural_identity;value_decolonization;value_social_justice</t>
@@ -1930,7 +1951,7 @@
     <t>The statue should be preserved to commemorate the reputation Gandhi had earned during the later years of his life.</t>
   </si>
   <si>
-    <t>mon_gandhi;person_mahatma_gandhi;heritage_racism;heritage_colonialism;heritage_civil_rights;concept_caste_system;concept_nonviolent_resistance;legacy_indian_independence;legacy_nonviolent_resistance; legacy_contested_racism;cf_gandhi_1;cf_gandhi_2</t>
+    <t>mon_gandhi;person_mahatma_gandhi;heritage_racism;heritage_colonialism;concept_caste_system;concept_nonviolent_resistance;legacy_indian_independence;legacy_nonviolent_resistance; legacy_contested_racism;cf_gandhi_1;cf_gandhi_2</t>
   </si>
   <si>
     <t>value_historical_memory;value_diplomacy</t>
@@ -2212,9 +2233,6 @@
     </r>
   </si>
   <si>
-    <t>mon_stalin;person_iosif_stalin;heritage_imperialism,heritage_authoritarianism;heritage_political_propaganda;heritage_communist_regime;legacy_industrialisation;legacy_state_socialism;legacy_personality_cult;cf_stalin_1</t>
-  </si>
-  <si>
     <t>value_social_justice;value_human_dignity;value_freedom</t>
   </si>
   <si>
@@ -2245,7 +2263,7 @@
     </r>
   </si>
   <si>
-    <t>mon_savile;person_jimmy_savile;heritage_media_culture;heritage_sex_based_violence;heritage_pedophilia;legacy_philanthropic_activities;legacy_charitable_actions;legacy_fundraising;legacy_popular_entertainment;cf_sevile_1</t>
+    <t>mon_savile;person_jimmy_savile;heritage_media_culture;heritage_sex_based_violence;heritage_pedophilia;legacy_philanthropic_activities;legacy_charitable_actions;legacy_fundraising;legacy_popular_entertainment;cf_savile_1</t>
   </si>
   <si>
     <t>value_cultural_identity;value_artistic_cultural</t>
@@ -2416,9 +2434,6 @@
     <t>Stalin was responsible for mass political repression, including forced collectivisation, purges, and the establishment of the Gulag system, which led to widespread imprisonment, deportations, and millions of deaths.</t>
   </si>
   <si>
-    <t>cf_sevile_1</t>
-  </si>
-  <si>
     <t>After his death, Jimmy Savile was accused of widespread sexual abuse of minors and adults, with investigations concluding that he had exploited his celebrity status to commit offences over several decades.</t>
   </si>
   <si>
@@ -2551,7 +2566,7 @@
     <t>Samuel Bako, community organizer of Afro-German heritage</t>
   </si>
   <si>
-    <t>legacy_animal_welfare; egacy_zoo_design</t>
+    <t>legacy_animal_welfare; legacy_zoo_design</t>
   </si>
   <si>
     <t>prorem_hagenbeck</t>
@@ -2638,9 +2653,6 @@
     <t>British sculptor and street artist Will Coles</t>
   </si>
   <si>
-    <t>value_critical_thinking;value_artistic_cultural;value_educational</t>
-  </si>
-  <si>
     <t>S_colston_4</t>
   </si>
   <si>
@@ -2686,9 +2698,6 @@
     <t>Margaret, retired health worker</t>
   </si>
   <si>
-    <t>legacy_philanthrophc_activities;legacy_charitable_actions;legacy_fundraising</t>
-  </si>
-  <si>
     <t>activity_id</t>
   </si>
   <si>
@@ -2776,9 +2785,6 @@
     <t>During the Hungarian Revolution of 1956, protesters dismantled and destroyed the Stalin statue in Városliget, Budapest, transforming the monument into a powerful symbol of resistance against Soviet domination.</t>
   </si>
   <si>
-    <t>S_stalin_1;S_stailn_2</t>
-  </si>
-  <si>
     <t>Following posthumous revelations of sexual abuse, the statue of Jimmy Savile in Glencoe was removed after public backlash, reflecting a rapid collapse of commemorative legitimacy.</t>
   </si>
   <si>
@@ -2824,7 +2830,7 @@
     <t xml:space="preserve">Pro Removal perspective on Mary Wollstonecraft statue controversy </t>
   </si>
   <si>
-    <t>discussion_wollstonecraft</t>
+    <t>discussion_wollstonecraft_1</t>
   </si>
   <si>
     <t xml:space="preserve">Pro Removal perspective on Jean Baptiste Colbert statue controversy </t>
@@ -2996,9 +3002,6 @@
   </si>
   <si>
     <t>The discussion that arises from different stakeholders' perspectives on Gandhi statue controversy</t>
-  </si>
-  <si>
-    <t>discussion_wollstonecraft_1</t>
   </si>
   <si>
     <t>The discussion that arises from different stakeholders' perspectives on Wollstonecraftstatue controversy</t>
@@ -3236,7 +3239,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3415,6 +3418,9 @@
     <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="18" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="19" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -3548,8 +3554,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments">
-  <x18tc:person displayName="Anna Pasetto" id="{8e995559-fcb0-48bf-8171-5d28f3e9b05f}" providerId="google-sheets"/>
-  <x18tc:person displayName="Alice P" id="{1a128433-bc61-44dc-b841-b6a560cb2d0e}" providerId="google-sheets"/>
+  <x18tc:person displayName="Anna Pasetto" id="{4d78ab3a-fbbd-4d73-9e0c-33b65df4daa2}" providerId="google-sheets"/>
+  <x18tc:person displayName="Alice P" id="{7929333d-8dbe-4048-8df3-899f3f9906db}" providerId="google-sheets"/>
 </x18tc:personList>
 </file>
 
@@ -3749,16 +3755,16 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:ThreadedComments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <x18tc:threadedComment ref="A7" dT="2026-01-09T08:51:03.00" personId="{1a128433-bc61-44dc-b841-b6a560cb2d0e}" id="{96932d09-d72e-4d89-8015-b1e04de273e9}" done="1">
+  <x18tc:threadedComment ref="A7" dT="2026-01-09T08:51:03.00" personId="{7929333d-8dbe-4048-8df3-899f3f9906db}" id="{15c7c5da-5c5c-4f72-8046-e4e488aa23e3}" done="1">
     <x18tc:text xml:space="preserve">Colbert</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="A8" dT="2026-01-09T08:51:13.00" personId="{1a128433-bc61-44dc-b841-b6a560cb2d0e}" id="{2277bbd6-61a4-4f72-bc44-f51811c01ff4}" done="1">
+  <x18tc:threadedComment ref="A8" dT="2026-01-09T08:51:13.00" personId="{7929333d-8dbe-4048-8df3-899f3f9906db}" id="{7f6888ad-f3dd-4850-a888-98e883b60be9}" done="1">
     <x18tc:text xml:space="preserve">Colbert</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="A7" dT="2026-01-09T08:50:29.00" personId="{1a128433-bc61-44dc-b841-b6a560cb2d0e}" id="{3387124d-7902-4315-9a53-5df7096b646e}" done="1">
+  <x18tc:threadedComment ref="A7" dT="2026-01-09T08:50:29.00" personId="{7929333d-8dbe-4048-8df3-899f3f9906db}" id="{d780824a-9f42-489b-bf4b-04e09b13909f}" done="1">
     <x18tc:text xml:space="preserve">Colbert</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="A9" dT="2026-01-09T08:51:21.00" personId="{1a128433-bc61-44dc-b841-b6a560cb2d0e}" id="{703158e1-351c-40ca-af0d-ed8f334da7e6}" done="1">
+  <x18tc:threadedComment ref="A9" dT="2026-01-09T08:51:21.00" personId="{7929333d-8dbe-4048-8df3-899f3f9906db}" id="{b65ac62b-80b5-4d0e-899b-c41a4dd1be80}" done="1">
     <x18tc:text xml:space="preserve">Colbert</x18tc:text>
   </x18tc:threadedComment>
 </x18tc:ThreadedComments>
@@ -3766,10 +3772,10 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:ThreadedComments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <x18tc:threadedComment ref="B1" dT="2026-01-12T13:59:21.00" personId="{8e995559-fcb0-48bf-8171-5d28f3e9b05f}" id="{45bef7e4-ca38-424d-89b2-d1ab30f9254c}" done="1">
+  <x18tc:threadedComment ref="B1" dT="2026-01-12T13:59:21.00" personId="{4d78ab3a-fbbd-4d73-9e0c-33b65df4daa2}" id="{c2f5a4f1-23c2-4c2c-840f-b4559da15a30}" done="1">
     <x18tc:text xml:space="preserve">inserire nei pro removal il fatto che le statue non tengono in considerazione le vittime o le azioni e che sarebbe bello venissero menzionate</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="C1" dT="2026-01-12T13:45:34.00" personId="{8e995559-fcb0-48bf-8171-5d28f3e9b05f}" id="{0c79ac4a-db50-4d53-819e-1e462db9488f}" done="1">
+  <x18tc:threadedComment ref="C1" dT="2026-01-12T13:45:34.00" personId="{4d78ab3a-fbbd-4d73-9e0c-33b65df4daa2}" id="{97ee6e25-a74b-44c1-800f-ed264e552ff6}" done="1">
     <x18tc:text xml:space="preserve">mettiamo sempre sia i controversial fact che la legacy che gli heritage concept</x18tc:text>
   </x18tc:threadedComment>
 </x18tc:ThreadedComments>
@@ -3777,7 +3783,7 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:ThreadedComments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <x18tc:threadedComment ref="B1" dT="2026-01-12T14:20:36.00" personId="{8e995559-fcb0-48bf-8171-5d28f3e9b05f}" id="{28156e1c-6e8f-4446-8bf8-e4362234dfd8}" done="1">
+  <x18tc:threadedComment ref="B1" dT="2026-01-12T14:20:36.00" personId="{4d78ab3a-fbbd-4d73-9e0c-33b65df4daa2}" id="{3d69428f-67f5-42f0-86d0-e89f526638a4}" done="1">
     <x18tc:text xml:space="preserve">mettere i dati veri quando ci sono e quando non ci sono usare i nomi degli scenari</x18tc:text>
   </x18tc:threadedComment>
 </x18tc:ThreadedComments>
@@ -4399,10 +4405,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2">
@@ -4415,18 +4421,18 @@
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4454,25 +4460,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H1" s="38"/>
     </row>
@@ -4484,835 +4490,835 @@
         <v>133</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="H2" s="23"/>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="H3" s="23"/>
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H4" s="23"/>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="H5" s="23"/>
     </row>
     <row r="6">
       <c r="A6" s="34" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="H6" s="23"/>
     </row>
     <row r="7">
       <c r="A7" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>337</v>
-      </c>
       <c r="D7" s="39" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="H7" s="23"/>
     </row>
     <row r="8">
       <c r="A8" s="34" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="H8" s="23"/>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="H9" s="23"/>
     </row>
     <row r="10">
       <c r="A10" s="34" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="H10" s="23"/>
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="H11" s="23"/>
     </row>
     <row r="12">
       <c r="A12" s="34" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="H12" s="23"/>
     </row>
     <row r="13">
       <c r="A13" s="34" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="H13" s="23"/>
     </row>
     <row r="14">
       <c r="A14" s="33" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="H14" s="23"/>
     </row>
     <row r="15">
       <c r="A15" s="34" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H15" s="23"/>
     </row>
     <row r="16">
       <c r="A16" s="33" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="H16" s="23"/>
     </row>
     <row r="17">
       <c r="A17" s="33" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="H17" s="23"/>
     </row>
     <row r="18">
       <c r="A18" s="34" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="H18" s="23"/>
     </row>
     <row r="19">
       <c r="A19" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>385</v>
-      </c>
       <c r="D19" s="39" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="H19" s="23"/>
     </row>
     <row r="20">
       <c r="A20" s="34" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="H20" s="23"/>
     </row>
     <row r="21">
       <c r="A21" s="33" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="H21" s="23"/>
     </row>
     <row r="22">
       <c r="A22" s="34" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="H22" s="23"/>
     </row>
     <row r="23">
       <c r="A23" s="33" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="H23" s="23"/>
     </row>
     <row r="24">
       <c r="A24" s="34" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="H24" s="23"/>
     </row>
     <row r="25">
       <c r="A25" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="B25" s="33" t="s">
-        <v>409</v>
-      </c>
       <c r="C25" s="33" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H25" s="23"/>
     </row>
     <row r="26">
       <c r="A26" s="34" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H26" s="23"/>
     </row>
     <row r="27">
       <c r="A27" s="33" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="H27" s="23"/>
     </row>
     <row r="28">
       <c r="A28" s="34" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="H28" s="23"/>
     </row>
     <row r="29">
       <c r="A29" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="B29" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>423</v>
-      </c>
       <c r="C29" s="33" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="H29" s="23"/>
     </row>
     <row r="30">
       <c r="A30" s="34" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="H30" s="23"/>
     </row>
     <row r="31">
       <c r="A31" s="33" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="H31" s="23"/>
     </row>
     <row r="32">
       <c r="A32" s="34" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="H32" s="23"/>
     </row>
     <row r="33">
       <c r="A33" s="33" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="H33" s="23"/>
     </row>
     <row r="34">
       <c r="A34" s="34" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="H34" s="23"/>
     </row>
     <row r="35">
       <c r="A35" s="33" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="H35" s="23"/>
     </row>
     <row r="36">
       <c r="A36" s="34" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="H36" s="23"/>
     </row>
@@ -9241,10 +9247,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2">
@@ -9257,90 +9263,90 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14">
@@ -9378,16 +9384,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2">
@@ -9398,486 +9404,486 @@
         <v>133</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="39" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="40" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="39" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="40" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="39" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="40" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="39" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="40" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="40" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="39" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="40" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="39" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="39" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="40" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="39" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="40" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="39" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="40" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="39" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="40" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="39" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="40" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="39" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="40" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="39" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="40" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="39" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="40" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="39" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="40" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="39" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="40" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -9902,13 +9908,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="44" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2">
@@ -9919,15 +9925,15 @@
         <v>133</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C3" s="46">
         <v>42644.0</v>
@@ -9935,10 +9941,10 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C4" s="47">
         <v>42644.0</v>
@@ -9946,10 +9952,10 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C5" s="46">
         <v>40940.0</v>
@@ -9957,10 +9963,10 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C6" s="47">
         <v>40940.0</v>
@@ -9968,10 +9974,10 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C7" s="39">
         <v>2018.0</v>
@@ -9979,10 +9985,10 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C8" s="40">
         <v>2018.0</v>
@@ -9990,10 +9996,10 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C9" s="46">
         <v>43525.0</v>
@@ -10001,10 +10007,10 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C10" s="47">
         <v>43525.0</v>
@@ -10012,10 +10018,10 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C11" s="46">
         <v>43983.0</v>
@@ -10023,10 +10029,10 @@
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C12" s="47">
         <v>43983.0</v>
@@ -10034,10 +10040,10 @@
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C13" s="47">
         <v>43983.0</v>
@@ -10045,10 +10051,10 @@
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C14" s="46">
         <v>43983.0</v>
@@ -10056,10 +10062,10 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C15" s="47">
         <v>43983.0</v>
@@ -10067,10 +10073,10 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C16" s="46">
         <v>43983.0</v>
@@ -10078,10 +10084,10 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C17" s="39">
         <v>2016.0</v>
@@ -10089,10 +10095,10 @@
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C18" s="40">
         <v>2016.0</v>
@@ -10100,10 +10106,10 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C19" s="48">
         <v>44136.0</v>
@@ -10111,10 +10117,10 @@
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C20" s="49">
         <v>44136.0</v>
@@ -10122,10 +10128,10 @@
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C21" s="46">
         <v>43983.0</v>
@@ -10133,10 +10139,10 @@
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C22" s="47">
         <v>43983.0</v>
@@ -10144,10 +10150,10 @@
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C23" s="46">
         <v>43009.0</v>
@@ -10155,10 +10161,10 @@
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C24" s="47">
         <v>43009.0</v>
@@ -10166,10 +10172,10 @@
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C25" s="46">
         <v>43983.0</v>
@@ -10177,10 +10183,10 @@
     </row>
     <row r="26">
       <c r="A26" s="14" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C26" s="47">
         <v>43983.0</v>
@@ -10188,10 +10194,10 @@
     </row>
     <row r="27">
       <c r="A27" s="14" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C27" s="46">
         <v>35796.0</v>
@@ -10199,10 +10205,10 @@
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C28" s="47">
         <v>35796.0</v>
@@ -10210,10 +10216,10 @@
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C29" s="46">
         <v>42736.0</v>
@@ -10221,10 +10227,10 @@
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C30" s="47">
         <v>42736.0</v>
@@ -10232,10 +10238,10 @@
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C31" s="46">
         <v>43831.0</v>
@@ -10243,10 +10249,10 @@
     </row>
     <row r="32">
       <c r="A32" s="14" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C32" s="47">
         <v>43831.0</v>
@@ -10254,10 +10260,10 @@
     </row>
     <row r="33">
       <c r="A33" s="14" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C33" s="48">
         <v>20751.0</v>
@@ -10265,10 +10271,10 @@
     </row>
     <row r="34">
       <c r="A34" s="14" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C34" s="47">
         <v>20751.0</v>
@@ -10276,10 +10282,10 @@
     </row>
     <row r="35">
       <c r="A35" s="14" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C35" s="46">
         <v>41153.0</v>
@@ -10287,10 +10293,10 @@
     </row>
     <row r="36">
       <c r="A36" s="14" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C36" s="47">
         <v>41153.0</v>
@@ -10298,10 +10304,10 @@
     </row>
     <row r="37">
       <c r="A37" s="14" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C37" s="46">
         <v>42654.0</v>
@@ -10309,10 +10315,10 @@
     </row>
     <row r="38">
       <c r="A38" s="14" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C38" s="47">
         <v>42644.0</v>
@@ -10320,10 +10326,10 @@
     </row>
     <row r="39">
       <c r="A39" s="14" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C39" s="46">
         <v>40940.0</v>
@@ -10331,10 +10337,10 @@
     </row>
     <row r="40">
       <c r="A40" s="14" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C40" s="47">
         <v>40940.0</v>
@@ -10342,10 +10348,10 @@
     </row>
     <row r="41">
       <c r="A41" s="14" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C41" s="39">
         <v>2018.0</v>
@@ -10353,10 +10359,10 @@
     </row>
     <row r="42">
       <c r="A42" s="14" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C42" s="40">
         <v>2018.0</v>
@@ -10364,10 +10370,10 @@
     </row>
     <row r="43">
       <c r="A43" s="14" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C43" s="46">
         <v>43525.0</v>
@@ -10375,10 +10381,10 @@
     </row>
     <row r="44">
       <c r="A44" s="14" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C44" s="47">
         <v>43525.0</v>
@@ -10386,10 +10392,10 @@
     </row>
     <row r="45">
       <c r="A45" s="14" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C45" s="46">
         <v>43983.0</v>
@@ -10397,10 +10403,10 @@
     </row>
     <row r="46">
       <c r="A46" s="14" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C46" s="47">
         <v>43983.0</v>
@@ -10408,10 +10414,10 @@
     </row>
     <row r="47">
       <c r="A47" s="14" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C47" s="47">
         <v>43983.0</v>
@@ -10419,10 +10425,10 @@
     </row>
     <row r="48">
       <c r="A48" s="14" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C48" s="46">
         <v>43983.0</v>
@@ -10430,10 +10436,10 @@
     </row>
     <row r="49">
       <c r="A49" s="14" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C49" s="47">
         <v>44075.0</v>
@@ -10441,10 +10447,10 @@
     </row>
     <row r="50">
       <c r="A50" s="14" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C50" s="46">
         <v>44075.0</v>
@@ -10452,10 +10458,10 @@
     </row>
     <row r="51">
       <c r="A51" s="14" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C51" s="39">
         <v>2016.0</v>
@@ -10463,10 +10469,10 @@
     </row>
     <row r="52">
       <c r="A52" s="14" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C52" s="40">
         <v>2016.0</v>
@@ -10474,10 +10480,10 @@
     </row>
     <row r="53">
       <c r="A53" s="14" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C53" s="48">
         <v>44136.0</v>
@@ -10485,10 +10491,10 @@
     </row>
     <row r="54">
       <c r="A54" s="14" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C54" s="49">
         <v>44136.0</v>
@@ -10496,10 +10502,10 @@
     </row>
     <row r="55">
       <c r="A55" s="14" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C55" s="46">
         <v>43983.0</v>
@@ -10507,10 +10513,10 @@
     </row>
     <row r="56">
       <c r="A56" s="14" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C56" s="47">
         <v>43983.0</v>
@@ -10518,10 +10524,10 @@
     </row>
     <row r="57">
       <c r="A57" s="14" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C57" s="48">
         <v>43039.0</v>
@@ -10529,10 +10535,10 @@
     </row>
     <row r="58">
       <c r="A58" s="14" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C58" s="47">
         <v>43039.0</v>
@@ -10540,10 +10546,10 @@
     </row>
     <row r="59">
       <c r="A59" s="14" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C59" s="46">
         <v>43983.0</v>
@@ -10551,10 +10557,10 @@
     </row>
     <row r="60">
       <c r="A60" s="14" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C60" s="47">
         <v>44012.0</v>
@@ -10562,10 +10568,10 @@
     </row>
     <row r="61">
       <c r="A61" s="14" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C61" s="48">
         <v>36160.0</v>
@@ -10573,10 +10579,10 @@
     </row>
     <row r="62">
       <c r="A62" s="14" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C62" s="49">
         <v>36160.0</v>
@@ -10584,10 +10590,10 @@
     </row>
     <row r="63">
       <c r="A63" s="14" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C63" s="48">
         <v>43100.0</v>
@@ -10595,10 +10601,10 @@
     </row>
     <row r="64">
       <c r="A64" s="14" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C64" s="47">
         <v>43100.0</v>
@@ -10606,10 +10612,10 @@
     </row>
     <row r="65">
       <c r="A65" s="14" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C65" s="48">
         <v>44196.0</v>
@@ -10617,10 +10623,10 @@
     </row>
     <row r="66">
       <c r="A66" s="14" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C66" s="49">
         <v>44196.0</v>
@@ -10628,10 +10634,10 @@
     </row>
     <row r="67">
       <c r="A67" s="14" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C67" s="48">
         <v>20729.0</v>
@@ -10639,10 +10645,10 @@
     </row>
     <row r="68">
       <c r="A68" s="14" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C68" s="49">
         <v>20729.0</v>
@@ -10650,10 +10656,10 @@
     </row>
     <row r="69">
       <c r="A69" s="14" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C69" s="48">
         <v>41183.0</v>
@@ -10661,10 +10667,10 @@
     </row>
     <row r="70">
       <c r="A70" s="14" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C70" s="49">
         <v>41183.0</v>
@@ -10694,16 +10700,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="E1" s="23"/>
     </row>
@@ -10715,310 +10721,310 @@
         <v>133</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="E2" s="23"/>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="E3" s="23"/>
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="E4" s="23"/>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="E5" s="23"/>
     </row>
     <row r="6">
       <c r="A6" s="34" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="E6" s="23"/>
     </row>
     <row r="7">
       <c r="A7" s="34" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="E7" s="23"/>
     </row>
     <row r="8">
       <c r="A8" s="33" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="E8" s="23"/>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="E9" s="23"/>
     </row>
     <row r="10">
       <c r="A10" s="34" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="E10" s="23"/>
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="E11" s="23"/>
     </row>
     <row r="12">
       <c r="A12" s="34" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="E12" s="23"/>
     </row>
     <row r="13">
       <c r="A13" s="33" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="E13" s="23"/>
     </row>
     <row r="14">
       <c r="A14" s="34" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="E14" s="23"/>
     </row>
     <row r="15">
       <c r="A15" s="33" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="E15" s="23"/>
     </row>
     <row r="16">
       <c r="A16" s="34" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="E16" s="23"/>
     </row>
     <row r="17">
       <c r="A17" s="33" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="E17" s="23"/>
     </row>
     <row r="18">
       <c r="A18" s="34" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="E18" s="23"/>
     </row>
     <row r="19">
       <c r="A19" s="34" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="E19" s="23"/>
     </row>
     <row r="20">
       <c r="A20" s="33" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="E20" s="23"/>
     </row>
     <row r="21">
       <c r="A21" s="34" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="E21" s="23"/>
     </row>
     <row r="22">
       <c r="A22" s="33" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="E22" s="23"/>
     </row>
@@ -13991,10 +13997,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="2">
@@ -14005,7 +14011,7 @@
         <v>133</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3">
@@ -14013,10 +14019,10 @@
         <v>28</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="4">
@@ -14024,10 +14030,10 @@
         <v>38</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5">
@@ -14035,10 +14041,10 @@
         <v>50</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6">
@@ -14046,10 +14052,10 @@
         <v>59</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="7">
@@ -14057,10 +14063,10 @@
         <v>68</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
     </row>
     <row r="8">
@@ -14068,10 +14074,10 @@
         <v>80</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9">
@@ -14079,10 +14085,10 @@
         <v>91</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="10">
@@ -14090,10 +14096,10 @@
         <v>102</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11">
@@ -14101,10 +14107,10 @@
         <v>113</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12">
@@ -14112,10 +14118,10 @@
         <v>123</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
     <row r="13">
@@ -14143,10 +14149,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="C1" s="52"/>
     </row>
@@ -14161,19 +14167,19 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="C3" s="53"/>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="C4" s="53"/>
     </row>
@@ -14182,7 +14188,7 @@
         <v>138</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="C5" s="53"/>
     </row>
@@ -14191,97 +14197,97 @@
         <v>144</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="C6" s="23"/>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="C7" s="53"/>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="C8" s="53"/>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="C9" s="53"/>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="C10" s="53"/>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="C11" s="53"/>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="C12" s="53"/>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="C13" s="53"/>
     </row>
     <row r="14">
       <c r="A14" s="16" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="C14" s="53"/>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="C15" s="53"/>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>685</v>
+        <v>166</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="C16" s="53"/>
     </row>
@@ -17283,10 +17289,10 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
@@ -17297,7 +17303,7 @@
         <v>133</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="3">
@@ -17305,7 +17311,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>137</v>
@@ -17316,7 +17322,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>140</v>
@@ -17327,7 +17333,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>143</v>
@@ -17338,7 +17344,7 @@
         <v>64</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>146</v>
@@ -17349,10 +17355,10 @@
         <v>74</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8">
@@ -17360,21 +17366,21 @@
         <v>85</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10">
@@ -17382,10 +17388,10 @@
         <v>108</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11">
@@ -17393,10 +17399,10 @@
         <v>119</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
@@ -17404,10 +17410,10 @@
         <v>127</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -17435,22 +17441,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
     </row>
     <row r="2">
@@ -17461,715 +17467,715 @@
         <v>133</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="G2" s="55"/>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="G3" s="55"/>
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>137</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="G4" s="56"/>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>140</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="G5" s="55"/>
     </row>
     <row r="6">
       <c r="A6" s="34" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>140</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="G6" s="56"/>
     </row>
     <row r="7">
       <c r="A7" s="33" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>140</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="G7" s="55"/>
     </row>
     <row r="8">
       <c r="A8" s="34" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="D8" s="34" t="s">
         <v>140</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="G8" s="56"/>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>140</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="G9" s="55"/>
     </row>
     <row r="10">
       <c r="A10" s="34" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>140</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="G10" s="56"/>
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>140</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="G11" s="55"/>
     </row>
     <row r="12">
       <c r="A12" s="34" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>140</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="G12" s="56"/>
     </row>
     <row r="13">
       <c r="A13" s="34" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="G13" s="56"/>
     </row>
     <row r="14">
       <c r="A14" s="33" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="G14" s="55"/>
     </row>
     <row r="15">
       <c r="A15" s="34" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B15" s="34" t="s">
+        <v>737</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>731</v>
+      </c>
+      <c r="D15" s="34" t="s">
         <v>732</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>726</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>727</v>
-      </c>
       <c r="E15" s="34" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="G15" s="56"/>
     </row>
     <row r="16">
       <c r="A16" s="33" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="G16" s="55"/>
     </row>
     <row r="17">
       <c r="A17" s="33" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>146</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="G17" s="55"/>
     </row>
     <row r="18">
       <c r="A18" s="34" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>146</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="G18" s="56"/>
     </row>
     <row r="19">
       <c r="A19" s="33" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="34" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="G20" s="56"/>
     </row>
     <row r="21">
       <c r="A21" s="33" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="34" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="33" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="34" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="33" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="34" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="33" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="34" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="33" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="C29" s="33" t="s">
+        <v>731</v>
+      </c>
+      <c r="D29" s="33" t="s">
         <v>759</v>
       </c>
-      <c r="D29" s="33" t="s">
-        <v>754</v>
-      </c>
       <c r="E29" s="33" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="34" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="33" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="C31" s="33" t="s">
+        <v>731</v>
+      </c>
+      <c r="D31" s="33" t="s">
         <v>759</v>
       </c>
-      <c r="D31" s="33" t="s">
-        <v>754</v>
-      </c>
       <c r="E31" s="33" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="34" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="B32" s="58" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="G32" s="56"/>
     </row>
     <row r="33">
       <c r="A33" s="33" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="34" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="33" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="34" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -18286,16 +18292,16 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>151</v>
       </c>
       <c r="E7" s="23"/>
     </row>
@@ -18304,13 +18310,13 @@
         <v>81</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="16" t="s">
         <v>153</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>154</v>
       </c>
       <c r="E8" s="23"/>
     </row>
@@ -18319,13 +18325,13 @@
         <v>92</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>156</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>157</v>
       </c>
       <c r="E9" s="23"/>
     </row>
@@ -18334,28 +18340,28 @@
         <v>103</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>159</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>160</v>
       </c>
       <c r="E10" s="23"/>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>163</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>164</v>
       </c>
       <c r="E11" s="23"/>
     </row>
@@ -18364,13 +18370,13 @@
         <v>124</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="D12" s="16" t="s">
         <v>166</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>167</v>
       </c>
       <c r="E12" s="23"/>
     </row>
@@ -21363,13 +21369,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="D1" s="59"/>
       <c r="E1" s="59"/>
@@ -21390,29 +21396,29 @@
         <v>133</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -21427,24 +21433,24 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -21459,24 +21465,24 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -21491,24 +21497,24 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -21523,24 +21529,24 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="60" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="D12" s="61"/>
       <c r="E12" s="61"/>
@@ -21555,24 +21561,24 @@
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="60" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="D14" s="61"/>
       <c r="E14" s="61"/>
@@ -21587,24 +21593,24 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="60" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="D16" s="61"/>
       <c r="E16" s="61"/>
@@ -21619,24 +21625,24 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="60" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>805</v>
+        <v>666</v>
       </c>
       <c r="D18" s="61"/>
       <c r="E18" s="61"/>
@@ -21651,13 +21657,13 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -21677,18 +21683,18 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="20.13"/>
     <col customWidth="1" min="2" max="2" width="54.38"/>
-    <col customWidth="1" min="3" max="3" width="19.88"/>
+    <col customWidth="1" min="3" max="3" width="21.75"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D1" s="62"/>
     </row>
@@ -21700,127 +21706,127 @@
         <v>133</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D2" s="62"/>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D3" s="62"/>
     </row>
     <row r="4">
       <c r="A4" s="33" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D4" s="62"/>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D5" s="62"/>
     </row>
     <row r="6">
       <c r="A6" s="33" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D6" s="62"/>
     </row>
     <row r="7">
       <c r="A7" s="33" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D7" s="62"/>
     </row>
     <row r="8">
       <c r="A8" s="33" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="D8" s="62"/>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="D9" s="62"/>
     </row>
     <row r="10">
       <c r="A10" s="33" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D10" s="62"/>
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D11" s="62"/>
     </row>
     <row r="12">
       <c r="A12" s="33" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D12" s="62"/>
     </row>
@@ -21846,13 +21852,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="27" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="2">
@@ -21863,126 +21869,126 @@
         <v>133</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="63" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D3" s="65"/>
     </row>
     <row r="4">
       <c r="A4" s="63" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D4" s="65"/>
     </row>
     <row r="5">
       <c r="A5" s="63" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D5" s="65"/>
     </row>
     <row r="6">
       <c r="A6" s="63" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D6" s="65"/>
     </row>
     <row r="7">
       <c r="A7" s="63" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>838</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>821</v>
+        <v>840</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>823</v>
       </c>
       <c r="D7" s="65"/>
     </row>
     <row r="8">
       <c r="A8" s="63" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="D8" s="65"/>
     </row>
     <row r="9">
       <c r="A9" s="63" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="D9" s="65"/>
     </row>
     <row r="10">
       <c r="A10" s="63" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D10" s="65"/>
     </row>
     <row r="11">
       <c r="A11" s="63" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D11" s="65"/>
     </row>
     <row r="12">
       <c r="A12" s="63" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D12" s="65"/>
     </row>
@@ -22008,13 +22014,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="2">
@@ -22025,117 +22031,117 @@
         <v>133</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
@@ -22160,13 +22166,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="C1" s="66" t="s">
-        <v>871</v>
+        <v>872</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="2">
@@ -22176,118 +22182,118 @@
       <c r="B2" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="66" t="s">
-        <v>872</v>
+      <c r="C2" s="67" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>879</v>
+        <v>823</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
   </sheetData>
@@ -22311,10 +22317,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="2">
@@ -22327,10 +22333,10 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
   </sheetData>
@@ -22354,10 +22360,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="2">
@@ -22370,10 +22376,10 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -22397,10 +22403,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="2">
@@ -22413,10 +22419,10 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
   </sheetData>
@@ -22443,7 +22449,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2">
@@ -22459,7 +22465,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4">
@@ -22467,7 +22473,7 @@
         <v>40</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5">
@@ -22475,7 +22481,7 @@
         <v>52</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6">
@@ -22483,7 +22489,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7">
@@ -22491,7 +22497,7 @@
         <v>70</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8">
@@ -22499,7 +22505,7 @@
         <v>82</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9">
@@ -22507,7 +22513,7 @@
         <v>93</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10">
@@ -22515,7 +22521,7 @@
         <v>104</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
@@ -22523,7 +22529,7 @@
         <v>115</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12">
@@ -22531,7 +22537,7 @@
         <v>125</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -22555,10 +22561,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2">
@@ -22574,7 +22580,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4">
@@ -22582,7 +22588,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5">
@@ -22590,7 +22596,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6">
@@ -22598,7 +22604,7 @@
         <v>83</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7">
@@ -22606,7 +22612,7 @@
         <v>94</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8">
@@ -22614,7 +22620,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9">
@@ -22622,7 +22628,7 @@
         <v>116</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -22646,10 +22652,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>188</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2">
@@ -22665,7 +22671,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4">
@@ -22673,7 +22679,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">
@@ -22681,7 +22687,7 @@
         <v>75</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6">
@@ -22689,7 +22695,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7">
@@ -22697,7 +22703,7 @@
         <v>86</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8">
@@ -22705,7 +22711,7 @@
         <v>98</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -22732,7 +22738,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2">
@@ -22748,7 +22754,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4">
@@ -22756,7 +22762,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5">
@@ -22764,39 +22770,39 @@
         <v>62</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>200</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>206</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="10">
@@ -22804,7 +22810,7 @@
         <v>106</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11">
@@ -22812,7 +22818,7 @@
         <v>117</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -22836,10 +22842,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="2">
@@ -22852,18 +22858,18 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>212</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>214</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>215</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -22892,18 +22898,18 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>216</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>218</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>219</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -22932,18 +22938,18 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>220</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>222</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>223</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -22972,18 +22978,18 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>224</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>226</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>227</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -23012,18 +23018,18 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>228</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>230</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>231</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -23077,7 +23083,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2">
@@ -23090,82 +23096,82 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>233</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>235</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>237</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>239</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>241</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>243</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>245</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>247</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>249</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>251</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="13">
@@ -23173,76 +23179,80 @@
         <v>107</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>254</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>256</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>258</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>260</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>262</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>264</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>266</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B21" s="14" t="s">
+    </row>
+    <row r="22">
+      <c r="A22" s="14" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
+      <c r="B22" s="14" t="s">
+        <v>270</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -23265,10 +23275,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2">
@@ -23281,18 +23291,18 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5">
@@ -23300,7 +23310,7 @@
         <v>137</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6">
@@ -23308,127 +23318,151 @@
         <v>140</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -39,13 +39,13 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
-    <author>tc={15c7c5da-5c5c-4f72-8046-e4e488aa23e3}</author>
-    <author>tc={7f6888ad-f3dd-4850-a888-98e883b60be9}</author>
-    <author>tc={b65ac62b-80b5-4d0e-899b-c41a4dd1be80}</author>
-    <author>tc={d780824a-9f42-489b-bf4b-04e09b13909f}</author>
+    <author>tc={34530902-9918-47f9-8b0c-e44fd5791f3b}</author>
+    <author>tc={41b218cd-cad1-4c6f-8b89-f50757480331}</author>
+    <author>tc={4bd25ce3-aed4-4921-86c9-6968f6e5c7dd}</author>
+    <author>tc={93be6ce5-a062-4590-a459-742891c60a7b}</author>
   </authors>
   <commentList>
-    <comment authorId="0" xr:uid="{15c7c5da-5c5c-4f72-8046-e4e488aa23e3}" ref="A7">
+    <comment authorId="0" xr:uid="{34530902-9918-47f9-8b0c-e44fd5791f3b}" ref="A8">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +54,7 @@
 </t>
       </text>
     </comment>
-    <comment authorId="1" xr:uid="{7f6888ad-f3dd-4850-a888-98e883b60be9}" ref="A8">
+    <comment authorId="1" xr:uid="{41b218cd-cad1-4c6f-8b89-f50757480331}" ref="A9">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +63,7 @@
 </t>
       </text>
     </comment>
-    <comment authorId="2" xr:uid="{b65ac62b-80b5-4d0e-899b-c41a4dd1be80}" ref="A9">
+    <comment authorId="2" xr:uid="{4bd25ce3-aed4-4921-86c9-6968f6e5c7dd}" ref="A7">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -72,7 +72,7 @@
 </t>
       </text>
     </comment>
-    <comment authorId="3" xr:uid="{d780824a-9f42-489b-bf4b-04e09b13909f}" ref="A7">
+    <comment authorId="3" xr:uid="{93be6ce5-a062-4590-a459-742891c60a7b}" ref="A7">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -88,25 +88,25 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
-    <author>tc={97ee6e25-a74b-44c1-800f-ed264e552ff6}</author>
-    <author>tc={c2f5a4f1-23c2-4c2c-840f-b4559da15a30}</author>
+    <author>tc={a1e4ab6c-93b5-44aa-87e7-9770b400bc28}</author>
+    <author>tc={cce248e6-3f72-4ce6-8f1c-8c4087e61e77}</author>
   </authors>
   <commentList>
-    <comment authorId="0" xr:uid="{97ee6e25-a74b-44c1-800f-ed264e552ff6}" ref="C1">
+    <comment authorId="0" xr:uid="{a1e4ab6c-93b5-44aa-87e7-9770b400bc28}" ref="B1">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+ Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+	inserire nei pro removal il fatto che le statue non tengono in considerazione le vittime o le azioni e che sarebbe bello venissero menzionate
+</t>
+      </text>
+    </comment>
+    <comment authorId="1" xr:uid="{cce248e6-3f72-4ce6-8f1c-8c4087e61e77}" ref="C1">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
 	mettiamo sempre sia i controversial fact che la legacy che gli heritage concept
-</t>
-      </text>
-    </comment>
-    <comment authorId="1" xr:uid="{c2f5a4f1-23c2-4c2c-840f-b4559da15a30}" ref="B1">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
- Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-	inserire nei pro removal il fatto che le statue non tengono in considerazione le vittime o le azioni e che sarebbe bello venissero menzionate
 </t>
       </text>
     </comment>
@@ -117,10 +117,10 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
-    <author>tc={3d69428f-67f5-42f0-86d0-e89f526638a4}</author>
+    <author>tc={c49b9245-6779-4fe6-937a-d581c7663cd0}</author>
   </authors>
   <commentList>
-    <comment authorId="0" xr:uid="{3d69428f-67f5-42f0-86d0-e89f526638a4}" ref="B1">
+    <comment authorId="0" xr:uid="{c49b9245-6779-4fe6-937a-d581c7663cd0}" ref="B1">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="893">
   <si>
     <t>monument_id</t>
   </si>
@@ -427,7 +427,7 @@
     <t>heritage_colonial_paternalism;heritage_indigenous_protection;heritage_slavery</t>
   </si>
   <si>
-    <t>prod_vieria</t>
+    <t>prod_vieira</t>
   </si>
   <si>
     <t>contextualmaterial_vieira</t>
@@ -616,9 +616,6 @@
     <t>cf_colston_1;cf_colston_2;cf_colston_3</t>
   </si>
   <si>
-    <t>person_stalin</t>
-  </si>
-  <si>
     <t>Iosif Stalin (1878-1953)</t>
   </si>
   <si>
@@ -1939,7 +1936,7 @@
     <t>The statue must be removed because of Gandhi’s racist statements toward African people and his casteist views.</t>
   </si>
   <si>
-    <t xml:space="preserve">mon_gandhi;person_mahatma_gandhi;heritage_racism;heritage_colonialism;concept_caste_system;concept_nonviolent_resistance;legacy_indian_independence;legacy_nonviolent_resistance;legacy_contested_racism;cf_gandhi_1;cf_gandhi_2  </t>
+    <t xml:space="preserve">mon_gandhi;person_mahatma_gandhi;heritage_racism;heritage_colonialism;heritage_caste_system;legacy_indian_independence;legacy_nonviolent_resistance;legacy_contested_racism;cf_gandhi_1;cf_gandhi_2  </t>
   </si>
   <si>
     <t>value_cultural_identity;value_decolonization;value_social_justice</t>
@@ -1951,7 +1948,7 @@
     <t>The statue should be preserved to commemorate the reputation Gandhi had earned during the later years of his life.</t>
   </si>
   <si>
-    <t>mon_gandhi;person_mahatma_gandhi;heritage_racism;heritage_colonialism;concept_caste_system;concept_nonviolent_resistance;legacy_indian_independence;legacy_nonviolent_resistance; legacy_contested_racism;cf_gandhi_1;cf_gandhi_2</t>
+    <t>mon_gandhi;person_mahatma_gandhi;heritage_racism;heritage_colonialism;heritage_caste_system;legacy_indian_independence;legacy_nonviolent_resistance; legacy_contested_racism;cf_gandhi_1;cf_gandhi_2</t>
   </si>
   <si>
     <t>value_historical_memory;value_diplomacy</t>
@@ -1963,7 +1960,7 @@
     <t>The statue should be revoved because its nude, abstract design is disrespectful, objectifying, and fails to properly honor Mary Wollstonecraft’s intellectual achievements and identity</t>
   </si>
   <si>
-    <t>mon_wollstonecraft;person_wollstonecraft;heritage_sexism;heritage_sexualisation;legacy_philosophy;legacy_writing;legacy_women_rights;cf_wollstonecraft_1</t>
+    <t>mon_wollstonecraft;person_mary_wollstonecraft;heritage_sexism;heritage_sexualisation;legacy_philosophy;legacy_writing;legacy_women_rights;cf_wollstonecraft_1</t>
   </si>
   <si>
     <t>value_gender_equality</t>
@@ -2459,9 +2456,6 @@
   </si>
   <si>
     <t>The activity of producing the statue of Colbert</t>
-  </si>
-  <si>
-    <t>prod_vieira</t>
   </si>
   <si>
     <t>The activity of producing the statue of Vieira</t>
@@ -3554,8 +3548,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments">
-  <x18tc:person displayName="Anna Pasetto" id="{4d78ab3a-fbbd-4d73-9e0c-33b65df4daa2}" providerId="google-sheets"/>
-  <x18tc:person displayName="Alice P" id="{7929333d-8dbe-4048-8df3-899f3f9906db}" providerId="google-sheets"/>
+  <x18tc:person displayName="Anna Pasetto" id="{2f80c5f6-c89b-4481-9311-9204502e4129}" providerId="google-sheets"/>
+  <x18tc:person displayName="Alice P" id="{096a2b54-a29b-43a1-a6dc-1cc01a103900}" providerId="google-sheets"/>
 </x18tc:personList>
 </file>
 
@@ -3755,16 +3749,16 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:ThreadedComments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <x18tc:threadedComment ref="A7" dT="2026-01-09T08:51:03.00" personId="{7929333d-8dbe-4048-8df3-899f3f9906db}" id="{15c7c5da-5c5c-4f72-8046-e4e488aa23e3}" done="1">
+  <x18tc:threadedComment ref="A7" dT="2026-01-09T08:51:03.00" personId="{096a2b54-a29b-43a1-a6dc-1cc01a103900}" id="{4bd25ce3-aed4-4921-86c9-6968f6e5c7dd}" done="1">
     <x18tc:text xml:space="preserve">Colbert</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="A8" dT="2026-01-09T08:51:13.00" personId="{7929333d-8dbe-4048-8df3-899f3f9906db}" id="{7f6888ad-f3dd-4850-a888-98e883b60be9}" done="1">
+  <x18tc:threadedComment ref="A8" dT="2026-01-09T08:51:13.00" personId="{096a2b54-a29b-43a1-a6dc-1cc01a103900}" id="{34530902-9918-47f9-8b0c-e44fd5791f3b}" done="1">
     <x18tc:text xml:space="preserve">Colbert</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="A7" dT="2026-01-09T08:50:29.00" personId="{7929333d-8dbe-4048-8df3-899f3f9906db}" id="{d780824a-9f42-489b-bf4b-04e09b13909f}" done="1">
+  <x18tc:threadedComment ref="A7" dT="2026-01-09T08:50:29.00" personId="{096a2b54-a29b-43a1-a6dc-1cc01a103900}" id="{93be6ce5-a062-4590-a459-742891c60a7b}" done="1">
     <x18tc:text xml:space="preserve">Colbert</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="A9" dT="2026-01-09T08:51:21.00" personId="{7929333d-8dbe-4048-8df3-899f3f9906db}" id="{b65ac62b-80b5-4d0e-899b-c41a4dd1be80}" done="1">
+  <x18tc:threadedComment ref="A9" dT="2026-01-09T08:51:21.00" personId="{096a2b54-a29b-43a1-a6dc-1cc01a103900}" id="{41b218cd-cad1-4c6f-8b89-f50757480331}" done="1">
     <x18tc:text xml:space="preserve">Colbert</x18tc:text>
   </x18tc:threadedComment>
 </x18tc:ThreadedComments>
@@ -3772,10 +3766,10 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:ThreadedComments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <x18tc:threadedComment ref="B1" dT="2026-01-12T13:59:21.00" personId="{4d78ab3a-fbbd-4d73-9e0c-33b65df4daa2}" id="{c2f5a4f1-23c2-4c2c-840f-b4559da15a30}" done="1">
+  <x18tc:threadedComment ref="B1" dT="2026-01-12T13:59:21.00" personId="{2f80c5f6-c89b-4481-9311-9204502e4129}" id="{a1e4ab6c-93b5-44aa-87e7-9770b400bc28}" done="1">
     <x18tc:text xml:space="preserve">inserire nei pro removal il fatto che le statue non tengono in considerazione le vittime o le azioni e che sarebbe bello venissero menzionate</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="C1" dT="2026-01-12T13:45:34.00" personId="{4d78ab3a-fbbd-4d73-9e0c-33b65df4daa2}" id="{97ee6e25-a74b-44c1-800f-ed264e552ff6}" done="1">
+  <x18tc:threadedComment ref="C1" dT="2026-01-12T13:45:34.00" personId="{2f80c5f6-c89b-4481-9311-9204502e4129}" id="{cce248e6-3f72-4ce6-8f1c-8c4087e61e77}" done="1">
     <x18tc:text xml:space="preserve">mettiamo sempre sia i controversial fact che la legacy che gli heritage concept</x18tc:text>
   </x18tc:threadedComment>
 </x18tc:ThreadedComments>
@@ -3783,7 +3777,7 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:ThreadedComments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <x18tc:threadedComment ref="B1" dT="2026-01-12T14:20:36.00" personId="{4d78ab3a-fbbd-4d73-9e0c-33b65df4daa2}" id="{3d69428f-67f5-42f0-86d0-e89f526638a4}" done="1">
+  <x18tc:threadedComment ref="B1" dT="2026-01-12T14:20:36.00" personId="{2f80c5f6-c89b-4481-9311-9204502e4129}" id="{c49b9245-6779-4fe6-937a-d581c7663cd0}" done="1">
     <x18tc:text xml:space="preserve">mettere i dati veri quando ci sono e quando non ci sono usare i nomi degli scenari</x18tc:text>
   </x18tc:threadedComment>
 </x18tc:ThreadedComments>
@@ -4405,10 +4399,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>315</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="2">
@@ -4421,18 +4415,18 @@
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>317</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>319</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4460,25 +4454,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>326</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>327</v>
       </c>
       <c r="H1" s="38"/>
     </row>
@@ -4490,835 +4484,835 @@
         <v>133</v>
       </c>
       <c r="C2" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>328</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="E2" s="37" t="s">
         <v>329</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="10" t="s">
         <v>331</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>332</v>
       </c>
       <c r="H2" s="23"/>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="D3" s="39" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="E3" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F3" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="F3" s="33" t="s">
+      <c r="G3" s="33" t="s">
         <v>337</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>338</v>
       </c>
       <c r="H3" s="23"/>
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="D4" s="40" t="s">
+      <c r="E4" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="G4" s="34" t="s">
         <v>340</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>337</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>341</v>
       </c>
       <c r="H4" s="23"/>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="C5" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="D5" s="39" t="s">
         <v>344</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="E5" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F5" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="E5" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="F5" s="33" t="s">
+      <c r="G5" s="33" t="s">
         <v>346</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>347</v>
       </c>
       <c r="H5" s="23"/>
     </row>
     <row r="6">
       <c r="A6" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="D6" s="40" t="s">
+      <c r="E6" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="G6" s="34" t="s">
         <v>349</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>350</v>
       </c>
       <c r="H6" s="23"/>
     </row>
     <row r="7">
       <c r="A7" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>351</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="D7" s="39" t="s">
+      <c r="E7" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>352</v>
       </c>
-      <c r="E7" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="F7" s="33" t="s">
+      <c r="G7" s="33" t="s">
         <v>353</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>354</v>
       </c>
       <c r="H7" s="23"/>
     </row>
     <row r="8">
       <c r="A8" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="D8" s="40" t="s">
+      <c r="E8" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="G8" s="34" t="s">
         <v>356</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>353</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>357</v>
       </c>
       <c r="H8" s="23"/>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="D9" s="39" t="s">
+      <c r="E9" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F9" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="F9" s="33" t="s">
+      <c r="G9" s="33" t="s">
         <v>360</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>361</v>
       </c>
       <c r="H9" s="23"/>
     </row>
     <row r="10">
       <c r="A10" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="D10" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="D10" s="40" t="s">
+      <c r="E10" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="G10" s="34" t="s">
         <v>363</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>364</v>
       </c>
       <c r="H10" s="23"/>
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>365</v>
       </c>
-      <c r="B11" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="D11" s="39" t="s">
+      <c r="E11" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="F11" s="33" t="s">
+      <c r="G11" s="33" t="s">
         <v>367</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>368</v>
       </c>
       <c r="H11" s="23"/>
     </row>
     <row r="12">
       <c r="A12" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="D12" s="40" t="s">
         <v>369</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="D12" s="40" t="s">
+      <c r="E12" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="G12" s="34" t="s">
         <v>370</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>367</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>371</v>
       </c>
       <c r="H12" s="23"/>
     </row>
     <row r="13">
       <c r="A13" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="B13" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="C13" s="34" t="s">
         <v>373</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="D13" s="40" t="s">
         <v>374</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="E13" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="F13" s="34" t="s">
         <v>375</v>
       </c>
-      <c r="E13" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="F13" s="34" t="s">
+      <c r="G13" s="34" t="s">
         <v>376</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>377</v>
       </c>
       <c r="H13" s="23"/>
     </row>
     <row r="14">
       <c r="A14" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="D14" s="39" t="s">
         <v>378</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="D14" s="39" t="s">
+      <c r="E14" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="G14" s="33" t="s">
         <v>379</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>380</v>
       </c>
       <c r="H14" s="23"/>
     </row>
     <row r="15">
       <c r="A15" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="B15" s="34" t="s">
         <v>381</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="C15" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="D15" s="40" t="s">
         <v>383</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="E15" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="F15" s="34" t="s">
         <v>384</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="F15" s="34" t="s">
+      <c r="G15" s="34" t="s">
         <v>385</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>386</v>
       </c>
       <c r="H15" s="23"/>
     </row>
     <row r="16">
       <c r="A16" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="D16" s="39" t="s">
         <v>387</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>382</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="D16" s="39" t="s">
+      <c r="E16" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="G16" s="33" t="s">
         <v>388</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>385</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>389</v>
       </c>
       <c r="H16" s="23"/>
     </row>
     <row r="17">
       <c r="A17" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="C17" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="D17" s="39" t="s">
         <v>392</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="E17" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F17" s="33" t="s">
         <v>393</v>
       </c>
-      <c r="E17" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="F17" s="33" t="s">
+      <c r="G17" s="33" t="s">
         <v>394</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>395</v>
       </c>
       <c r="H17" s="23"/>
     </row>
     <row r="18">
       <c r="A18" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="D18" s="40" t="s">
         <v>396</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>391</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="D18" s="40" t="s">
+      <c r="E18" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="G18" s="34" t="s">
         <v>397</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>398</v>
       </c>
       <c r="H18" s="23"/>
     </row>
     <row r="19">
       <c r="A19" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="B19" s="33" t="s">
         <v>399</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="C19" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="D19" s="39" t="s">
         <v>400</v>
       </c>
-      <c r="C19" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="D19" s="39" t="s">
+      <c r="E19" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F19" s="33" t="s">
         <v>401</v>
       </c>
-      <c r="E19" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="F19" s="33" t="s">
+      <c r="G19" s="33" t="s">
         <v>402</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>403</v>
       </c>
       <c r="H19" s="23"/>
     </row>
     <row r="20">
       <c r="A20" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="D20" s="40" t="s">
         <v>404</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>400</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="D20" s="40" t="s">
+      <c r="E20" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="G20" s="34" t="s">
         <v>405</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>402</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>406</v>
       </c>
       <c r="H20" s="23"/>
     </row>
     <row r="21">
       <c r="A21" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="B21" s="33" t="s">
         <v>407</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="C21" s="33" t="s">
         <v>408</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="D21" s="39" t="s">
         <v>409</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="E21" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F21" s="33" t="s">
         <v>410</v>
       </c>
-      <c r="E21" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="F21" s="33" t="s">
+      <c r="G21" s="33" t="s">
         <v>411</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>412</v>
       </c>
       <c r="H21" s="23"/>
     </row>
     <row r="22">
       <c r="A22" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="D22" s="40" t="s">
         <v>413</v>
       </c>
-      <c r="B22" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>409</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>414</v>
-      </c>
       <c r="E22" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F22" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="G22" s="34" t="s">
         <v>411</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>412</v>
       </c>
       <c r="H22" s="23"/>
     </row>
     <row r="23">
       <c r="A23" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="C23" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="D23" s="39" t="s">
         <v>417</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="E23" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F23" s="33" t="s">
         <v>418</v>
       </c>
-      <c r="E23" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="F23" s="33" t="s">
+      <c r="G23" s="33" t="s">
         <v>419</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>420</v>
       </c>
       <c r="H23" s="23"/>
     </row>
     <row r="24">
       <c r="A24" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="D24" s="40" t="s">
         <v>421</v>
       </c>
-      <c r="B24" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>422</v>
-      </c>
       <c r="E24" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F24" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="G24" s="34" t="s">
         <v>419</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>420</v>
       </c>
       <c r="H24" s="23"/>
     </row>
     <row r="25">
       <c r="A25" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="D25" s="39" t="s">
         <v>423</v>
       </c>
-      <c r="B25" s="33" t="s">
-        <v>416</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="D25" s="39" t="s">
+      <c r="E25" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F25" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="E25" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="F25" s="33" t="s">
+      <c r="G25" s="33" t="s">
         <v>425</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>426</v>
       </c>
       <c r="H25" s="23"/>
     </row>
     <row r="26">
       <c r="A26" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="D26" s="40" t="s">
         <v>427</v>
       </c>
-      <c r="B26" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>428</v>
-      </c>
       <c r="E26" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F26" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="G26" s="34" t="s">
         <v>425</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>426</v>
       </c>
       <c r="H26" s="23"/>
     </row>
     <row r="27">
       <c r="A27" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="B27" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="C27" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="D27" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="E27" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F27" s="33" t="s">
         <v>432</v>
       </c>
-      <c r="E27" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="F27" s="33" t="s">
+      <c r="G27" s="33" t="s">
         <v>433</v>
-      </c>
-      <c r="G27" s="33" t="s">
-        <v>434</v>
       </c>
       <c r="H27" s="23"/>
     </row>
     <row r="28">
       <c r="A28" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="D28" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="B28" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>431</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>436</v>
-      </c>
       <c r="E28" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F28" s="34" t="s">
+        <v>432</v>
+      </c>
+      <c r="G28" s="34" t="s">
         <v>433</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>434</v>
       </c>
       <c r="H28" s="23"/>
     </row>
     <row r="29">
       <c r="A29" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="D29" s="39" t="s">
         <v>437</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="D29" s="39" t="s">
+      <c r="E29" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F29" s="33" t="s">
         <v>438</v>
       </c>
-      <c r="E29" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="F29" s="33" t="s">
+      <c r="G29" s="33" t="s">
         <v>439</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>440</v>
       </c>
       <c r="H29" s="23"/>
     </row>
     <row r="30">
       <c r="A30" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="D30" s="40" t="s">
         <v>441</v>
       </c>
-      <c r="B30" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>431</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>442</v>
-      </c>
       <c r="E30" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F30" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="G30" s="34" t="s">
         <v>439</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>440</v>
       </c>
       <c r="H30" s="23"/>
     </row>
     <row r="31">
       <c r="A31" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="C31" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="B31" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="C31" s="33" t="s">
+      <c r="D31" s="39" t="s">
         <v>444</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="E31" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F31" s="33" t="s">
         <v>445</v>
       </c>
-      <c r="E31" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="F31" s="33" t="s">
+      <c r="G31" s="33" t="s">
         <v>446</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>447</v>
       </c>
       <c r="H31" s="23"/>
     </row>
     <row r="32">
       <c r="A32" s="34" t="s">
+        <v>447</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="D32" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="B32" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>444</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>449</v>
-      </c>
       <c r="E32" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F32" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="G32" s="34" t="s">
         <v>446</v>
-      </c>
-      <c r="G32" s="34" t="s">
-        <v>447</v>
       </c>
       <c r="H32" s="23"/>
     </row>
     <row r="33">
       <c r="A33" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="B33" s="33" t="s">
         <v>450</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="C33" s="33" t="s">
         <v>451</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="D33" s="39" t="s">
         <v>452</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="E33" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F33" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="E33" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="F33" s="33" t="s">
+      <c r="G33" s="33" t="s">
         <v>454</v>
-      </c>
-      <c r="G33" s="33" t="s">
-        <v>455</v>
       </c>
       <c r="H33" s="23"/>
     </row>
     <row r="34">
       <c r="A34" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>450</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>451</v>
+      </c>
+      <c r="D34" s="40" t="s">
         <v>456</v>
       </c>
-      <c r="B34" s="34" t="s">
-        <v>451</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>452</v>
-      </c>
-      <c r="D34" s="40" t="s">
+      <c r="E34" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>453</v>
+      </c>
+      <c r="G34" s="34" t="s">
         <v>457</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="F34" s="34" t="s">
-        <v>454</v>
-      </c>
-      <c r="G34" s="34" t="s">
-        <v>458</v>
       </c>
       <c r="H34" s="23"/>
     </row>
     <row r="35">
       <c r="A35" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="B35" s="33" t="s">
         <v>459</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="C35" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="D35" s="39" t="s">
         <v>461</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="E35" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F35" s="33" t="s">
         <v>462</v>
       </c>
-      <c r="E35" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="F35" s="33" t="s">
+      <c r="G35" s="33" t="s">
         <v>463</v>
-      </c>
-      <c r="G35" s="33" t="s">
-        <v>464</v>
       </c>
       <c r="H35" s="23"/>
     </row>
     <row r="36">
       <c r="A36" s="34" t="s">
+        <v>464</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="D36" s="40" t="s">
         <v>465</v>
       </c>
-      <c r="B36" s="34" t="s">
-        <v>460</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="D36" s="40" t="s">
+      <c r="E36" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="G36" s="34" t="s">
         <v>466</v>
-      </c>
-      <c r="E36" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="F36" s="34" t="s">
-        <v>463</v>
-      </c>
-      <c r="G36" s="34" t="s">
-        <v>467</v>
       </c>
       <c r="H36" s="23"/>
     </row>
@@ -9247,10 +9241,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
+        <v>467</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>468</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="2">
@@ -9263,90 +9257,90 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14">
@@ -9384,16 +9378,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>480</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="D1" s="45" t="s">
         <v>482</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="2">
@@ -9404,486 +9398,486 @@
         <v>133</v>
       </c>
       <c r="C2" s="44" t="s">
+        <v>483</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>484</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>485</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>487</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B4" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="14" t="s">
         <v>490</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B5" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>493</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="40" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>495</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>497</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>499</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="39" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C9" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>501</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="40" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>503</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="39" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>505</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="40" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>507</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="40" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B13" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>509</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="D13" s="14" t="s">
         <v>510</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C14" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>512</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="40" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>514</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>516</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B17" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="D17" s="14" t="s">
         <v>519</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C18" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>521</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="39" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B19" s="33" t="s">
+        <v>522</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="D19" s="14" t="s">
         <v>524</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="40" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C20" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>526</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="39" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B21" s="33" t="s">
+        <v>527</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="D21" s="14" t="s">
         <v>529</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="40" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C22" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>531</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="39" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B23" s="33" t="s">
+        <v>532</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="D23" s="14" t="s">
         <v>534</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="40" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C24" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>536</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="39" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C25" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>538</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C26" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>540</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="39" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B27" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="D27" s="14" t="s">
         <v>543</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="40" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C28" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>545</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C29" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>547</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="40" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C30" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>549</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="39" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C31" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>551</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C32" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>553</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="39" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B33" s="33" t="s">
+        <v>554</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>555</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="D33" s="14" t="s">
         <v>556</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="40" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C34" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>558</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="39" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B35" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="D35" s="14" t="s">
         <v>561</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="40" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C36" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>563</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -9908,13 +9902,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="44" t="s">
+        <v>564</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="22" t="s">
         <v>566</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="2">
@@ -9925,15 +9919,15 @@
         <v>133</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C3" s="46">
         <v>42644.0</v>
@@ -9941,10 +9935,10 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C4" s="47">
         <v>42644.0</v>
@@ -9952,10 +9946,10 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C5" s="46">
         <v>40940.0</v>
@@ -9963,10 +9957,10 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C6" s="47">
         <v>40940.0</v>
@@ -9974,10 +9968,10 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C7" s="39">
         <v>2018.0</v>
@@ -9985,10 +9979,10 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C8" s="40">
         <v>2018.0</v>
@@ -9996,10 +9990,10 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C9" s="46">
         <v>43525.0</v>
@@ -10007,10 +10001,10 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C10" s="47">
         <v>43525.0</v>
@@ -10018,10 +10012,10 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C11" s="46">
         <v>43983.0</v>
@@ -10029,10 +10023,10 @@
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C12" s="47">
         <v>43983.0</v>
@@ -10040,10 +10034,10 @@
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C13" s="47">
         <v>43983.0</v>
@@ -10051,10 +10045,10 @@
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C14" s="46">
         <v>43983.0</v>
@@ -10062,10 +10056,10 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C15" s="47">
         <v>43983.0</v>
@@ -10073,10 +10067,10 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C16" s="46">
         <v>43983.0</v>
@@ -10084,10 +10078,10 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C17" s="39">
         <v>2016.0</v>
@@ -10095,10 +10089,10 @@
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C18" s="40">
         <v>2016.0</v>
@@ -10106,10 +10100,10 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C19" s="48">
         <v>44136.0</v>
@@ -10117,10 +10111,10 @@
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C20" s="49">
         <v>44136.0</v>
@@ -10128,10 +10122,10 @@
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C21" s="46">
         <v>43983.0</v>
@@ -10139,10 +10133,10 @@
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C22" s="47">
         <v>43983.0</v>
@@ -10150,10 +10144,10 @@
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C23" s="46">
         <v>43009.0</v>
@@ -10161,10 +10155,10 @@
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C24" s="47">
         <v>43009.0</v>
@@ -10172,10 +10166,10 @@
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C25" s="46">
         <v>43983.0</v>
@@ -10183,10 +10177,10 @@
     </row>
     <row r="26">
       <c r="A26" s="14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C26" s="47">
         <v>43983.0</v>
@@ -10194,10 +10188,10 @@
     </row>
     <row r="27">
       <c r="A27" s="14" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C27" s="46">
         <v>35796.0</v>
@@ -10205,10 +10199,10 @@
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C28" s="47">
         <v>35796.0</v>
@@ -10216,10 +10210,10 @@
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C29" s="46">
         <v>42736.0</v>
@@ -10227,10 +10221,10 @@
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C30" s="47">
         <v>42736.0</v>
@@ -10238,10 +10232,10 @@
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C31" s="46">
         <v>43831.0</v>
@@ -10249,10 +10243,10 @@
     </row>
     <row r="32">
       <c r="A32" s="14" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C32" s="47">
         <v>43831.0</v>
@@ -10260,10 +10254,10 @@
     </row>
     <row r="33">
       <c r="A33" s="14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C33" s="48">
         <v>20751.0</v>
@@ -10271,10 +10265,10 @@
     </row>
     <row r="34">
       <c r="A34" s="14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C34" s="47">
         <v>20751.0</v>
@@ -10282,10 +10276,10 @@
     </row>
     <row r="35">
       <c r="A35" s="14" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C35" s="46">
         <v>41153.0</v>
@@ -10293,10 +10287,10 @@
     </row>
     <row r="36">
       <c r="A36" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C36" s="47">
         <v>41153.0</v>
@@ -10304,10 +10298,10 @@
     </row>
     <row r="37">
       <c r="A37" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C37" s="46">
         <v>42654.0</v>
@@ -10315,10 +10309,10 @@
     </row>
     <row r="38">
       <c r="A38" s="14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C38" s="47">
         <v>42644.0</v>
@@ -10326,10 +10320,10 @@
     </row>
     <row r="39">
       <c r="A39" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C39" s="46">
         <v>40940.0</v>
@@ -10337,10 +10331,10 @@
     </row>
     <row r="40">
       <c r="A40" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C40" s="47">
         <v>40940.0</v>
@@ -10348,10 +10342,10 @@
     </row>
     <row r="41">
       <c r="A41" s="14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C41" s="39">
         <v>2018.0</v>
@@ -10359,10 +10353,10 @@
     </row>
     <row r="42">
       <c r="A42" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C42" s="40">
         <v>2018.0</v>
@@ -10370,10 +10364,10 @@
     </row>
     <row r="43">
       <c r="A43" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C43" s="46">
         <v>43525.0</v>
@@ -10381,10 +10375,10 @@
     </row>
     <row r="44">
       <c r="A44" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C44" s="47">
         <v>43525.0</v>
@@ -10392,10 +10386,10 @@
     </row>
     <row r="45">
       <c r="A45" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C45" s="46">
         <v>43983.0</v>
@@ -10403,10 +10397,10 @@
     </row>
     <row r="46">
       <c r="A46" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C46" s="47">
         <v>43983.0</v>
@@ -10414,10 +10408,10 @@
     </row>
     <row r="47">
       <c r="A47" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C47" s="47">
         <v>43983.0</v>
@@ -10425,10 +10419,10 @@
     </row>
     <row r="48">
       <c r="A48" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C48" s="46">
         <v>43983.0</v>
@@ -10436,10 +10430,10 @@
     </row>
     <row r="49">
       <c r="A49" s="14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C49" s="47">
         <v>44075.0</v>
@@ -10447,10 +10441,10 @@
     </row>
     <row r="50">
       <c r="A50" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C50" s="46">
         <v>44075.0</v>
@@ -10458,10 +10452,10 @@
     </row>
     <row r="51">
       <c r="A51" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C51" s="39">
         <v>2016.0</v>
@@ -10469,10 +10463,10 @@
     </row>
     <row r="52">
       <c r="A52" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C52" s="40">
         <v>2016.0</v>
@@ -10480,10 +10474,10 @@
     </row>
     <row r="53">
       <c r="A53" s="14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C53" s="48">
         <v>44136.0</v>
@@ -10491,10 +10485,10 @@
     </row>
     <row r="54">
       <c r="A54" s="14" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C54" s="49">
         <v>44136.0</v>
@@ -10502,10 +10496,10 @@
     </row>
     <row r="55">
       <c r="A55" s="14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C55" s="46">
         <v>43983.0</v>
@@ -10513,10 +10507,10 @@
     </row>
     <row r="56">
       <c r="A56" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C56" s="47">
         <v>43983.0</v>
@@ -10524,10 +10518,10 @@
     </row>
     <row r="57">
       <c r="A57" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C57" s="48">
         <v>43039.0</v>
@@ -10535,10 +10529,10 @@
     </row>
     <row r="58">
       <c r="A58" s="14" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C58" s="47">
         <v>43039.0</v>
@@ -10546,10 +10540,10 @@
     </row>
     <row r="59">
       <c r="A59" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C59" s="46">
         <v>43983.0</v>
@@ -10557,10 +10551,10 @@
     </row>
     <row r="60">
       <c r="A60" s="14" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C60" s="47">
         <v>44012.0</v>
@@ -10568,10 +10562,10 @@
     </row>
     <row r="61">
       <c r="A61" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C61" s="48">
         <v>36160.0</v>
@@ -10579,10 +10573,10 @@
     </row>
     <row r="62">
       <c r="A62" s="14" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C62" s="49">
         <v>36160.0</v>
@@ -10590,10 +10584,10 @@
     </row>
     <row r="63">
       <c r="A63" s="14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C63" s="48">
         <v>43100.0</v>
@@ -10601,10 +10595,10 @@
     </row>
     <row r="64">
       <c r="A64" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C64" s="47">
         <v>43100.0</v>
@@ -10612,10 +10606,10 @@
     </row>
     <row r="65">
       <c r="A65" s="14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C65" s="48">
         <v>44196.0</v>
@@ -10623,10 +10617,10 @@
     </row>
     <row r="66">
       <c r="A66" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C66" s="49">
         <v>44196.0</v>
@@ -10634,10 +10628,10 @@
     </row>
     <row r="67">
       <c r="A67" s="14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C67" s="48">
         <v>20729.0</v>
@@ -10645,10 +10639,10 @@
     </row>
     <row r="68">
       <c r="A68" s="14" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C68" s="49">
         <v>20729.0</v>
@@ -10656,10 +10650,10 @@
     </row>
     <row r="69">
       <c r="A69" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C69" s="48">
         <v>41183.0</v>
@@ -10667,10 +10661,10 @@
     </row>
     <row r="70">
       <c r="A70" s="14" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C70" s="49">
         <v>41183.0</v>
@@ -10700,16 +10694,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="50" t="s">
         <v>572</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="D1" s="6" t="s">
         <v>573</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>574</v>
       </c>
       <c r="E1" s="23"/>
     </row>
@@ -10721,310 +10715,310 @@
         <v>133</v>
       </c>
       <c r="C2" s="50" t="s">
+        <v>574</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>576</v>
       </c>
       <c r="E2" s="23"/>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
+        <v>576</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>577</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="33" t="s">
         <v>578</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="D3" s="33" t="s">
         <v>579</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>580</v>
       </c>
       <c r="E3" s="23"/>
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
+        <v>580</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>581</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="C4" s="34" t="s">
+        <v>578</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>582</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>579</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>583</v>
       </c>
       <c r="E4" s="23"/>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
+        <v>583</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="C5" s="33" t="s">
         <v>585</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="D5" s="33" t="s">
         <v>586</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>587</v>
       </c>
       <c r="E5" s="23"/>
     </row>
     <row r="6">
       <c r="A6" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>588</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="C6" s="34" t="s">
+        <v>585</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>589</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>586</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>590</v>
       </c>
       <c r="E6" s="23"/>
     </row>
     <row r="7">
       <c r="A7" s="34" t="s">
+        <v>590</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>591</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="C7" s="34" t="s">
         <v>592</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="D7" s="34" t="s">
         <v>593</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>594</v>
       </c>
       <c r="E7" s="23"/>
     </row>
     <row r="8">
       <c r="A8" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>595</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="C8" s="33" t="s">
         <v>596</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="D8" s="33" t="s">
         <v>597</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>598</v>
       </c>
       <c r="E8" s="23"/>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
+        <v>598</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>599</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="C9" s="33" t="s">
         <v>600</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="D9" s="33" t="s">
         <v>601</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>602</v>
       </c>
       <c r="E9" s="23"/>
     </row>
     <row r="10">
       <c r="A10" s="34" t="s">
+        <v>602</v>
+      </c>
+      <c r="B10" s="51" t="s">
         <v>603</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="C10" s="34" t="s">
         <v>604</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="D10" s="34" t="s">
         <v>605</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>606</v>
       </c>
       <c r="E10" s="23"/>
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
+        <v>606</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>607</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="C11" s="33" t="s">
         <v>608</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="D11" s="33" t="s">
         <v>609</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>610</v>
       </c>
       <c r="E11" s="23"/>
     </row>
     <row r="12">
       <c r="A12" s="34" t="s">
+        <v>610</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>611</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="C12" s="34" t="s">
+        <v>608</v>
+      </c>
+      <c r="D12" s="34" t="s">
         <v>612</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>609</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>613</v>
       </c>
       <c r="E12" s="23"/>
     </row>
     <row r="13">
       <c r="A13" s="33" t="s">
+        <v>613</v>
+      </c>
+      <c r="B13" s="33" t="s">
         <v>614</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="C13" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>616</v>
-      </c>
       <c r="D13" s="33" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E13" s="23"/>
     </row>
     <row r="14">
       <c r="A14" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>617</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="C14" s="34" t="s">
+        <v>615</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>618</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>616</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>619</v>
       </c>
       <c r="E14" s="23"/>
     </row>
     <row r="15">
       <c r="A15" s="33" t="s">
+        <v>619</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>620</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="C15" s="33" t="s">
         <v>621</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="D15" s="33" t="s">
         <v>622</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>623</v>
       </c>
       <c r="E15" s="23"/>
     </row>
     <row r="16">
       <c r="A16" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="B16" s="34" t="s">
         <v>624</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="C16" s="34" t="s">
+        <v>621</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>625</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>622</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>626</v>
       </c>
       <c r="E16" s="23"/>
     </row>
     <row r="17">
       <c r="A17" s="33" t="s">
+        <v>626</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>627</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="C17" s="33" t="s">
         <v>628</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>629</v>
-      </c>
       <c r="D17" s="33" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E17" s="23"/>
     </row>
     <row r="18">
       <c r="A18" s="34" t="s">
+        <v>629</v>
+      </c>
+      <c r="B18" s="34" t="s">
         <v>630</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>631</v>
-      </c>
       <c r="C18" s="34" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E18" s="23"/>
     </row>
     <row r="19">
       <c r="A19" s="34" t="s">
+        <v>631</v>
+      </c>
+      <c r="B19" s="34" t="s">
         <v>632</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="C19" s="34" t="s">
         <v>633</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="D19" s="34" t="s">
         <v>634</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>635</v>
       </c>
       <c r="E19" s="23"/>
     </row>
     <row r="20">
       <c r="A20" s="33" t="s">
+        <v>635</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>636</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="C20" s="33" t="s">
+        <v>633</v>
+      </c>
+      <c r="D20" s="33" t="s">
         <v>637</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>634</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>638</v>
       </c>
       <c r="E20" s="23"/>
     </row>
     <row r="21">
       <c r="A21" s="34" t="s">
+        <v>638</v>
+      </c>
+      <c r="B21" s="34" t="s">
         <v>639</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="C21" s="34" t="s">
         <v>640</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="D21" s="34" t="s">
         <v>641</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>642</v>
       </c>
       <c r="E21" s="23"/>
     </row>
     <row r="22">
       <c r="A22" s="33" t="s">
+        <v>642</v>
+      </c>
+      <c r="B22" s="33" t="s">
         <v>643</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="C22" s="33" t="s">
+        <v>640</v>
+      </c>
+      <c r="D22" s="33" t="s">
         <v>644</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>641</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>645</v>
       </c>
       <c r="E22" s="23"/>
     </row>
@@ -13997,10 +13991,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C1" s="50" t="s">
         <v>646</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="2">
@@ -14011,7 +14005,7 @@
         <v>133</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="3">
@@ -14019,10 +14013,10 @@
         <v>28</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>649</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="4">
@@ -14030,10 +14024,10 @@
         <v>38</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>651</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="5">
@@ -14041,10 +14035,10 @@
         <v>50</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>653</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="6">
@@ -14052,10 +14046,10 @@
         <v>59</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>655</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="7">
@@ -14063,10 +14057,10 @@
         <v>68</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>657</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="8">
@@ -14074,10 +14068,10 @@
         <v>80</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>659</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="9">
@@ -14085,10 +14079,10 @@
         <v>91</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>661</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="10">
@@ -14096,10 +14090,10 @@
         <v>102</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>663</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="11">
@@ -14107,10 +14101,10 @@
         <v>113</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>665</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="12">
@@ -14118,10 +14112,10 @@
         <v>123</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>667</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="13">
@@ -14149,10 +14143,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>669</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>670</v>
       </c>
       <c r="C1" s="52"/>
     </row>
@@ -14167,19 +14161,19 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>671</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>672</v>
       </c>
       <c r="C3" s="53"/>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>673</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>674</v>
       </c>
       <c r="C4" s="53"/>
     </row>
@@ -14188,7 +14182,7 @@
         <v>138</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C5" s="53"/>
     </row>
@@ -14197,25 +14191,25 @@
         <v>144</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C6" s="23"/>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>677</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>678</v>
       </c>
       <c r="C7" s="53"/>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
+        <v>678</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>679</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>680</v>
       </c>
       <c r="C8" s="53"/>
     </row>
@@ -14224,7 +14218,7 @@
         <v>150</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C9" s="53"/>
     </row>
@@ -14233,7 +14227,7 @@
         <v>153</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C10" s="53"/>
     </row>
@@ -14242,52 +14236,52 @@
         <v>156</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C11" s="53"/>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
+        <v>683</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>684</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>685</v>
       </c>
       <c r="C12" s="53"/>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>686</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>687</v>
       </c>
       <c r="C13" s="53"/>
     </row>
     <row r="14">
       <c r="A14" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>688</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>689</v>
       </c>
       <c r="C14" s="53"/>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C15" s="53"/>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C16" s="53"/>
     </row>
@@ -17289,10 +17283,10 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2">
@@ -17303,7 +17297,7 @@
         <v>133</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3">
@@ -17311,7 +17305,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>137</v>
@@ -17322,7 +17316,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>140</v>
@@ -17333,7 +17327,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>143</v>
@@ -17344,7 +17338,7 @@
         <v>64</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>146</v>
@@ -17355,7 +17349,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>149</v>
@@ -17366,7 +17360,7 @@
         <v>85</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>152</v>
@@ -17374,10 +17368,10 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>700</v>
+        <v>97</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>155</v>
@@ -17388,7 +17382,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>158</v>
@@ -17399,10 +17393,10 @@
         <v>119</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12">
@@ -17410,10 +17404,10 @@
         <v>127</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -17441,22 +17435,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>705</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="35" t="s">
         <v>706</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="F1" s="50" t="s">
         <v>708</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="2">
@@ -17467,715 +17461,715 @@
         <v>133</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>710</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>711</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="F2" s="50" t="s">
         <v>712</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>713</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>714</v>
       </c>
       <c r="G2" s="55"/>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>713</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>714</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>576</v>
+      </c>
+      <c r="F3" s="33" t="s">
         <v>715</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>580</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>716</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>717</v>
       </c>
       <c r="G3" s="55"/>
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>137</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="G4" s="56"/>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>140</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G5" s="55"/>
     </row>
     <row r="6">
       <c r="A6" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>140</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G6" s="56"/>
     </row>
     <row r="7">
       <c r="A7" s="33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>140</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G7" s="55"/>
     </row>
     <row r="8">
       <c r="A8" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D8" s="34" t="s">
         <v>140</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G8" s="56"/>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>140</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G9" s="55"/>
     </row>
     <row r="10">
       <c r="A10" s="34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>140</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G10" s="56"/>
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>140</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G11" s="55"/>
     </row>
     <row r="12">
       <c r="A12" s="34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>140</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G12" s="56"/>
     </row>
     <row r="13">
       <c r="A13" s="34" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B13" s="34" t="s">
+        <v>728</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>729</v>
+      </c>
+      <c r="D13" s="34" t="s">
         <v>730</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="E13" s="34" t="s">
+        <v>590</v>
+      </c>
+      <c r="F13" s="34" t="s">
         <v>731</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>732</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>591</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>733</v>
       </c>
       <c r="G13" s="56"/>
     </row>
     <row r="14">
       <c r="A14" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B14" s="33" t="s">
+        <v>732</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>733</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="F14" s="33" t="s">
         <v>734</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>580</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>735</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>595</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>736</v>
       </c>
       <c r="G14" s="55"/>
     </row>
     <row r="15">
       <c r="A15" s="34" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C15" s="34" t="s">
+        <v>729</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>730</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>590</v>
+      </c>
+      <c r="F15" s="34" t="s">
         <v>731</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>732</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>591</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>733</v>
       </c>
       <c r="G15" s="56"/>
     </row>
     <row r="16">
       <c r="A16" s="33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G16" s="55"/>
     </row>
     <row r="17">
       <c r="A17" s="33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>146</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G17" s="55"/>
     </row>
     <row r="18">
       <c r="A18" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>146</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G18" s="56"/>
     </row>
     <row r="19">
       <c r="A19" s="33" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D19" s="33" t="s">
         <v>149</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D20" s="34" t="s">
         <v>149</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G20" s="56"/>
     </row>
     <row r="21">
       <c r="A21" s="33" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D21" s="33" t="s">
         <v>152</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="34" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D22" s="34" t="s">
         <v>152</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>155</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D24" s="34" t="s">
         <v>155</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="33" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>155</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="34" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D26" s="34" t="s">
         <v>155</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="33" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B27" s="33" t="s">
+        <v>756</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>757</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>626</v>
+      </c>
+      <c r="F27" s="33" t="s">
         <v>758</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>580</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>759</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>627</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="34" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="33" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="34" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="33" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="34" t="s">
+        <v>766</v>
+      </c>
+      <c r="B32" s="58" t="s">
+        <v>767</v>
+      </c>
+      <c r="C32" s="34" t="s">
         <v>768</v>
       </c>
-      <c r="B32" s="58" t="s">
-        <v>769</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>770</v>
-      </c>
       <c r="D32" s="34" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G32" s="56"/>
     </row>
     <row r="33">
       <c r="A33" s="33" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="34" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="33" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B35" s="33" t="s">
+        <v>773</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>644</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>774</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>642</v>
+      </c>
+      <c r="F35" s="33" t="s">
         <v>775</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>645</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>776</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>643</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -18352,16 +18346,16 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>162</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>163</v>
       </c>
       <c r="E11" s="23"/>
     </row>
@@ -18370,13 +18364,13 @@
         <v>124</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="D12" s="16" t="s">
         <v>165</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>166</v>
       </c>
       <c r="E12" s="23"/>
     </row>
@@ -21369,13 +21363,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D1" s="59"/>
       <c r="E1" s="59"/>
@@ -21396,29 +21390,29 @@
         <v>133</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -21433,24 +21427,24 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -21465,24 +21459,24 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -21497,24 +21491,24 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -21529,24 +21523,24 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="60" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D12" s="61"/>
       <c r="E12" s="61"/>
@@ -21561,24 +21555,24 @@
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="60" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D14" s="61"/>
       <c r="E14" s="61"/>
@@ -21593,24 +21587,24 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="60" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D16" s="61"/>
       <c r="E16" s="61"/>
@@ -21625,24 +21619,24 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="60" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D18" s="61"/>
       <c r="E18" s="61"/>
@@ -21657,13 +21651,13 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
@@ -21688,13 +21682,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>809</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>811</v>
       </c>
       <c r="D1" s="62"/>
     </row>
@@ -21706,127 +21700,127 @@
         <v>133</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D2" s="62"/>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D3" s="62"/>
     </row>
     <row r="4">
       <c r="A4" s="33" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D4" s="62"/>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D5" s="62"/>
     </row>
     <row r="6">
       <c r="A6" s="33" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D6" s="62"/>
     </row>
     <row r="7">
       <c r="A7" s="33" t="s">
+        <v>819</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>820</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>821</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>822</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>823</v>
       </c>
       <c r="D7" s="62"/>
     </row>
     <row r="8">
       <c r="A8" s="33" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D8" s="62"/>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D9" s="62"/>
     </row>
     <row r="10">
       <c r="A10" s="33" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D10" s="62"/>
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D11" s="62"/>
     </row>
     <row r="12">
       <c r="A12" s="33" t="s">
+        <v>830</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>831</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>832</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>833</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>834</v>
       </c>
       <c r="D12" s="62"/>
     </row>
@@ -21852,13 +21846,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="27" t="s">
+        <v>807</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>808</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>809</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>810</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="2">
@@ -21869,126 +21863,126 @@
         <v>133</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="63" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D3" s="65"/>
     </row>
     <row r="4">
       <c r="A4" s="63" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D4" s="65"/>
     </row>
     <row r="5">
       <c r="A5" s="63" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D5" s="65"/>
     </row>
     <row r="6">
       <c r="A6" s="63" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D6" s="65"/>
     </row>
     <row r="7">
       <c r="A7" s="63" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D7" s="65"/>
     </row>
     <row r="8">
       <c r="A8" s="63" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D8" s="65"/>
     </row>
     <row r="9">
       <c r="A9" s="63" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D9" s="65"/>
     </row>
     <row r="10">
       <c r="A10" s="63" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D10" s="65"/>
     </row>
     <row r="11">
       <c r="A11" s="63" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D11" s="65"/>
     </row>
     <row r="12">
       <c r="A12" s="63" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D12" s="65"/>
     </row>
@@ -22014,13 +22008,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="2">
@@ -22031,117 +22025,117 @@
         <v>133</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
+        <v>847</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>848</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>849</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>850</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>853</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>854</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>855</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
+        <v>855</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>856</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>857</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>858</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
+        <v>860</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>861</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>862</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>863</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>
@@ -22166,13 +22160,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="2">
@@ -22183,117 +22177,117 @@
         <v>133</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
   </sheetData>
@@ -22317,10 +22311,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="2">
@@ -22333,10 +22327,10 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
   </sheetData>
@@ -22360,10 +22354,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="2">
@@ -22376,10 +22370,10 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
   </sheetData>
@@ -22403,10 +22397,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="2">
@@ -22419,10 +22413,10 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -22449,7 +22443,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2">
@@ -22465,7 +22459,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4">
@@ -22473,7 +22467,7 @@
         <v>40</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5">
@@ -22481,7 +22475,7 @@
         <v>52</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6">
@@ -22489,7 +22483,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7">
@@ -22497,7 +22491,7 @@
         <v>70</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8">
@@ -22505,7 +22499,7 @@
         <v>82</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
@@ -22513,7 +22507,7 @@
         <v>93</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
@@ -22521,7 +22515,7 @@
         <v>104</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11">
@@ -22529,7 +22523,7 @@
         <v>115</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12">
@@ -22537,7 +22531,7 @@
         <v>125</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -22561,10 +22555,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2">
@@ -22580,7 +22574,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4">
@@ -22588,7 +22582,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5">
@@ -22596,7 +22590,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6">
@@ -22604,7 +22598,7 @@
         <v>83</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7">
@@ -22612,7 +22606,7 @@
         <v>94</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8">
@@ -22620,7 +22614,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9">
@@ -22628,7 +22622,7 @@
         <v>116</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -22652,10 +22646,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>187</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="2">
@@ -22671,7 +22665,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4">
@@ -22679,7 +22673,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5">
@@ -22687,7 +22681,7 @@
         <v>75</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6">
@@ -22695,7 +22689,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7">
@@ -22703,7 +22697,7 @@
         <v>86</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8">
@@ -22711,7 +22705,7 @@
         <v>98</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -22738,7 +22732,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2">
@@ -22754,7 +22748,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
@@ -22762,7 +22756,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5">
@@ -22770,39 +22764,39 @@
         <v>62</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>199</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>203</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>205</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="10">
@@ -22810,7 +22804,7 @@
         <v>106</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11">
@@ -22818,7 +22812,7 @@
         <v>117</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -22842,10 +22836,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2">
@@ -22858,18 +22852,18 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>213</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>214</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -22898,18 +22892,18 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>215</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>217</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>218</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -22938,18 +22932,18 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>219</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>221</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>222</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -22978,18 +22972,18 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>223</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>225</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>226</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -23018,18 +23012,18 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>227</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>229</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>230</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -23083,7 +23077,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2">
@@ -23096,82 +23090,82 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>232</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>234</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>236</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>238</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>240</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>242</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>244</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>246</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>248</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>250</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="13">
@@ -23179,79 +23173,79 @@
         <v>107</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>253</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>255</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>257</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>259</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>261</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>263</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>265</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>267</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>269</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -23275,10 +23269,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="2">
@@ -23291,18 +23285,18 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>273</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>275</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="5">
@@ -23310,7 +23304,7 @@
         <v>137</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6">
@@ -23318,151 +23312,151 @@
         <v>140</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>279</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>281</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>283</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>285</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>287</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>289</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>291</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>293</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>295</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>297</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>299</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>301</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>303</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>305</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>307</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>309</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>311</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>313</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -39,13 +39,13 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
-    <author>tc={34530902-9918-47f9-8b0c-e44fd5791f3b}</author>
-    <author>tc={41b218cd-cad1-4c6f-8b89-f50757480331}</author>
-    <author>tc={4bd25ce3-aed4-4921-86c9-6968f6e5c7dd}</author>
-    <author>tc={93be6ce5-a062-4590-a459-742891c60a7b}</author>
+    <author>tc={2045c75f-9642-4c8e-8c81-7ff201d63927}</author>
+    <author>tc={3a48c7a3-7fb6-4f97-b934-e85cbf1dd496}</author>
+    <author>tc={6623208d-7164-46fb-8c16-32626a70e8f2}</author>
+    <author>tc={91c9b4c9-c628-4bd0-bb13-d786e609b40c}</author>
   </authors>
   <commentList>
-    <comment authorId="0" xr:uid="{34530902-9918-47f9-8b0c-e44fd5791f3b}" ref="A8">
+    <comment authorId="0" xr:uid="{2045c75f-9642-4c8e-8c81-7ff201d63927}" ref="A7">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +54,7 @@
 </t>
       </text>
     </comment>
-    <comment authorId="1" xr:uid="{41b218cd-cad1-4c6f-8b89-f50757480331}" ref="A9">
+    <comment authorId="1" xr:uid="{3a48c7a3-7fb6-4f97-b934-e85cbf1dd496}" ref="A7">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +63,7 @@
 </t>
       </text>
     </comment>
-    <comment authorId="2" xr:uid="{4bd25ce3-aed4-4921-86c9-6968f6e5c7dd}" ref="A7">
+    <comment authorId="2" xr:uid="{6623208d-7164-46fb-8c16-32626a70e8f2}" ref="A8">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -72,7 +72,7 @@
 </t>
       </text>
     </comment>
-    <comment authorId="3" xr:uid="{93be6ce5-a062-4590-a459-742891c60a7b}" ref="A7">
+    <comment authorId="3" xr:uid="{91c9b4c9-c628-4bd0-bb13-d786e609b40c}" ref="A9">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -88,11 +88,11 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
-    <author>tc={a1e4ab6c-93b5-44aa-87e7-9770b400bc28}</author>
-    <author>tc={cce248e6-3f72-4ce6-8f1c-8c4087e61e77}</author>
+    <author>tc={bd7b79cd-2505-4c21-9535-f5d4c54c1414}</author>
+    <author>tc={ce1036b0-1f79-413f-a205-01f4bf8f5683}</author>
   </authors>
   <commentList>
-    <comment authorId="0" xr:uid="{a1e4ab6c-93b5-44aa-87e7-9770b400bc28}" ref="B1">
+    <comment authorId="0" xr:uid="{bd7b79cd-2505-4c21-9535-f5d4c54c1414}" ref="B1">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -101,7 +101,7 @@
 </t>
       </text>
     </comment>
-    <comment authorId="1" xr:uid="{cce248e6-3f72-4ce6-8f1c-8c4087e61e77}" ref="C1">
+    <comment authorId="1" xr:uid="{ce1036b0-1f79-413f-a205-01f4bf8f5683}" ref="C1">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -117,10 +117,10 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
-    <author>tc={c49b9245-6779-4fe6-937a-d581c7663cd0}</author>
+    <author>tc={38c9b906-7d21-482a-9ef3-6360b58b3760}</author>
   </authors>
   <commentList>
-    <comment authorId="0" xr:uid="{c49b9245-6779-4fe6-937a-d581c7663cd0}" ref="B1">
+    <comment authorId="0" xr:uid="{38c9b906-7d21-482a-9ef3-6360b58b3760}" ref="B1">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -211,7 +211,7 @@
     <t>ceon-material:Material</t>
   </si>
   <si>
-    <t>crm:E26</t>
+    <t>crm:P56</t>
   </si>
   <si>
     <t>mon_colombo</t>
@@ -3548,8 +3548,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments">
-  <x18tc:person displayName="Anna Pasetto" id="{2f80c5f6-c89b-4481-9311-9204502e4129}" providerId="google-sheets"/>
-  <x18tc:person displayName="Alice P" id="{096a2b54-a29b-43a1-a6dc-1cc01a103900}" providerId="google-sheets"/>
+  <x18tc:person displayName="Anna Pasetto" id="{1cb186a7-a66b-44ae-8db5-4d83af8d4148}" providerId="google-sheets"/>
+  <x18tc:person displayName="Alice P" id="{79450d04-4ae6-4a7c-99b2-f213b3efdf72}" providerId="google-sheets"/>
 </x18tc:personList>
 </file>
 
@@ -3749,16 +3749,16 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:ThreadedComments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <x18tc:threadedComment ref="A7" dT="2026-01-09T08:51:03.00" personId="{096a2b54-a29b-43a1-a6dc-1cc01a103900}" id="{4bd25ce3-aed4-4921-86c9-6968f6e5c7dd}" done="1">
+  <x18tc:threadedComment ref="A7" dT="2026-01-09T08:51:03.00" personId="{79450d04-4ae6-4a7c-99b2-f213b3efdf72}" id="{3a48c7a3-7fb6-4f97-b934-e85cbf1dd496}" done="1">
     <x18tc:text xml:space="preserve">Colbert</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="A8" dT="2026-01-09T08:51:13.00" personId="{096a2b54-a29b-43a1-a6dc-1cc01a103900}" id="{34530902-9918-47f9-8b0c-e44fd5791f3b}" done="1">
+  <x18tc:threadedComment ref="A8" dT="2026-01-09T08:51:13.00" personId="{79450d04-4ae6-4a7c-99b2-f213b3efdf72}" id="{6623208d-7164-46fb-8c16-32626a70e8f2}" done="1">
     <x18tc:text xml:space="preserve">Colbert</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="A7" dT="2026-01-09T08:50:29.00" personId="{096a2b54-a29b-43a1-a6dc-1cc01a103900}" id="{93be6ce5-a062-4590-a459-742891c60a7b}" done="1">
+  <x18tc:threadedComment ref="A7" dT="2026-01-09T08:50:29.00" personId="{79450d04-4ae6-4a7c-99b2-f213b3efdf72}" id="{2045c75f-9642-4c8e-8c81-7ff201d63927}" done="1">
     <x18tc:text xml:space="preserve">Colbert</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="A9" dT="2026-01-09T08:51:21.00" personId="{096a2b54-a29b-43a1-a6dc-1cc01a103900}" id="{41b218cd-cad1-4c6f-8b89-f50757480331}" done="1">
+  <x18tc:threadedComment ref="A9" dT="2026-01-09T08:51:21.00" personId="{79450d04-4ae6-4a7c-99b2-f213b3efdf72}" id="{91c9b4c9-c628-4bd0-bb13-d786e609b40c}" done="1">
     <x18tc:text xml:space="preserve">Colbert</x18tc:text>
   </x18tc:threadedComment>
 </x18tc:ThreadedComments>
@@ -3766,10 +3766,10 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:ThreadedComments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <x18tc:threadedComment ref="B1" dT="2026-01-12T13:59:21.00" personId="{2f80c5f6-c89b-4481-9311-9204502e4129}" id="{a1e4ab6c-93b5-44aa-87e7-9770b400bc28}" done="1">
+  <x18tc:threadedComment ref="B1" dT="2026-01-12T13:59:21.00" personId="{1cb186a7-a66b-44ae-8db5-4d83af8d4148}" id="{bd7b79cd-2505-4c21-9535-f5d4c54c1414}" done="1">
     <x18tc:text xml:space="preserve">inserire nei pro removal il fatto che le statue non tengono in considerazione le vittime o le azioni e che sarebbe bello venissero menzionate</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="C1" dT="2026-01-12T13:45:34.00" personId="{2f80c5f6-c89b-4481-9311-9204502e4129}" id="{cce248e6-3f72-4ce6-8f1c-8c4087e61e77}" done="1">
+  <x18tc:threadedComment ref="C1" dT="2026-01-12T13:45:34.00" personId="{1cb186a7-a66b-44ae-8db5-4d83af8d4148}" id="{ce1036b0-1f79-413f-a205-01f4bf8f5683}" done="1">
     <x18tc:text xml:space="preserve">mettiamo sempre sia i controversial fact che la legacy che gli heritage concept</x18tc:text>
   </x18tc:threadedComment>
 </x18tc:ThreadedComments>
@@ -3777,7 +3777,7 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:ThreadedComments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <x18tc:threadedComment ref="B1" dT="2026-01-12T14:20:36.00" personId="{2f80c5f6-c89b-4481-9311-9204502e4129}" id="{c49b9245-6779-4fe6-937a-d581c7663cd0}" done="1">
+  <x18tc:threadedComment ref="B1" dT="2026-01-12T14:20:36.00" personId="{1cb186a7-a66b-44ae-8db5-4d83af8d4148}" id="{38c9b906-7d21-482a-9ef3-6360b58b3760}" done="1">
     <x18tc:text xml:space="preserve">mettere i dati veri quando ci sono e quando non ci sono usare i nomi degli scenari</x18tc:text>
   </x18tc:threadedComment>
 </x18tc:ThreadedComments>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -9,27 +9,28 @@
     <sheet state="visible" name="actor" sheetId="4" r:id="rId8"/>
     <sheet state="visible" name="contextualMaterial" sheetId="5" r:id="rId9"/>
     <sheet state="visible" name="governmentOrganization" sheetId="6" r:id="rId10"/>
-    <sheet state="visible" name="physicalFeature" sheetId="7" r:id="rId11"/>
-    <sheet state="visible" name="heritageConcept" sheetId="8" r:id="rId12"/>
-    <sheet state="visible" name="legacy" sheetId="9" r:id="rId13"/>
-    <sheet state="visible" name="role" sheetId="10" r:id="rId14"/>
-    <sheet state="visible" name="participation" sheetId="11" r:id="rId15"/>
-    <sheet state="visible" name="debateSetting" sheetId="12" r:id="rId16"/>
-    <sheet state="visible" name="timeInterval" sheetId="13" r:id="rId17"/>
-    <sheet state="visible" name="instant" sheetId="14" r:id="rId18"/>
-    <sheet state="visible" name="argument" sheetId="15" r:id="rId19"/>
-    <sheet state="visible" name="controversy" sheetId="16" r:id="rId20"/>
-    <sheet state="visible" name="controversialFact" sheetId="17" r:id="rId21"/>
-    <sheet state="visible" name="production" sheetId="18" r:id="rId22"/>
-    <sheet state="visible" name="stakeholder" sheetId="19" r:id="rId23"/>
-    <sheet state="visible" name="activity" sheetId="20" r:id="rId24"/>
-    <sheet state="visible" name="proRemoval" sheetId="21" r:id="rId25"/>
-    <sheet state="visible" name="proPreservation" sheetId="22" r:id="rId26"/>
-    <sheet state="visible" name="value" sheetId="23" r:id="rId27"/>
-    <sheet state="visible" name="discussion" sheetId="24" r:id="rId28"/>
-    <sheet state="visible" name="relocation" sheetId="25" r:id="rId29"/>
-    <sheet state="visible" name="replacement" sheetId="26" r:id="rId30"/>
-    <sheet state="visible" name="actionUndefined" sheetId="27" r:id="rId31"/>
+    <sheet state="visible" name="material" sheetId="7" r:id="rId11"/>
+    <sheet state="visible" name="physicalFeature" sheetId="8" r:id="rId12"/>
+    <sheet state="visible" name="heritageConcept" sheetId="9" r:id="rId13"/>
+    <sheet state="visible" name="legacy" sheetId="10" r:id="rId14"/>
+    <sheet state="visible" name="role" sheetId="11" r:id="rId15"/>
+    <sheet state="visible" name="participation" sheetId="12" r:id="rId16"/>
+    <sheet state="visible" name="debateSetting" sheetId="13" r:id="rId17"/>
+    <sheet state="visible" name="timeInterval" sheetId="14" r:id="rId18"/>
+    <sheet state="visible" name="instant" sheetId="15" r:id="rId19"/>
+    <sheet state="visible" name="argument" sheetId="16" r:id="rId20"/>
+    <sheet state="visible" name="controversy" sheetId="17" r:id="rId21"/>
+    <sheet state="visible" name="controversialFact" sheetId="18" r:id="rId22"/>
+    <sheet state="visible" name="production" sheetId="19" r:id="rId23"/>
+    <sheet state="visible" name="stakeholder" sheetId="20" r:id="rId24"/>
+    <sheet state="visible" name="activity" sheetId="21" r:id="rId25"/>
+    <sheet state="visible" name="proRemoval" sheetId="22" r:id="rId26"/>
+    <sheet state="visible" name="proPreservation" sheetId="23" r:id="rId27"/>
+    <sheet state="visible" name="value" sheetId="24" r:id="rId28"/>
+    <sheet state="visible" name="discussion" sheetId="25" r:id="rId29"/>
+    <sheet state="visible" name="relocation" sheetId="26" r:id="rId30"/>
+    <sheet state="visible" name="replacement" sheetId="27" r:id="rId31"/>
+    <sheet state="visible" name="actionUndefined" sheetId="28" r:id="rId32"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -39,13 +40,13 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
-    <author>tc={2045c75f-9642-4c8e-8c81-7ff201d63927}</author>
-    <author>tc={3a48c7a3-7fb6-4f97-b934-e85cbf1dd496}</author>
-    <author>tc={6623208d-7164-46fb-8c16-32626a70e8f2}</author>
-    <author>tc={91c9b4c9-c628-4bd0-bb13-d786e609b40c}</author>
+    <author>tc={416d00ca-d83b-46a6-9004-d7fb6ad35dbd}</author>
+    <author>tc={dacb78f7-aeb7-47ad-bb79-263768dc55ae}</author>
+    <author>tc={e710ed34-dccd-4d08-8ca9-c731f0d59bce}</author>
+    <author>tc={fb854438-ddfa-43ae-85c0-2c64aec51852}</author>
   </authors>
   <commentList>
-    <comment authorId="0" xr:uid="{2045c75f-9642-4c8e-8c81-7ff201d63927}" ref="A7">
+    <comment authorId="0" xr:uid="{416d00ca-d83b-46a6-9004-d7fb6ad35dbd}" ref="A9">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +55,7 @@
 </t>
       </text>
     </comment>
-    <comment authorId="1" xr:uid="{3a48c7a3-7fb6-4f97-b934-e85cbf1dd496}" ref="A7">
+    <comment authorId="1" xr:uid="{dacb78f7-aeb7-47ad-bb79-263768dc55ae}" ref="A7">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +64,7 @@
 </t>
       </text>
     </comment>
-    <comment authorId="2" xr:uid="{6623208d-7164-46fb-8c16-32626a70e8f2}" ref="A8">
+    <comment authorId="2" xr:uid="{e710ed34-dccd-4d08-8ca9-c731f0d59bce}" ref="A7">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -72,7 +73,7 @@
 </t>
       </text>
     </comment>
-    <comment authorId="3" xr:uid="{91c9b4c9-c628-4bd0-bb13-d786e609b40c}" ref="A9">
+    <comment authorId="3" xr:uid="{fb854438-ddfa-43ae-85c0-2c64aec51852}" ref="A8">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -88,11 +89,11 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
-    <author>tc={bd7b79cd-2505-4c21-9535-f5d4c54c1414}</author>
-    <author>tc={ce1036b0-1f79-413f-a205-01f4bf8f5683}</author>
+    <author>tc={290ab74d-d8ce-4813-aa83-5ec8b52329ce}</author>
+    <author>tc={952624b5-81b4-4ceb-aae4-259b625dc3d8}</author>
   </authors>
   <commentList>
-    <comment authorId="0" xr:uid="{bd7b79cd-2505-4c21-9535-f5d4c54c1414}" ref="B1">
+    <comment authorId="0" xr:uid="{290ab74d-d8ce-4813-aa83-5ec8b52329ce}" ref="B1">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -101,7 +102,7 @@
 </t>
       </text>
     </comment>
-    <comment authorId="1" xr:uid="{ce1036b0-1f79-413f-a205-01f4bf8f5683}" ref="C1">
+    <comment authorId="1" xr:uid="{952624b5-81b4-4ceb-aae4-259b625dc3d8}" ref="C1">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -117,10 +118,10 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
-    <author>tc={38c9b906-7d21-482a-9ef3-6360b58b3760}</author>
+    <author>tc={e2a3bf42-3840-404d-9a82-5dfbcba5a041}</author>
   </authors>
   <commentList>
-    <comment authorId="0" xr:uid="{38c9b906-7d21-482a-9ef3-6360b58b3760}" ref="B1">
+    <comment authorId="0" xr:uid="{e2a3bf42-3840-404d-9a82-5dfbcba5a041}" ref="B1">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -134,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="894">
   <si>
     <t>monument_id</t>
   </si>
@@ -208,7 +209,7 @@
     <t>mdo:isContextualizedBy</t>
   </si>
   <si>
-    <t>ceon-material:Material</t>
+    <t>ceon-material:hasMaterialComponent</t>
   </si>
   <si>
     <t>crm:P56</t>
@@ -274,7 +275,7 @@
     <t>contextualmaterial_montanelli</t>
   </si>
   <si>
-    <t xml:space="preserve">bronze </t>
+    <t>material_bronze</t>
   </si>
   <si>
     <t>physical_feature_montanelli</t>
@@ -364,7 +365,7 @@
     <t>contextualmaterial_wollstonecraft</t>
   </si>
   <si>
-    <t>silvered bronze</t>
+    <t>material_silvered_bronze</t>
   </si>
   <si>
     <t>physical_feature_wollstonecraft</t>
@@ -397,9 +398,6 @@
     <t>contextualmaterial_colbert</t>
   </si>
   <si>
-    <t>bronze</t>
-  </si>
-  <si>
     <t>physical_feature_colbert</t>
   </si>
   <si>
@@ -758,6 +756,12 @@
   </si>
   <si>
     <t>Hungarian workers party</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
+  <si>
+    <t>Silvered bronze</t>
   </si>
   <si>
     <t>feature_id</t>
@@ -3518,6 +3522,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing28.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
@@ -3548,8 +3556,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments">
-  <x18tc:person displayName="Anna Pasetto" id="{1cb186a7-a66b-44ae-8db5-4d83af8d4148}" providerId="google-sheets"/>
-  <x18tc:person displayName="Alice P" id="{79450d04-4ae6-4a7c-99b2-f213b3efdf72}" providerId="google-sheets"/>
+  <x18tc:person displayName="Anna Pasetto" id="{81f55de1-faae-4bc5-925a-2fd7b051208c}" providerId="google-sheets"/>
+  <x18tc:person displayName="Alice P" id="{586fa5d0-329e-4aba-aa8f-58c063b7a164}" providerId="google-sheets"/>
 </x18tc:personList>
 </file>
 
@@ -3749,16 +3757,16 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:ThreadedComments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <x18tc:threadedComment ref="A7" dT="2026-01-09T08:51:03.00" personId="{79450d04-4ae6-4a7c-99b2-f213b3efdf72}" id="{3a48c7a3-7fb6-4f97-b934-e85cbf1dd496}" done="1">
+  <x18tc:threadedComment ref="A7" dT="2026-01-09T08:51:03.00" personId="{586fa5d0-329e-4aba-aa8f-58c063b7a164}" id="{dacb78f7-aeb7-47ad-bb79-263768dc55ae}" done="1">
     <x18tc:text xml:space="preserve">Colbert</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="A8" dT="2026-01-09T08:51:13.00" personId="{79450d04-4ae6-4a7c-99b2-f213b3efdf72}" id="{6623208d-7164-46fb-8c16-32626a70e8f2}" done="1">
+  <x18tc:threadedComment ref="A8" dT="2026-01-09T08:51:13.00" personId="{586fa5d0-329e-4aba-aa8f-58c063b7a164}" id="{fb854438-ddfa-43ae-85c0-2c64aec51852}" done="1">
     <x18tc:text xml:space="preserve">Colbert</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="A7" dT="2026-01-09T08:50:29.00" personId="{79450d04-4ae6-4a7c-99b2-f213b3efdf72}" id="{2045c75f-9642-4c8e-8c81-7ff201d63927}" done="1">
+  <x18tc:threadedComment ref="A7" dT="2026-01-09T08:50:29.00" personId="{586fa5d0-329e-4aba-aa8f-58c063b7a164}" id="{e710ed34-dccd-4d08-8ca9-c731f0d59bce}" done="1">
     <x18tc:text xml:space="preserve">Colbert</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="A9" dT="2026-01-09T08:51:21.00" personId="{79450d04-4ae6-4a7c-99b2-f213b3efdf72}" id="{91c9b4c9-c628-4bd0-bb13-d786e609b40c}" done="1">
+  <x18tc:threadedComment ref="A9" dT="2026-01-09T08:51:21.00" personId="{586fa5d0-329e-4aba-aa8f-58c063b7a164}" id="{416d00ca-d83b-46a6-9004-d7fb6ad35dbd}" done="1">
     <x18tc:text xml:space="preserve">Colbert</x18tc:text>
   </x18tc:threadedComment>
 </x18tc:ThreadedComments>
@@ -3766,10 +3774,10 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:ThreadedComments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <x18tc:threadedComment ref="B1" dT="2026-01-12T13:59:21.00" personId="{1cb186a7-a66b-44ae-8db5-4d83af8d4148}" id="{bd7b79cd-2505-4c21-9535-f5d4c54c1414}" done="1">
+  <x18tc:threadedComment ref="B1" dT="2026-01-12T13:59:21.00" personId="{81f55de1-faae-4bc5-925a-2fd7b051208c}" id="{290ab74d-d8ce-4813-aa83-5ec8b52329ce}" done="1">
     <x18tc:text xml:space="preserve">inserire nei pro removal il fatto che le statue non tengono in considerazione le vittime o le azioni e che sarebbe bello venissero menzionate</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="C1" dT="2026-01-12T13:45:34.00" personId="{1cb186a7-a66b-44ae-8db5-4d83af8d4148}" id="{ce1036b0-1f79-413f-a205-01f4bf8f5683}" done="1">
+  <x18tc:threadedComment ref="C1" dT="2026-01-12T13:45:34.00" personId="{81f55de1-faae-4bc5-925a-2fd7b051208c}" id="{952624b5-81b4-4ceb-aae4-259b625dc3d8}" done="1">
     <x18tc:text xml:space="preserve">mettiamo sempre sia i controversial fact che la legacy che gli heritage concept</x18tc:text>
   </x18tc:threadedComment>
 </x18tc:ThreadedComments>
@@ -3777,7 +3785,7 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:ThreadedComments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <x18tc:threadedComment ref="B1" dT="2026-01-12T14:20:36.00" personId="{1cb186a7-a66b-44ae-8db5-4d83af8d4148}" id="{38c9b906-7d21-482a-9ef3-6360b58b3760}" done="1">
+  <x18tc:threadedComment ref="B1" dT="2026-01-12T14:20:36.00" personId="{81f55de1-faae-4bc5-925a-2fd7b051208c}" id="{e2a3bf42-3840-404d-9a82-5dfbcba5a041}" done="1">
     <x18tc:text xml:space="preserve">mettere i dati veri quando ci sono e quando non ci sono usare i nomi degli scenari</x18tc:text>
   </x18tc:threadedComment>
 </x18tc:ThreadedComments>
@@ -4163,10 +4171,10 @@
         <v>86</v>
       </c>
       <c r="L8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="14" t="s">
         <v>87</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>88</v>
       </c>
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
@@ -4188,84 +4196,84 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>91</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>92</v>
       </c>
       <c r="E9" s="15">
         <v>2017.0</v>
       </c>
       <c r="F9" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="H9" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="I9" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="J9" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="K9" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="L9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="14" t="s">
         <v>98</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="E10" s="18">
         <v>1895.0</v>
       </c>
       <c r="F10" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="H10" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="I10" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="J10" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="K10" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="L10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
@@ -4287,75 +4295,75 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>114</v>
       </c>
       <c r="E11" s="15">
         <v>1951.0</v>
       </c>
       <c r="F11" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="H11" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="I11" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="J11" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="L11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="14" t="s">
         <v>119</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="D12" s="16" t="s">
         <v>123</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>124</v>
       </c>
       <c r="E12" s="18">
         <v>2000.0</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>127</v>
       </c>
       <c r="K12" s="16"/>
       <c r="L12" s="16" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
@@ -4393,16 +4401,228 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="24.63"/>
+    <col customWidth="1" min="2" max="2" width="58.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="1" max="1" width="23.63"/>
     <col customWidth="1" min="2" max="2" width="37.75"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2">
@@ -4410,23 +4630,23 @@
         <v>13</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4434,7 +4654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4454,25 +4674,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H1" s="38"/>
     </row>
@@ -4481,838 +4701,838 @@
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H2" s="23"/>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H3" s="23"/>
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H4" s="23"/>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H5" s="23"/>
     </row>
     <row r="6">
       <c r="A6" s="34" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H6" s="23"/>
     </row>
     <row r="7">
       <c r="A7" s="33" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H7" s="23"/>
     </row>
     <row r="8">
       <c r="A8" s="34" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H8" s="23"/>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H9" s="23"/>
     </row>
     <row r="10">
       <c r="A10" s="34" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H10" s="23"/>
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H11" s="23"/>
     </row>
     <row r="12">
       <c r="A12" s="34" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H12" s="23"/>
     </row>
     <row r="13">
       <c r="A13" s="34" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H13" s="23"/>
     </row>
     <row r="14">
       <c r="A14" s="33" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H14" s="23"/>
     </row>
     <row r="15">
       <c r="A15" s="34" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H15" s="23"/>
     </row>
     <row r="16">
       <c r="A16" s="33" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H16" s="23"/>
     </row>
     <row r="17">
       <c r="A17" s="33" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H17" s="23"/>
     </row>
     <row r="18">
       <c r="A18" s="34" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H18" s="23"/>
     </row>
     <row r="19">
       <c r="A19" s="33" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H19" s="23"/>
     </row>
     <row r="20">
       <c r="A20" s="34" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H20" s="23"/>
     </row>
     <row r="21">
       <c r="A21" s="33" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H21" s="23"/>
     </row>
     <row r="22">
       <c r="A22" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>414</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="G22" s="34" t="s">
         <v>412</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>407</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>413</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>410</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>411</v>
       </c>
       <c r="H22" s="23"/>
     </row>
     <row r="23">
       <c r="A23" s="33" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H23" s="23"/>
     </row>
     <row r="24">
       <c r="A24" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>417</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="G24" s="34" t="s">
         <v>420</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>415</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>421</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>418</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>419</v>
       </c>
       <c r="H24" s="23"/>
     </row>
     <row r="25">
       <c r="A25" s="33" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H25" s="23"/>
     </row>
     <row r="26">
       <c r="A26" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>417</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="G26" s="34" t="s">
         <v>426</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>415</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>427</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>425</v>
       </c>
       <c r="H26" s="23"/>
     </row>
     <row r="27">
       <c r="A27" s="33" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H27" s="23"/>
     </row>
     <row r="28">
       <c r="A28" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>436</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="G28" s="34" t="s">
         <v>434</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>429</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>435</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>432</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>433</v>
       </c>
       <c r="H28" s="23"/>
     </row>
     <row r="29">
       <c r="A29" s="33" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H29" s="23"/>
     </row>
     <row r="30">
       <c r="A30" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="G30" s="34" t="s">
         <v>440</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>429</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>441</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>438</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>439</v>
       </c>
       <c r="H30" s="23"/>
     </row>
     <row r="31">
       <c r="A31" s="33" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H31" s="23"/>
     </row>
     <row r="32">
       <c r="A32" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>449</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>446</v>
+      </c>
+      <c r="G32" s="34" t="s">
         <v>447</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>429</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>443</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>448</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>445</v>
-      </c>
-      <c r="G32" s="34" t="s">
-        <v>446</v>
       </c>
       <c r="H32" s="23"/>
     </row>
     <row r="33">
       <c r="A33" s="33" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H33" s="23"/>
     </row>
     <row r="34">
       <c r="A34" s="34" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H34" s="23"/>
     </row>
     <row r="35">
       <c r="A35" s="33" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H35" s="23"/>
     </row>
     <row r="36">
       <c r="A36" s="34" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H36" s="23"/>
     </row>
@@ -9225,7 +9445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9241,10 +9461,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2">
@@ -9252,95 +9472,95 @@
         <v>13</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14">
@@ -9361,7 +9581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9378,16 +9598,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2">
@@ -9395,489 +9615,489 @@
         <v>13</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="39" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="40" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="39" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="40" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="39" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="40" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="39" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="40" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="40" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="39" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="40" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="39" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="39" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="40" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="39" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="40" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="39" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="40" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="39" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="40" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="39" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="40" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="39" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="40" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="39" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="40" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="39" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="40" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="39" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="40" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="39" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="40" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -9885,7 +10105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9902,13 +10122,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="44" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2">
@@ -9916,18 +10136,18 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C3" s="46">
         <v>42644.0</v>
@@ -9935,10 +10155,10 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C4" s="47">
         <v>42644.0</v>
@@ -9946,10 +10166,10 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C5" s="46">
         <v>40940.0</v>
@@ -9957,10 +10177,10 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C6" s="47">
         <v>40940.0</v>
@@ -9968,10 +10188,10 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C7" s="39">
         <v>2018.0</v>
@@ -9979,10 +10199,10 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C8" s="40">
         <v>2018.0</v>
@@ -9990,10 +10210,10 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C9" s="46">
         <v>43525.0</v>
@@ -10001,10 +10221,10 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C10" s="47">
         <v>43525.0</v>
@@ -10012,10 +10232,10 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C11" s="46">
         <v>43983.0</v>
@@ -10023,10 +10243,10 @@
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C12" s="47">
         <v>43983.0</v>
@@ -10034,10 +10254,10 @@
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C13" s="47">
         <v>43983.0</v>
@@ -10045,10 +10265,10 @@
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C14" s="46">
         <v>43983.0</v>
@@ -10056,10 +10276,10 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C15" s="47">
         <v>43983.0</v>
@@ -10067,10 +10287,10 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C16" s="46">
         <v>43983.0</v>
@@ -10078,10 +10298,10 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C17" s="39">
         <v>2016.0</v>
@@ -10089,10 +10309,10 @@
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C18" s="40">
         <v>2016.0</v>
@@ -10100,10 +10320,10 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C19" s="48">
         <v>44136.0</v>
@@ -10111,10 +10331,10 @@
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C20" s="49">
         <v>44136.0</v>
@@ -10122,10 +10342,10 @@
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C21" s="46">
         <v>43983.0</v>
@@ -10133,10 +10353,10 @@
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C22" s="47">
         <v>43983.0</v>
@@ -10144,10 +10364,10 @@
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C23" s="46">
         <v>43009.0</v>
@@ -10155,10 +10375,10 @@
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C24" s="47">
         <v>43009.0</v>
@@ -10166,10 +10386,10 @@
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C25" s="46">
         <v>43983.0</v>
@@ -10177,10 +10397,10 @@
     </row>
     <row r="26">
       <c r="A26" s="14" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C26" s="47">
         <v>43983.0</v>
@@ -10188,10 +10408,10 @@
     </row>
     <row r="27">
       <c r="A27" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C27" s="46">
         <v>35796.0</v>
@@ -10199,10 +10419,10 @@
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C28" s="47">
         <v>35796.0</v>
@@ -10210,10 +10430,10 @@
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C29" s="46">
         <v>42736.0</v>
@@ -10221,10 +10441,10 @@
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C30" s="47">
         <v>42736.0</v>
@@ -10232,10 +10452,10 @@
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C31" s="46">
         <v>43831.0</v>
@@ -10243,10 +10463,10 @@
     </row>
     <row r="32">
       <c r="A32" s="14" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C32" s="47">
         <v>43831.0</v>
@@ -10254,10 +10474,10 @@
     </row>
     <row r="33">
       <c r="A33" s="14" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C33" s="48">
         <v>20751.0</v>
@@ -10265,10 +10485,10 @@
     </row>
     <row r="34">
       <c r="A34" s="14" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C34" s="47">
         <v>20751.0</v>
@@ -10276,10 +10496,10 @@
     </row>
     <row r="35">
       <c r="A35" s="14" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C35" s="46">
         <v>41153.0</v>
@@ -10287,10 +10507,10 @@
     </row>
     <row r="36">
       <c r="A36" s="14" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C36" s="47">
         <v>41153.0</v>
@@ -10298,10 +10518,10 @@
     </row>
     <row r="37">
       <c r="A37" s="14" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C37" s="46">
         <v>42654.0</v>
@@ -10309,10 +10529,10 @@
     </row>
     <row r="38">
       <c r="A38" s="14" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C38" s="47">
         <v>42644.0</v>
@@ -10320,10 +10540,10 @@
     </row>
     <row r="39">
       <c r="A39" s="14" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C39" s="46">
         <v>40940.0</v>
@@ -10331,10 +10551,10 @@
     </row>
     <row r="40">
       <c r="A40" s="14" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C40" s="47">
         <v>40940.0</v>
@@ -10342,10 +10562,10 @@
     </row>
     <row r="41">
       <c r="A41" s="14" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C41" s="39">
         <v>2018.0</v>
@@ -10353,10 +10573,10 @@
     </row>
     <row r="42">
       <c r="A42" s="14" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C42" s="40">
         <v>2018.0</v>
@@ -10364,10 +10584,10 @@
     </row>
     <row r="43">
       <c r="A43" s="14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C43" s="46">
         <v>43525.0</v>
@@ -10375,10 +10595,10 @@
     </row>
     <row r="44">
       <c r="A44" s="14" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C44" s="47">
         <v>43525.0</v>
@@ -10386,10 +10606,10 @@
     </row>
     <row r="45">
       <c r="A45" s="14" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C45" s="46">
         <v>43983.0</v>
@@ -10397,10 +10617,10 @@
     </row>
     <row r="46">
       <c r="A46" s="14" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C46" s="47">
         <v>43983.0</v>
@@ -10408,10 +10628,10 @@
     </row>
     <row r="47">
       <c r="A47" s="14" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C47" s="47">
         <v>43983.0</v>
@@ -10419,10 +10639,10 @@
     </row>
     <row r="48">
       <c r="A48" s="14" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C48" s="46">
         <v>43983.0</v>
@@ -10430,10 +10650,10 @@
     </row>
     <row r="49">
       <c r="A49" s="14" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C49" s="47">
         <v>44075.0</v>
@@ -10441,10 +10661,10 @@
     </row>
     <row r="50">
       <c r="A50" s="14" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C50" s="46">
         <v>44075.0</v>
@@ -10452,10 +10672,10 @@
     </row>
     <row r="51">
       <c r="A51" s="14" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C51" s="39">
         <v>2016.0</v>
@@ -10463,10 +10683,10 @@
     </row>
     <row r="52">
       <c r="A52" s="14" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C52" s="40">
         <v>2016.0</v>
@@ -10474,10 +10694,10 @@
     </row>
     <row r="53">
       <c r="A53" s="14" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C53" s="48">
         <v>44136.0</v>
@@ -10485,10 +10705,10 @@
     </row>
     <row r="54">
       <c r="A54" s="14" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C54" s="49">
         <v>44136.0</v>
@@ -10496,10 +10716,10 @@
     </row>
     <row r="55">
       <c r="A55" s="14" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C55" s="46">
         <v>43983.0</v>
@@ -10507,10 +10727,10 @@
     </row>
     <row r="56">
       <c r="A56" s="14" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C56" s="47">
         <v>43983.0</v>
@@ -10518,10 +10738,10 @@
     </row>
     <row r="57">
       <c r="A57" s="14" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C57" s="48">
         <v>43039.0</v>
@@ -10529,10 +10749,10 @@
     </row>
     <row r="58">
       <c r="A58" s="14" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C58" s="47">
         <v>43039.0</v>
@@ -10540,10 +10760,10 @@
     </row>
     <row r="59">
       <c r="A59" s="14" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C59" s="46">
         <v>43983.0</v>
@@ -10551,10 +10771,10 @@
     </row>
     <row r="60">
       <c r="A60" s="14" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C60" s="47">
         <v>44012.0</v>
@@ -10562,10 +10782,10 @@
     </row>
     <row r="61">
       <c r="A61" s="14" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C61" s="48">
         <v>36160.0</v>
@@ -10573,10 +10793,10 @@
     </row>
     <row r="62">
       <c r="A62" s="14" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C62" s="49">
         <v>36160.0</v>
@@ -10584,10 +10804,10 @@
     </row>
     <row r="63">
       <c r="A63" s="14" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C63" s="48">
         <v>43100.0</v>
@@ -10595,10 +10815,10 @@
     </row>
     <row r="64">
       <c r="A64" s="14" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C64" s="47">
         <v>43100.0</v>
@@ -10606,10 +10826,10 @@
     </row>
     <row r="65">
       <c r="A65" s="14" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C65" s="48">
         <v>44196.0</v>
@@ -10617,10 +10837,10 @@
     </row>
     <row r="66">
       <c r="A66" s="14" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C66" s="49">
         <v>44196.0</v>
@@ -10628,10 +10848,10 @@
     </row>
     <row r="67">
       <c r="A67" s="14" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C67" s="48">
         <v>20729.0</v>
@@ -10639,10 +10859,10 @@
     </row>
     <row r="68">
       <c r="A68" s="14" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C68" s="49">
         <v>20729.0</v>
@@ -10650,10 +10870,10 @@
     </row>
     <row r="69">
       <c r="A69" s="14" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C69" s="48">
         <v>41183.0</v>
@@ -10661,10 +10881,10 @@
     </row>
     <row r="70">
       <c r="A70" s="14" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C70" s="49">
         <v>41183.0</v>
@@ -10675,7 +10895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -10694,16 +10914,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E1" s="23"/>
     </row>
@@ -10712,313 +10932,313 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E2" s="23"/>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E3" s="23"/>
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E4" s="23"/>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E5" s="23"/>
     </row>
     <row r="6">
       <c r="A6" s="34" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E6" s="23"/>
     </row>
     <row r="7">
       <c r="A7" s="34" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E7" s="23"/>
     </row>
     <row r="8">
       <c r="A8" s="33" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E8" s="23"/>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E9" s="23"/>
     </row>
     <row r="10">
       <c r="A10" s="34" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E10" s="23"/>
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E11" s="23"/>
     </row>
     <row r="12">
       <c r="A12" s="34" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E12" s="23"/>
     </row>
     <row r="13">
       <c r="A13" s="33" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E13" s="23"/>
     </row>
     <row r="14">
       <c r="A14" s="34" t="s">
+        <v>617</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>618</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>616</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>617</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>615</v>
-      </c>
       <c r="D14" s="34" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E14" s="23"/>
     </row>
     <row r="15">
       <c r="A15" s="33" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E15" s="23"/>
     </row>
     <row r="16">
       <c r="A16" s="34" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E16" s="23"/>
     </row>
     <row r="17">
       <c r="A17" s="33" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E17" s="23"/>
     </row>
     <row r="18">
       <c r="A18" s="34" t="s">
+        <v>630</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>631</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>629</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>630</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>628</v>
-      </c>
       <c r="D18" s="34" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E18" s="23"/>
     </row>
     <row r="19">
       <c r="A19" s="34" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E19" s="23"/>
     </row>
     <row r="20">
       <c r="A20" s="33" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E20" s="23"/>
     </row>
     <row r="21">
       <c r="A21" s="34" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E21" s="23"/>
     </row>
     <row r="22">
       <c r="A22" s="33" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E22" s="23"/>
     </row>
@@ -13971,7 +14191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -13991,10 +14211,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="2">
@@ -14002,10 +14222,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3">
@@ -14013,10 +14233,10 @@
         <v>28</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="4">
@@ -14024,10 +14244,10 @@
         <v>38</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5">
@@ -14035,10 +14255,10 @@
         <v>50</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6">
@@ -14046,10 +14266,10 @@
         <v>59</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="7">
@@ -14057,10 +14277,10 @@
         <v>68</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="8">
@@ -14068,54 +14288,54 @@
         <v>80</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="13">
@@ -14126,7 +14346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -14143,10 +14363,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C1" s="52"/>
     </row>
@@ -14155,133 +14375,133 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="53"/>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C3" s="53"/>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C4" s="53"/>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C5" s="53"/>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C6" s="23"/>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C7" s="53"/>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C8" s="53"/>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C9" s="53"/>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C10" s="53"/>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C11" s="53"/>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C12" s="53"/>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C13" s="53"/>
     </row>
     <row r="14">
       <c r="A14" s="16" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C14" s="53"/>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C15" s="53"/>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C16" s="53"/>
     </row>
@@ -17263,7 +17483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -17283,10 +17503,10 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
@@ -17294,10 +17514,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="3">
@@ -17305,10 +17525,10 @@
         <v>33</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4">
@@ -17316,10 +17536,10 @@
         <v>44</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5">
@@ -17327,10 +17547,10 @@
         <v>55</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6">
@@ -17338,10 +17558,10 @@
         <v>64</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7">
@@ -17349,10 +17569,10 @@
         <v>74</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8">
@@ -17360,821 +17580,58 @@
         <v>85</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="15.13"/>
-    <col customWidth="1" min="2" max="2" width="83.75"/>
-    <col customWidth="1" min="3" max="3" width="56.63"/>
-    <col customWidth="1" min="4" max="4" width="65.13"/>
-    <col customWidth="1" min="5" max="5" width="16.38"/>
-    <col customWidth="1" min="6" max="6" width="18.75"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>706</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>707</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>710</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>711</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>712</v>
-      </c>
-      <c r="G2" s="55"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>713</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>579</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>714</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>576</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>715</v>
-      </c>
-      <c r="G3" s="55"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>716</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>582</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>580</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>717</v>
-      </c>
-      <c r="G4" s="56"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>718</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>586</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>583</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>719</v>
-      </c>
-      <c r="G5" s="55"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>720</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>589</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>587</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>721</v>
-      </c>
-      <c r="G6" s="56"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>722</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>586</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>583</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>719</v>
-      </c>
-      <c r="G7" s="55"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="34" t="s">
-        <v>356</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>723</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>589</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>587</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>721</v>
-      </c>
-      <c r="G8" s="56"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="33" t="s">
-        <v>360</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>724</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>586</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>583</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>719</v>
-      </c>
-      <c r="G9" s="55"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>725</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>589</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>587</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>721</v>
-      </c>
-      <c r="G10" s="56"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>726</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>586</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>583</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>719</v>
-      </c>
-      <c r="G11" s="55"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>727</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>589</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>587</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>721</v>
-      </c>
-      <c r="G12" s="56"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="34" t="s">
-        <v>376</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>728</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>729</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>730</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>590</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>731</v>
-      </c>
-      <c r="G13" s="56"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="33" t="s">
-        <v>379</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>732</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>579</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>733</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>594</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="G14" s="55"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>735</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>729</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>730</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>590</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>731</v>
-      </c>
-      <c r="G15" s="56"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>579</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>730</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>594</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="G16" s="55"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="33" t="s">
-        <v>394</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>737</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>601</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>598</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>738</v>
-      </c>
-      <c r="G17" s="55"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="34" t="s">
-        <v>397</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>739</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>605</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>602</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>740</v>
-      </c>
-      <c r="G18" s="56"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="33" t="s">
-        <v>402</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>741</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>609</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>606</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="34" t="s">
-        <v>405</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>742</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>612</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>610</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>740</v>
-      </c>
-      <c r="G20" s="56"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="33" t="s">
-        <v>411</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>743</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>579</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>613</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="34" t="s">
-        <v>745</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>746</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>729</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>616</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="33" t="s">
-        <v>419</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>748</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>579</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>619</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>750</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>582</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>623</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="33" t="s">
-        <v>752</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>753</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>579</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>619</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="34" t="s">
-        <v>754</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>755</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>582</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>623</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>756</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>579</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>757</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>626</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="34" t="s">
-        <v>439</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>759</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>579</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>757</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>629</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>761</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>729</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>757</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>626</v>
-      </c>
-      <c r="F29" s="33" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="34" t="s">
-        <v>762</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>763</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>579</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>757</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>629</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="33" t="s">
-        <v>764</v>
-      </c>
-      <c r="B31" s="57" t="s">
-        <v>765</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>729</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>757</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>626</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="34" t="s">
-        <v>766</v>
-      </c>
-      <c r="B32" s="58" t="s">
-        <v>767</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>768</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>757</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>626</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>760</v>
-      </c>
-      <c r="G32" s="56"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>769</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>637</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>635</v>
-      </c>
-      <c r="F33" s="33" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="34" t="s">
-        <v>457</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>771</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>634</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>631</v>
-      </c>
-      <c r="F34" s="34" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="33" t="s">
-        <v>463</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>773</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>644</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>774</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>642</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="34" t="s">
-        <v>466</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>776</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>641</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>774</v>
-      </c>
-      <c r="E36" s="34" t="s">
-        <v>638</v>
-      </c>
-      <c r="F36" s="34" t="s">
-        <v>775</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -18196,16 +17653,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>131</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>132</v>
       </c>
       <c r="E1" s="23"/>
     </row>
@@ -18214,13 +17671,13 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="22" t="s">
         <v>134</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>135</v>
       </c>
       <c r="E2" s="23"/>
     </row>
@@ -18229,13 +17686,13 @@
         <v>29</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>137</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>138</v>
       </c>
       <c r="E3" s="23"/>
     </row>
@@ -18244,13 +17701,13 @@
         <v>39</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="16" t="s">
         <v>140</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>141</v>
       </c>
       <c r="E4" s="23"/>
     </row>
@@ -18259,13 +17716,13 @@
         <v>51</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>143</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>144</v>
       </c>
       <c r="E5" s="23"/>
     </row>
@@ -18274,13 +17731,13 @@
         <v>60</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>146</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>147</v>
       </c>
       <c r="E6" s="23"/>
     </row>
@@ -18289,13 +17746,13 @@
         <v>69</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>150</v>
       </c>
       <c r="E7" s="23"/>
     </row>
@@ -18304,73 +17761,73 @@
         <v>81</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="16" t="s">
         <v>152</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>153</v>
       </c>
       <c r="E8" s="23"/>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>155</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>156</v>
       </c>
       <c r="E9" s="23"/>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>158</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>159</v>
       </c>
       <c r="E10" s="23"/>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>161</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>162</v>
       </c>
       <c r="E11" s="23"/>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="D12" s="16" t="s">
         <v>164</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>165</v>
       </c>
       <c r="E12" s="23"/>
     </row>
@@ -21347,6 +20804,769 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.13"/>
+    <col customWidth="1" min="2" max="2" width="83.75"/>
+    <col customWidth="1" min="3" max="3" width="56.63"/>
+    <col customWidth="1" min="4" max="4" width="65.13"/>
+    <col customWidth="1" min="5" max="5" width="16.38"/>
+    <col customWidth="1" min="6" max="6" width="18.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>707</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>711</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>713</v>
+      </c>
+      <c r="G2" s="55"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>714</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>715</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>577</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>716</v>
+      </c>
+      <c r="G3" s="55"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>717</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>583</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>581</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>718</v>
+      </c>
+      <c r="G4" s="56"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>719</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>584</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="G5" s="55"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>721</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>590</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>588</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>722</v>
+      </c>
+      <c r="G6" s="56"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>584</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="G7" s="55"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>724</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>590</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>588</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>722</v>
+      </c>
+      <c r="G8" s="56"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>725</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>584</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="G9" s="55"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>726</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>590</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>588</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>722</v>
+      </c>
+      <c r="G10" s="56"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>727</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>584</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="G11" s="55"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>728</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>590</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>588</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>722</v>
+      </c>
+      <c r="G12" s="56"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>729</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>730</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>731</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>591</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>732</v>
+      </c>
+      <c r="G13" s="56"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>733</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>595</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>735</v>
+      </c>
+      <c r="G14" s="55"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>736</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>730</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>731</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>591</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>732</v>
+      </c>
+      <c r="G15" s="56"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>737</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>731</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>595</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>735</v>
+      </c>
+      <c r="G16" s="55"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>738</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>602</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>599</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>739</v>
+      </c>
+      <c r="G17" s="55"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>740</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>606</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>603</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>741</v>
+      </c>
+      <c r="G18" s="56"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>742</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>610</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>607</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>743</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>613</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>611</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>741</v>
+      </c>
+      <c r="G20" s="56"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>744</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>614</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="34" t="s">
+        <v>746</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>747</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>730</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>617</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>749</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>620</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>751</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>583</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="33" t="s">
+        <v>753</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>754</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>620</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>583</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>757</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>758</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>627</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>760</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>580</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>630</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>762</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>758</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>627</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="34" t="s">
+        <v>763</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>764</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>580</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>630</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="33" t="s">
+        <v>765</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>766</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>758</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>627</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="34" t="s">
+        <v>767</v>
+      </c>
+      <c r="B32" s="58" t="s">
+        <v>768</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>769</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>627</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>761</v>
+      </c>
+      <c r="G32" s="56"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>770</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>636</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>772</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>635</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>632</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>774</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>645</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>643</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>777</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>642</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>775</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>639</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>776</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -21363,13 +21583,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D1" s="59"/>
       <c r="E1" s="59"/>
@@ -21387,32 +21607,32 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -21427,24 +21647,24 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -21459,24 +21679,24 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -21491,24 +21711,24 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -21523,24 +21743,24 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="60" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D12" s="61"/>
       <c r="E12" s="61"/>
@@ -21555,24 +21775,24 @@
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="60" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D14" s="61"/>
       <c r="E14" s="61"/>
@@ -21587,24 +21807,24 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="60" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D16" s="61"/>
       <c r="E16" s="61"/>
@@ -21619,24 +21839,24 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="60" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D18" s="61"/>
       <c r="E18" s="61"/>
@@ -21651,13 +21871,13 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -21665,7 +21885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -21682,13 +21902,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D1" s="62"/>
     </row>
@@ -21697,130 +21917,130 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D2" s="62"/>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D3" s="62"/>
     </row>
     <row r="4">
       <c r="A4" s="33" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D4" s="62"/>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D5" s="62"/>
     </row>
     <row r="6">
       <c r="A6" s="33" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D6" s="62"/>
     </row>
     <row r="7">
       <c r="A7" s="33" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D7" s="62"/>
     </row>
     <row r="8">
       <c r="A8" s="33" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D8" s="62"/>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D9" s="62"/>
     </row>
     <row r="10">
       <c r="A10" s="33" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D10" s="62"/>
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D11" s="62"/>
     </row>
     <row r="12">
       <c r="A12" s="33" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D12" s="62"/>
     </row>
@@ -21829,7 +22049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -21846,13 +22066,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="27" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="2">
@@ -21860,129 +22080,129 @@
         <v>13</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="63" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D3" s="65"/>
     </row>
     <row r="4">
       <c r="A4" s="63" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D4" s="65"/>
     </row>
     <row r="5">
       <c r="A5" s="63" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D5" s="65"/>
     </row>
     <row r="6">
       <c r="A6" s="63" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D6" s="65"/>
     </row>
     <row r="7">
       <c r="A7" s="63" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D7" s="65"/>
     </row>
     <row r="8">
       <c r="A8" s="63" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D8" s="65"/>
     </row>
     <row r="9">
       <c r="A9" s="63" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D9" s="65"/>
     </row>
     <row r="10">
       <c r="A10" s="63" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D10" s="65"/>
     </row>
     <row r="11">
       <c r="A11" s="63" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D11" s="65"/>
     </row>
     <row r="12">
       <c r="A12" s="63" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D12" s="65"/>
     </row>
@@ -21991,7 +22211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -22008,13 +22228,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="2">
@@ -22022,120 +22242,120 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
   </sheetData>
@@ -22143,7 +22363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -22160,13 +22380,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="2">
@@ -22174,120 +22394,120 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>878</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>877</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
   </sheetData>
@@ -22295,7 +22515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -22311,10 +22531,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="2">
@@ -22322,15 +22542,15 @@
         <v>13</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
   </sheetData>
@@ -22338,7 +22558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -22354,10 +22574,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="2">
@@ -22365,15 +22585,15 @@
         <v>13</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
   </sheetData>
@@ -22381,7 +22601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -22397,10 +22617,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="2">
@@ -22408,15 +22628,15 @@
         <v>13</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
   </sheetData>
@@ -22443,7 +22663,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
@@ -22451,7 +22671,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
@@ -22459,7 +22679,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4">
@@ -22467,7 +22687,7 @@
         <v>40</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5">
@@ -22475,7 +22695,7 @@
         <v>52</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6">
@@ -22483,7 +22703,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7">
@@ -22491,7 +22711,7 @@
         <v>70</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8">
@@ -22499,39 +22719,39 @@
         <v>82</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -22555,10 +22775,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2">
@@ -22566,7 +22786,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
@@ -22574,7 +22794,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4">
@@ -22582,7 +22802,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5">
@@ -22590,7 +22810,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6">
@@ -22598,31 +22818,31 @@
         <v>83</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -22646,10 +22866,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>186</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2">
@@ -22657,7 +22877,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
@@ -22665,7 +22885,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4">
@@ -22673,7 +22893,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5">
@@ -22681,15 +22901,15 @@
         <v>75</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7">
@@ -22697,15 +22917,15 @@
         <v>86</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -22732,7 +22952,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2">
@@ -22740,7 +22960,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
@@ -22748,7 +22968,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4">
@@ -22756,7 +22976,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5">
@@ -22764,55 +22984,55 @@
         <v>62</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>198</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>200</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -22830,16 +23050,67 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="20.25"/>
+    <col customWidth="1" min="2" max="2" width="21.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="1" max="1" width="27.88"/>
     <col customWidth="1" min="2" max="2" width="86.5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2">
@@ -22847,23 +23118,23 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -22892,18 +23163,18 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -22932,18 +23203,18 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -22972,18 +23243,18 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -23012,18 +23283,18 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -23058,7 +23329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -23077,7 +23348,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2">
@@ -23085,382 +23356,170 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="28" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="24.63"/>
-    <col customWidth="1" min="2" max="2" width="58.0"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>313</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
-</worksheet>
 </file>
--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -40,13 +40,13 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
-    <author>tc={416d00ca-d83b-46a6-9004-d7fb6ad35dbd}</author>
-    <author>tc={dacb78f7-aeb7-47ad-bb79-263768dc55ae}</author>
-    <author>tc={e710ed34-dccd-4d08-8ca9-c731f0d59bce}</author>
-    <author>tc={fb854438-ddfa-43ae-85c0-2c64aec51852}</author>
+    <author>tc={0dd2fe50-eb8f-422a-991a-ba2bfbedad48}</author>
+    <author>tc={ae189f00-5016-41e0-9b86-53e86f5bbef7}</author>
+    <author>tc={d881ef26-9f0b-430f-a954-db6689018c5e}</author>
+    <author>tc={fd15a492-6323-4789-934c-aabf6ae5397e}</author>
   </authors>
   <commentList>
-    <comment authorId="0" xr:uid="{416d00ca-d83b-46a6-9004-d7fb6ad35dbd}" ref="A9">
+    <comment authorId="0" xr:uid="{0dd2fe50-eb8f-422a-991a-ba2bfbedad48}" ref="A7">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -55,7 +55,7 @@
 </t>
       </text>
     </comment>
-    <comment authorId="1" xr:uid="{dacb78f7-aeb7-47ad-bb79-263768dc55ae}" ref="A7">
+    <comment authorId="1" xr:uid="{ae189f00-5016-41e0-9b86-53e86f5bbef7}" ref="A8">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,7 +64,7 @@
 </t>
       </text>
     </comment>
-    <comment authorId="2" xr:uid="{e710ed34-dccd-4d08-8ca9-c731f0d59bce}" ref="A7">
+    <comment authorId="2" xr:uid="{d881ef26-9f0b-430f-a954-db6689018c5e}" ref="A7">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -73,7 +73,7 @@
 </t>
       </text>
     </comment>
-    <comment authorId="3" xr:uid="{fb854438-ddfa-43ae-85c0-2c64aec51852}" ref="A8">
+    <comment authorId="3" xr:uid="{fd15a492-6323-4789-934c-aabf6ae5397e}" ref="A9">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -89,25 +89,25 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
-    <author>tc={290ab74d-d8ce-4813-aa83-5ec8b52329ce}</author>
-    <author>tc={952624b5-81b4-4ceb-aae4-259b625dc3d8}</author>
+    <author>tc={16ccce64-8de4-403f-a7ff-17eee1521704}</author>
+    <author>tc={9bc25b3e-c7fe-4277-b8db-f0b833afa2fc}</author>
   </authors>
   <commentList>
-    <comment authorId="0" xr:uid="{290ab74d-d8ce-4813-aa83-5ec8b52329ce}" ref="B1">
+    <comment authorId="0" xr:uid="{16ccce64-8de4-403f-a7ff-17eee1521704}" ref="C1">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+ Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+	mettiamo sempre sia i controversial fact che la legacy che gli heritage concept
+</t>
+      </text>
+    </comment>
+    <comment authorId="1" xr:uid="{9bc25b3e-c7fe-4277-b8db-f0b833afa2fc}" ref="B1">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
 	inserire nei pro removal il fatto che le statue non tengono in considerazione le vittime o le azioni e che sarebbe bello venissero menzionate
-</t>
-      </text>
-    </comment>
-    <comment authorId="1" xr:uid="{952624b5-81b4-4ceb-aae4-259b625dc3d8}" ref="C1">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
- Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-	mettiamo sempre sia i controversial fact che la legacy che gli heritage concept
 </t>
       </text>
     </comment>
@@ -118,10 +118,10 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
-    <author>tc={e2a3bf42-3840-404d-9a82-5dfbcba5a041}</author>
+    <author>tc={4ac54cb5-5b03-4668-a7ba-78919f06821f}</author>
   </authors>
   <commentList>
-    <comment authorId="0" xr:uid="{e2a3bf42-3840-404d-9a82-5dfbcba5a041}" ref="B1">
+    <comment authorId="0" xr:uid="{4ac54cb5-5b03-4668-a7ba-78919f06821f}" ref="B1">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="884">
   <si>
     <t>monument_id</t>
   </si>
@@ -242,7 +242,7 @@
     <t>contextualmaterial_colombo</t>
   </si>
   <si>
-    <t>physical_feature_colombo</t>
+    <t>feature_colombo</t>
   </si>
   <si>
     <t>mon_montanelli</t>
@@ -278,7 +278,7 @@
     <t>material_bronze</t>
   </si>
   <si>
-    <t>physical_feature_montanelli</t>
+    <t>feature_montanelli</t>
   </si>
   <si>
     <t>mon_hagenbeck</t>
@@ -305,7 +305,7 @@
     <t>prod_hagenbeck</t>
   </si>
   <si>
-    <t xml:space="preserve">physical_feature_hagenbeck </t>
+    <t xml:space="preserve">feature_hagenbeck </t>
   </si>
   <si>
     <t>mon_gandhi</t>
@@ -332,7 +332,7 @@
     <t>prod_gandhi</t>
   </si>
   <si>
-    <t>physical_feature_gandhi</t>
+    <t>feature_gandhi</t>
   </si>
   <si>
     <t>mon_wollstonecraft</t>
@@ -368,7 +368,7 @@
     <t>material_silvered_bronze</t>
   </si>
   <si>
-    <t>physical_feature_wollstonecraft</t>
+    <t>feature_wollstonecraft</t>
   </si>
   <si>
     <t>mon_colbert</t>
@@ -398,7 +398,7 @@
     <t>contextualmaterial_colbert</t>
   </si>
   <si>
-    <t>physical_feature_colbert</t>
+    <t>feature_colbert</t>
   </si>
   <si>
     <t>mon_vieira</t>
@@ -431,7 +431,7 @@
     <t>contextualmaterial_vieira</t>
   </si>
   <si>
-    <t>physical_feature_vieira</t>
+    <t>feature_vieira</t>
   </si>
   <si>
     <t>mon_colston</t>
@@ -464,7 +464,7 @@
     <t>contextualmaterial_colston</t>
   </si>
   <si>
-    <t>physical_feature_colston</t>
+    <t>feature_colston</t>
   </si>
   <si>
     <t>mon_stalin</t>
@@ -494,7 +494,7 @@
     <t>prod_stalin</t>
   </si>
   <si>
-    <t>physical_feature_stalin</t>
+    <t>feature_stalin</t>
   </si>
   <si>
     <t>mon_savile</t>
@@ -518,7 +518,7 @@
     <t>prod_savile</t>
   </si>
   <si>
-    <t>physical_feature_savile</t>
+    <t>feature_savile</t>
   </si>
   <si>
     <t>historical_figure_id</t>
@@ -770,61 +770,31 @@
     <t>feature_label</t>
   </si>
   <si>
-    <t>feature_colombo</t>
-  </si>
-  <si>
     <t>Columbus standing atop a pedestal, extending a finger to point toward something ahead</t>
   </si>
   <si>
-    <t>feature_montanelli</t>
-  </si>
-  <si>
     <t>Indro Montanelli seated while typing on his Olivetti</t>
   </si>
   <si>
-    <t xml:space="preserve">feature_hagenbeck </t>
-  </si>
-  <si>
     <t>Hagenbeck is represented standing while he pets a lion next to him</t>
   </si>
   <si>
-    <t>feature_gandhi</t>
-  </si>
-  <si>
     <t>Gandhi depicted in a traditional dhoti, holding a walking stick in one arm</t>
   </si>
   <si>
-    <t>feature_wollstonecraft</t>
-  </si>
-  <si>
     <t>The sculpture depicts abstract female forms merging into an organic mass that culminates in a small nude figurine</t>
   </si>
   <si>
-    <t>feature_colbert</t>
-  </si>
-  <si>
     <t>Colbert is represented seated, dressed in formal seventeenth-century attire, holding a document</t>
   </si>
   <si>
-    <t>feature_vieira</t>
-  </si>
-  <si>
     <t>Vieira is depicted standing, holding a cross aloft, surrounded by Indigenous children at his feet.</t>
   </si>
   <si>
-    <t>feature_colston</t>
-  </si>
-  <si>
     <t>Edward Colston is depicted standing upright, dressed in formal seventeenth-century attire</t>
   </si>
   <si>
-    <t>feature_stalin</t>
-  </si>
-  <si>
     <t>Joseph Stalin is depicted in military attire, he dominates the surrounding public space.</t>
-  </si>
-  <si>
-    <t>feature_savile</t>
   </si>
   <si>
     <t>Life-size bronze statue portraying Jimmy Savile in casual clothing, standing in a relaxed pose.</t>
@@ -3556,8 +3526,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments">
-  <x18tc:person displayName="Anna Pasetto" id="{81f55de1-faae-4bc5-925a-2fd7b051208c}" providerId="google-sheets"/>
-  <x18tc:person displayName="Alice P" id="{586fa5d0-329e-4aba-aa8f-58c063b7a164}" providerId="google-sheets"/>
+  <x18tc:person displayName="Anna Pasetto" id="{230e406a-a46d-4b96-8212-08c04f92f6f0}" providerId="google-sheets"/>
+  <x18tc:person displayName="Alice P" id="{761f4454-92d2-46f3-9830-039a0601e9e4}" providerId="google-sheets"/>
 </x18tc:personList>
 </file>
 
@@ -3757,16 +3727,16 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:ThreadedComments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <x18tc:threadedComment ref="A7" dT="2026-01-09T08:51:03.00" personId="{586fa5d0-329e-4aba-aa8f-58c063b7a164}" id="{dacb78f7-aeb7-47ad-bb79-263768dc55ae}" done="1">
+  <x18tc:threadedComment ref="A7" dT="2026-01-09T08:51:03.00" personId="{761f4454-92d2-46f3-9830-039a0601e9e4}" id="{d881ef26-9f0b-430f-a954-db6689018c5e}" done="1">
     <x18tc:text xml:space="preserve">Colbert</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="A8" dT="2026-01-09T08:51:13.00" personId="{586fa5d0-329e-4aba-aa8f-58c063b7a164}" id="{fb854438-ddfa-43ae-85c0-2c64aec51852}" done="1">
+  <x18tc:threadedComment ref="A8" dT="2026-01-09T08:51:13.00" personId="{761f4454-92d2-46f3-9830-039a0601e9e4}" id="{ae189f00-5016-41e0-9b86-53e86f5bbef7}" done="1">
     <x18tc:text xml:space="preserve">Colbert</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="A7" dT="2026-01-09T08:50:29.00" personId="{586fa5d0-329e-4aba-aa8f-58c063b7a164}" id="{e710ed34-dccd-4d08-8ca9-c731f0d59bce}" done="1">
+  <x18tc:threadedComment ref="A7" dT="2026-01-09T08:50:29.00" personId="{761f4454-92d2-46f3-9830-039a0601e9e4}" id="{0dd2fe50-eb8f-422a-991a-ba2bfbedad48}" done="1">
     <x18tc:text xml:space="preserve">Colbert</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="A9" dT="2026-01-09T08:51:21.00" personId="{586fa5d0-329e-4aba-aa8f-58c063b7a164}" id="{416d00ca-d83b-46a6-9004-d7fb6ad35dbd}" done="1">
+  <x18tc:threadedComment ref="A9" dT="2026-01-09T08:51:21.00" personId="{761f4454-92d2-46f3-9830-039a0601e9e4}" id="{fd15a492-6323-4789-934c-aabf6ae5397e}" done="1">
     <x18tc:text xml:space="preserve">Colbert</x18tc:text>
   </x18tc:threadedComment>
 </x18tc:ThreadedComments>
@@ -3774,10 +3744,10 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:ThreadedComments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <x18tc:threadedComment ref="B1" dT="2026-01-12T13:59:21.00" personId="{81f55de1-faae-4bc5-925a-2fd7b051208c}" id="{290ab74d-d8ce-4813-aa83-5ec8b52329ce}" done="1">
+  <x18tc:threadedComment ref="B1" dT="2026-01-12T13:59:21.00" personId="{230e406a-a46d-4b96-8212-08c04f92f6f0}" id="{9bc25b3e-c7fe-4277-b8db-f0b833afa2fc}" done="1">
     <x18tc:text xml:space="preserve">inserire nei pro removal il fatto che le statue non tengono in considerazione le vittime o le azioni e che sarebbe bello venissero menzionate</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="C1" dT="2026-01-12T13:45:34.00" personId="{81f55de1-faae-4bc5-925a-2fd7b051208c}" id="{952624b5-81b4-4ceb-aae4-259b625dc3d8}" done="1">
+  <x18tc:threadedComment ref="C1" dT="2026-01-12T13:45:34.00" personId="{230e406a-a46d-4b96-8212-08c04f92f6f0}" id="{16ccce64-8de4-403f-a7ff-17eee1521704}" done="1">
     <x18tc:text xml:space="preserve">mettiamo sempre sia i controversial fact che la legacy che gli heritage concept</x18tc:text>
   </x18tc:threadedComment>
 </x18tc:ThreadedComments>
@@ -3785,7 +3755,7 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:ThreadedComments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <x18tc:threadedComment ref="B1" dT="2026-01-12T14:20:36.00" personId="{81f55de1-faae-4bc5-925a-2fd7b051208c}" id="{e2a3bf42-3840-404d-9a82-5dfbcba5a041}" done="1">
+  <x18tc:threadedComment ref="B1" dT="2026-01-12T14:20:36.00" personId="{230e406a-a46d-4b96-8212-08c04f92f6f0}" id="{4ac54cb5-5b03-4668-a7ba-78919f06821f}" done="1">
     <x18tc:text xml:space="preserve">mettere i dati veri quando ci sono e quando non ci sono usare i nomi degli scenari</x18tc:text>
   </x18tc:threadedComment>
 </x18tc:ThreadedComments>
@@ -4407,10 +4377,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2">
@@ -4423,18 +4393,18 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5">
@@ -4442,7 +4412,7 @@
         <v>136</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6">
@@ -4450,151 +4420,151 @@
         <v>139</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -4619,10 +4589,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2">
@@ -4635,18 +4605,18 @@
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -4674,25 +4644,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="H1" s="38"/>
     </row>
@@ -4704,835 +4674,835 @@
         <v>132</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="H2" s="23"/>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="H3" s="23"/>
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="H4" s="23"/>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="H5" s="23"/>
     </row>
     <row r="6">
       <c r="A6" s="34" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="H6" s="23"/>
     </row>
     <row r="7">
       <c r="A7" s="33" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B7" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="G7" s="33" t="s">
         <v>344</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>354</v>
       </c>
       <c r="H7" s="23"/>
     </row>
     <row r="8">
       <c r="A8" s="34" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B8" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="F8" s="34" t="s">
         <v>343</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>356</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>353</v>
-      </c>
       <c r="G8" s="34" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="H8" s="23"/>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="H9" s="23"/>
     </row>
     <row r="10">
       <c r="A10" s="34" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="H10" s="23"/>
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="H11" s="23"/>
     </row>
     <row r="12">
       <c r="A12" s="34" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="H12" s="23"/>
     </row>
     <row r="13">
       <c r="A13" s="34" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="H13" s="23"/>
     </row>
     <row r="14">
       <c r="A14" s="33" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="H14" s="23"/>
     </row>
     <row r="15">
       <c r="A15" s="34" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="H15" s="23"/>
     </row>
     <row r="16">
       <c r="A16" s="33" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="H16" s="23"/>
     </row>
     <row r="17">
       <c r="A17" s="33" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="H17" s="23"/>
     </row>
     <row r="18">
       <c r="A18" s="34" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="H18" s="23"/>
     </row>
     <row r="19">
       <c r="A19" s="33" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C19" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>391</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="F19" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="D19" s="39" t="s">
-        <v>401</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>402</v>
-      </c>
       <c r="G19" s="33" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="H19" s="23"/>
     </row>
     <row r="20">
       <c r="A20" s="34" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C20" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="F20" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="D20" s="40" t="s">
-        <v>405</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>402</v>
-      </c>
       <c r="G20" s="34" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="H20" s="23"/>
     </row>
     <row r="21">
       <c r="A21" s="33" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="H21" s="23"/>
     </row>
     <row r="22">
       <c r="A22" s="34" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="H22" s="23"/>
     </row>
     <row r="23">
       <c r="A23" s="33" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="H23" s="23"/>
     </row>
     <row r="24">
       <c r="A24" s="34" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="H24" s="23"/>
     </row>
     <row r="25">
       <c r="A25" s="33" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B25" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>414</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="G25" s="33" t="s">
         <v>416</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>424</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>425</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>426</v>
       </c>
       <c r="H25" s="23"/>
     </row>
     <row r="26">
       <c r="A26" s="34" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B26" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="G26" s="34" t="s">
         <v>416</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>428</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>426</v>
       </c>
       <c r="H26" s="23"/>
     </row>
     <row r="27">
       <c r="A27" s="33" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="H27" s="23"/>
     </row>
     <row r="28">
       <c r="A28" s="34" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="H28" s="23"/>
     </row>
     <row r="29">
       <c r="A29" s="33" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B29" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>428</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="G29" s="33" t="s">
         <v>430</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>438</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="F29" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>440</v>
       </c>
       <c r="H29" s="23"/>
     </row>
     <row r="30">
       <c r="A30" s="34" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B30" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="G30" s="34" t="s">
         <v>430</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>431</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>439</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>440</v>
       </c>
       <c r="H30" s="23"/>
     </row>
     <row r="31">
       <c r="A31" s="33" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="H31" s="23"/>
     </row>
     <row r="32">
       <c r="A32" s="34" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="H32" s="23"/>
     </row>
     <row r="33">
       <c r="A33" s="33" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="H33" s="23"/>
     </row>
     <row r="34">
       <c r="A34" s="34" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="H34" s="23"/>
     </row>
     <row r="35">
       <c r="A35" s="33" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="H35" s="23"/>
     </row>
     <row r="36">
       <c r="A36" s="34" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H36" s="23"/>
     </row>
@@ -9461,10 +9431,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2">
@@ -9477,47 +9447,47 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>171</v>
@@ -9525,7 +9495,7 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>172</v>
@@ -9533,34 +9503,34 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14">
@@ -9598,16 +9568,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2">
@@ -9618,486 +9588,486 @@
         <v>132</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="39" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="40" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="39" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="40" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="39" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B9" s="33" t="s">
+        <v>482</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>492</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="40" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="39" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="40" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="40" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="39" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="40" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="39" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="39" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="40" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="39" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="40" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="39" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="40" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="39" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="40" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="39" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="40" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="39" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="40" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="39" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="40" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="39" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B31" s="33" t="s">
+        <v>532</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>542</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>551</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="40" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="39" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="40" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="39" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="40" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -10122,13 +10092,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="44" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2">
@@ -10139,15 +10109,15 @@
         <v>132</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C3" s="46">
         <v>42644.0</v>
@@ -10155,10 +10125,10 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C4" s="47">
         <v>42644.0</v>
@@ -10166,10 +10136,10 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C5" s="46">
         <v>40940.0</v>
@@ -10177,10 +10147,10 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C6" s="47">
         <v>40940.0</v>
@@ -10188,10 +10158,10 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C7" s="39">
         <v>2018.0</v>
@@ -10199,10 +10169,10 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C8" s="40">
         <v>2018.0</v>
@@ -10210,10 +10180,10 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C9" s="46">
         <v>43525.0</v>
@@ -10221,10 +10191,10 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C10" s="47">
         <v>43525.0</v>
@@ -10232,10 +10202,10 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C11" s="46">
         <v>43983.0</v>
@@ -10243,10 +10213,10 @@
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C12" s="47">
         <v>43983.0</v>
@@ -10254,10 +10224,10 @@
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C13" s="47">
         <v>43983.0</v>
@@ -10265,10 +10235,10 @@
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C14" s="46">
         <v>43983.0</v>
@@ -10276,10 +10246,10 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C15" s="47">
         <v>43983.0</v>
@@ -10287,10 +10257,10 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C16" s="46">
         <v>43983.0</v>
@@ -10298,10 +10268,10 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C17" s="39">
         <v>2016.0</v>
@@ -10309,10 +10279,10 @@
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C18" s="40">
         <v>2016.0</v>
@@ -10320,10 +10290,10 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C19" s="48">
         <v>44136.0</v>
@@ -10331,10 +10301,10 @@
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C20" s="49">
         <v>44136.0</v>
@@ -10342,10 +10312,10 @@
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C21" s="46">
         <v>43983.0</v>
@@ -10353,10 +10323,10 @@
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C22" s="47">
         <v>43983.0</v>
@@ -10364,10 +10334,10 @@
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C23" s="46">
         <v>43009.0</v>
@@ -10375,10 +10345,10 @@
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C24" s="47">
         <v>43009.0</v>
@@ -10386,10 +10356,10 @@
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C25" s="46">
         <v>43983.0</v>
@@ -10397,10 +10367,10 @@
     </row>
     <row r="26">
       <c r="A26" s="14" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C26" s="47">
         <v>43983.0</v>
@@ -10408,10 +10378,10 @@
     </row>
     <row r="27">
       <c r="A27" s="14" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C27" s="46">
         <v>35796.0</v>
@@ -10419,10 +10389,10 @@
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C28" s="47">
         <v>35796.0</v>
@@ -10430,10 +10400,10 @@
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C29" s="46">
         <v>42736.0</v>
@@ -10441,10 +10411,10 @@
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C30" s="47">
         <v>42736.0</v>
@@ -10452,10 +10422,10 @@
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C31" s="46">
         <v>43831.0</v>
@@ -10463,10 +10433,10 @@
     </row>
     <row r="32">
       <c r="A32" s="14" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C32" s="47">
         <v>43831.0</v>
@@ -10474,10 +10444,10 @@
     </row>
     <row r="33">
       <c r="A33" s="14" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C33" s="48">
         <v>20751.0</v>
@@ -10485,10 +10455,10 @@
     </row>
     <row r="34">
       <c r="A34" s="14" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C34" s="47">
         <v>20751.0</v>
@@ -10496,10 +10466,10 @@
     </row>
     <row r="35">
       <c r="A35" s="14" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C35" s="46">
         <v>41153.0</v>
@@ -10507,10 +10477,10 @@
     </row>
     <row r="36">
       <c r="A36" s="14" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C36" s="47">
         <v>41153.0</v>
@@ -10518,10 +10488,10 @@
     </row>
     <row r="37">
       <c r="A37" s="14" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C37" s="46">
         <v>42654.0</v>
@@ -10529,10 +10499,10 @@
     </row>
     <row r="38">
       <c r="A38" s="14" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C38" s="47">
         <v>42644.0</v>
@@ -10540,10 +10510,10 @@
     </row>
     <row r="39">
       <c r="A39" s="14" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C39" s="46">
         <v>40940.0</v>
@@ -10551,10 +10521,10 @@
     </row>
     <row r="40">
       <c r="A40" s="14" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C40" s="47">
         <v>40940.0</v>
@@ -10562,10 +10532,10 @@
     </row>
     <row r="41">
       <c r="A41" s="14" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C41" s="39">
         <v>2018.0</v>
@@ -10573,10 +10543,10 @@
     </row>
     <row r="42">
       <c r="A42" s="14" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C42" s="40">
         <v>2018.0</v>
@@ -10584,10 +10554,10 @@
     </row>
     <row r="43">
       <c r="A43" s="14" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C43" s="46">
         <v>43525.0</v>
@@ -10595,10 +10565,10 @@
     </row>
     <row r="44">
       <c r="A44" s="14" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C44" s="47">
         <v>43525.0</v>
@@ -10606,10 +10576,10 @@
     </row>
     <row r="45">
       <c r="A45" s="14" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C45" s="46">
         <v>43983.0</v>
@@ -10617,10 +10587,10 @@
     </row>
     <row r="46">
       <c r="A46" s="14" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C46" s="47">
         <v>43983.0</v>
@@ -10628,10 +10598,10 @@
     </row>
     <row r="47">
       <c r="A47" s="14" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C47" s="47">
         <v>43983.0</v>
@@ -10639,10 +10609,10 @@
     </row>
     <row r="48">
       <c r="A48" s="14" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C48" s="46">
         <v>43983.0</v>
@@ -10650,10 +10620,10 @@
     </row>
     <row r="49">
       <c r="A49" s="14" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C49" s="47">
         <v>44075.0</v>
@@ -10661,10 +10631,10 @@
     </row>
     <row r="50">
       <c r="A50" s="14" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C50" s="46">
         <v>44075.0</v>
@@ -10672,10 +10642,10 @@
     </row>
     <row r="51">
       <c r="A51" s="14" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C51" s="39">
         <v>2016.0</v>
@@ -10683,10 +10653,10 @@
     </row>
     <row r="52">
       <c r="A52" s="14" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C52" s="40">
         <v>2016.0</v>
@@ -10694,10 +10664,10 @@
     </row>
     <row r="53">
       <c r="A53" s="14" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C53" s="48">
         <v>44136.0</v>
@@ -10705,10 +10675,10 @@
     </row>
     <row r="54">
       <c r="A54" s="14" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C54" s="49">
         <v>44136.0</v>
@@ -10716,10 +10686,10 @@
     </row>
     <row r="55">
       <c r="A55" s="14" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C55" s="46">
         <v>43983.0</v>
@@ -10727,10 +10697,10 @@
     </row>
     <row r="56">
       <c r="A56" s="14" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C56" s="47">
         <v>43983.0</v>
@@ -10738,10 +10708,10 @@
     </row>
     <row r="57">
       <c r="A57" s="14" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C57" s="48">
         <v>43039.0</v>
@@ -10749,10 +10719,10 @@
     </row>
     <row r="58">
       <c r="A58" s="14" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C58" s="47">
         <v>43039.0</v>
@@ -10760,10 +10730,10 @@
     </row>
     <row r="59">
       <c r="A59" s="14" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C59" s="46">
         <v>43983.0</v>
@@ -10771,10 +10741,10 @@
     </row>
     <row r="60">
       <c r="A60" s="14" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C60" s="47">
         <v>44012.0</v>
@@ -10782,10 +10752,10 @@
     </row>
     <row r="61">
       <c r="A61" s="14" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C61" s="48">
         <v>36160.0</v>
@@ -10793,10 +10763,10 @@
     </row>
     <row r="62">
       <c r="A62" s="14" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C62" s="49">
         <v>36160.0</v>
@@ -10804,10 +10774,10 @@
     </row>
     <row r="63">
       <c r="A63" s="14" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C63" s="48">
         <v>43100.0</v>
@@ -10815,10 +10785,10 @@
     </row>
     <row r="64">
       <c r="A64" s="14" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C64" s="47">
         <v>43100.0</v>
@@ -10826,10 +10796,10 @@
     </row>
     <row r="65">
       <c r="A65" s="14" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C65" s="48">
         <v>44196.0</v>
@@ -10837,10 +10807,10 @@
     </row>
     <row r="66">
       <c r="A66" s="14" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C66" s="49">
         <v>44196.0</v>
@@ -10848,10 +10818,10 @@
     </row>
     <row r="67">
       <c r="A67" s="14" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C67" s="48">
         <v>20729.0</v>
@@ -10859,10 +10829,10 @@
     </row>
     <row r="68">
       <c r="A68" s="14" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C68" s="49">
         <v>20729.0</v>
@@ -10870,10 +10840,10 @@
     </row>
     <row r="69">
       <c r="A69" s="14" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C69" s="48">
         <v>41183.0</v>
@@ -10881,10 +10851,10 @@
     </row>
     <row r="70">
       <c r="A70" s="14" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C70" s="49">
         <v>41183.0</v>
@@ -10914,16 +10884,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="E1" s="23"/>
     </row>
@@ -10935,310 +10905,310 @@
         <v>132</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="E2" s="23"/>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="E3" s="23"/>
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="E4" s="23"/>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="E5" s="23"/>
     </row>
     <row r="6">
       <c r="A6" s="34" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E6" s="23"/>
     </row>
     <row r="7">
       <c r="A7" s="34" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="E7" s="23"/>
     </row>
     <row r="8">
       <c r="A8" s="33" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="E8" s="23"/>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E9" s="23"/>
     </row>
     <row r="10">
       <c r="A10" s="34" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="E10" s="23"/>
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="E11" s="23"/>
     </row>
     <row r="12">
       <c r="A12" s="34" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="E12" s="23"/>
     </row>
     <row r="13">
       <c r="A13" s="33" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="E13" s="23"/>
     </row>
     <row r="14">
       <c r="A14" s="34" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="E14" s="23"/>
     </row>
     <row r="15">
       <c r="A15" s="33" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="E15" s="23"/>
     </row>
     <row r="16">
       <c r="A16" s="34" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="E16" s="23"/>
     </row>
     <row r="17">
       <c r="A17" s="33" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="E17" s="23"/>
     </row>
     <row r="18">
       <c r="A18" s="34" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="E18" s="23"/>
     </row>
     <row r="19">
       <c r="A19" s="34" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="E19" s="23"/>
     </row>
     <row r="20">
       <c r="A20" s="33" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="E20" s="23"/>
     </row>
     <row r="21">
       <c r="A21" s="34" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="E21" s="23"/>
     </row>
     <row r="22">
       <c r="A22" s="33" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="E22" s="23"/>
     </row>
@@ -14211,10 +14181,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="2">
@@ -14225,7 +14195,7 @@
         <v>132</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
     </row>
     <row r="3">
@@ -14233,10 +14203,10 @@
         <v>28</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
     </row>
     <row r="4">
@@ -14244,10 +14214,10 @@
         <v>38</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5">
@@ -14255,10 +14225,10 @@
         <v>50</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
     </row>
     <row r="6">
@@ -14266,10 +14236,10 @@
         <v>59</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
     </row>
     <row r="7">
@@ -14277,10 +14247,10 @@
         <v>68</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
     </row>
     <row r="8">
@@ -14288,10 +14258,10 @@
         <v>80</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
     </row>
     <row r="9">
@@ -14299,10 +14269,10 @@
         <v>90</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
     </row>
     <row r="10">
@@ -14310,10 +14280,10 @@
         <v>101</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
     </row>
     <row r="11">
@@ -14321,10 +14291,10 @@
         <v>112</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
     </row>
     <row r="12">
@@ -14332,10 +14302,10 @@
         <v>122</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
     </row>
     <row r="13">
@@ -14363,10 +14333,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="C1" s="52"/>
     </row>
@@ -14381,19 +14351,19 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="C3" s="53"/>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="C4" s="53"/>
     </row>
@@ -14402,7 +14372,7 @@
         <v>137</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="C5" s="53"/>
     </row>
@@ -14411,25 +14381,25 @@
         <v>143</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="C6" s="23"/>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="C7" s="53"/>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="C8" s="53"/>
     </row>
@@ -14438,7 +14408,7 @@
         <v>149</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="C9" s="53"/>
     </row>
@@ -14447,7 +14417,7 @@
         <v>152</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="C10" s="53"/>
     </row>
@@ -14456,34 +14426,34 @@
         <v>155</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="C11" s="53"/>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="C12" s="53"/>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="C13" s="53"/>
     </row>
     <row r="14">
       <c r="A14" s="16" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="C14" s="53"/>
     </row>
@@ -14492,7 +14462,7 @@
         <v>161</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C15" s="53"/>
     </row>
@@ -14501,7 +14471,7 @@
         <v>164</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="C16" s="53"/>
     </row>
@@ -17503,10 +17473,10 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2">
@@ -17517,7 +17487,7 @@
         <v>132</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
     </row>
     <row r="3">
@@ -17525,7 +17495,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>136</v>
@@ -17536,7 +17506,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>139</v>
@@ -17547,7 +17517,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>142</v>
@@ -17558,7 +17528,7 @@
         <v>64</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>145</v>
@@ -17569,7 +17539,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>148</v>
@@ -17580,7 +17550,7 @@
         <v>85</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>151</v>
@@ -17591,7 +17561,7 @@
         <v>96</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>154</v>
@@ -17602,7 +17572,7 @@
         <v>107</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>157</v>
@@ -17613,7 +17583,7 @@
         <v>118</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>160</v>
@@ -17624,7 +17594,7 @@
         <v>126</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>163</v>
@@ -20823,22 +20793,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2">
@@ -20849,715 +20819,715 @@
         <v>132</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="G2" s="55"/>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="G3" s="55"/>
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>136</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="G4" s="56"/>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>139</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="G5" s="55"/>
     </row>
     <row r="6">
       <c r="A6" s="34" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>139</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="G6" s="56"/>
     </row>
     <row r="7">
       <c r="A7" s="33" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>139</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="G7" s="55"/>
     </row>
     <row r="8">
       <c r="A8" s="34" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="D8" s="34" t="s">
         <v>139</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="G8" s="56"/>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>139</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="G9" s="55"/>
     </row>
     <row r="10">
       <c r="A10" s="34" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>139</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="G10" s="56"/>
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>139</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="G11" s="55"/>
     </row>
     <row r="12">
       <c r="A12" s="34" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>139</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="G12" s="56"/>
     </row>
     <row r="13">
       <c r="A13" s="34" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="G13" s="56"/>
     </row>
     <row r="14">
       <c r="A14" s="33" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="G14" s="55"/>
     </row>
     <row r="15">
       <c r="A15" s="34" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="G15" s="56"/>
     </row>
     <row r="16">
       <c r="A16" s="33" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="G16" s="55"/>
     </row>
     <row r="17">
       <c r="A17" s="33" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>145</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="G17" s="55"/>
     </row>
     <row r="18">
       <c r="A18" s="34" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>145</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="G18" s="56"/>
     </row>
     <row r="19">
       <c r="A19" s="33" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="D19" s="33" t="s">
         <v>148</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="34" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="D20" s="34" t="s">
         <v>148</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="G20" s="56"/>
     </row>
     <row r="21">
       <c r="A21" s="33" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="D21" s="33" t="s">
         <v>151</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="34" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="D22" s="34" t="s">
         <v>151</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="33" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>154</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="34" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="D24" s="34" t="s">
         <v>154</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="33" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>154</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="34" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="D26" s="34" t="s">
         <v>154</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="33" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="34" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="33" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="34" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="33" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="34" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="B32" s="58" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="G32" s="56"/>
     </row>
     <row r="33">
       <c r="A33" s="33" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="D33" s="33" t="s">
         <v>160</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="34" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="D34" s="34" t="s">
         <v>160</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="33" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="34" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
     </row>
   </sheetData>
@@ -21583,13 +21553,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="D1" s="59"/>
       <c r="E1" s="59"/>
@@ -21610,29 +21580,29 @@
         <v>132</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -21647,24 +21617,24 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -21679,24 +21649,24 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -21711,24 +21681,24 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -21743,24 +21713,24 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="60" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="D12" s="61"/>
       <c r="E12" s="61"/>
@@ -21775,24 +21745,24 @@
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="60" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="D14" s="61"/>
       <c r="E14" s="61"/>
@@ -21807,24 +21777,24 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="60" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="D16" s="61"/>
       <c r="E16" s="61"/>
@@ -21839,24 +21809,24 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="60" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="D18" s="61"/>
       <c r="E18" s="61"/>
@@ -21871,13 +21841,13 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
@@ -21902,13 +21872,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="D1" s="62"/>
     </row>
@@ -21920,127 +21890,127 @@
         <v>132</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="D2" s="62"/>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="D3" s="62"/>
     </row>
     <row r="4">
       <c r="A4" s="33" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="D4" s="62"/>
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="D5" s="62"/>
     </row>
     <row r="6">
       <c r="A6" s="33" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="D6" s="62"/>
     </row>
     <row r="7">
       <c r="A7" s="33" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="D7" s="62"/>
     </row>
     <row r="8">
       <c r="A8" s="33" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="D8" s="62"/>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="D9" s="62"/>
     </row>
     <row r="10">
       <c r="A10" s="33" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="D10" s="62"/>
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="D11" s="62"/>
     </row>
     <row r="12">
       <c r="A12" s="33" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="D12" s="62"/>
     </row>
@@ -22066,13 +22036,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="27" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
     </row>
     <row r="2">
@@ -22083,126 +22053,126 @@
         <v>132</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="63" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="D3" s="65"/>
     </row>
     <row r="4">
       <c r="A4" s="63" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="D4" s="65"/>
     </row>
     <row r="5">
       <c r="A5" s="63" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="D5" s="65"/>
     </row>
     <row r="6">
       <c r="A6" s="63" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="D6" s="65"/>
     </row>
     <row r="7">
       <c r="A7" s="63" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="D7" s="65"/>
     </row>
     <row r="8">
       <c r="A8" s="63" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="D8" s="65"/>
     </row>
     <row r="9">
       <c r="A9" s="63" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="D9" s="65"/>
     </row>
     <row r="10">
       <c r="A10" s="63" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="D10" s="65"/>
     </row>
     <row r="11">
       <c r="A11" s="63" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="D11" s="65"/>
     </row>
     <row r="12">
       <c r="A12" s="63" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="D12" s="65"/>
     </row>
@@ -22228,13 +22198,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
     </row>
     <row r="2">
@@ -22245,117 +22215,117 @@
         <v>132</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -22380,13 +22350,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
     </row>
     <row r="2">
@@ -22397,117 +22367,117 @@
         <v>132</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -22531,10 +22501,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2">
@@ -22547,10 +22517,10 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
     </row>
   </sheetData>
@@ -22574,10 +22544,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2">
@@ -22590,10 +22560,10 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>881</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>891</v>
       </c>
     </row>
   </sheetData>
@@ -22617,10 +22587,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2">
@@ -22633,10 +22603,10 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
     </row>
   </sheetData>
@@ -23123,18 +23093,18 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>213</v>
+        <v>47</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -23163,18 +23133,18 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>215</v>
+        <v>56</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>217</v>
+        <v>65</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -23203,18 +23173,18 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>221</v>
+        <v>87</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -23243,18 +23213,18 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>223</v>
+        <v>98</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>225</v>
+        <v>109</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -23283,18 +23253,18 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>227</v>
+        <v>119</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>229</v>
+        <v>127</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -23348,7 +23318,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2">
@@ -23361,82 +23331,82 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13">
@@ -23444,79 +23414,79 @@
         <v>106</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="28" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
